--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4417,7 +4417,7 @@
     <t>ODENSLUNDA</t>
   </si>
   <si>
-    <t>Categorias Produto : 03-01-2020 11:23:19</t>
+    <t>Categorias Produto : 09-01-2020 09:47:16</t>
   </si>
 </sst>
 </file>
@@ -4828,7 +4828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
       <selection activeCell="G692" sqref="G692"/>
     </sheetView>
   </sheetViews>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4417,7 +4417,7 @@
     <t>ODENSLUNDA</t>
   </si>
   <si>
-    <t>Categorias Produto : 09-01-2020 09:47:16</t>
+    <t>Categorias Produto : 14-01-2020 11:13:57</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5154" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1471">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4417,7 +4417,25 @@
     <t>ODENSLUNDA</t>
   </si>
   <si>
-    <t>Categorias Produto : 14-01-2020 11:13:57</t>
+    <t>Categorias Produto : 04-02-2020 15:43:05</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>DARLENE</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>LOMMEDALEN</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>KLIPPAN LVL</t>
   </si>
 </sst>
 </file>
@@ -4548,8 +4566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G738" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G738"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G741" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G741"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4826,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G738"/>
+  <dimension ref="A1:G741"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
       <selection activeCell="G692" sqref="G692"/>
@@ -7052,10 +7070,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>173</v>
+        <v>1465</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>174</v>
+        <v>1466</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>10</v>
@@ -7075,10 +7093,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7098,10 +7116,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>177</v>
+        <v>1467</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>178</v>
+        <v>1468</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7121,10 +7139,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>179</v>
+        <v>1469</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>180</v>
+        <v>1470</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7144,10 +7162,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7167,10 +7185,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7190,10 +7208,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7213,10 +7231,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7236,10 +7254,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7259,10 +7277,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7282,10 +7300,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7305,10 +7323,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7328,10 +7346,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7351,10 +7369,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7374,10 +7392,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7397,10 +7415,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7420,10 +7438,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7443,10 +7461,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7466,10 +7484,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7489,10 +7507,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7512,10 +7530,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7535,10 +7553,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7558,10 +7576,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7581,10 +7599,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7604,10 +7622,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7627,10 +7645,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7650,10 +7668,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7673,10 +7691,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7696,10 +7714,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7719,10 +7737,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7742,10 +7760,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7765,10 +7783,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7788,10 +7806,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7811,10 +7829,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7834,10 +7852,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7857,10 +7875,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7880,10 +7898,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7903,10 +7921,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7926,10 +7944,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -7949,10 +7967,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -7972,10 +7990,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -7995,10 +8013,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8018,10 +8036,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8041,10 +8059,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8064,10 +8082,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8087,10 +8105,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8110,10 +8128,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8133,10 +8151,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8156,10 +8174,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8179,10 +8197,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8202,10 +8220,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8225,10 +8243,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8248,10 +8266,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8271,10 +8289,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8294,10 +8312,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8317,10 +8335,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8340,10 +8358,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8363,10 +8381,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8386,10 +8404,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8409,10 +8427,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8432,10 +8450,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8455,10 +8473,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8478,10 +8496,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8501,10 +8519,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8524,10 +8542,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8547,10 +8565,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8570,10 +8588,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8593,10 +8611,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8616,10 +8634,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8639,10 +8657,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8662,10 +8680,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8685,10 +8703,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8708,10 +8726,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8731,10 +8749,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8754,10 +8772,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8777,10 +8795,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8800,10 +8818,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8823,10 +8841,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8846,10 +8864,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8869,10 +8887,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8892,10 +8910,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8915,10 +8933,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8938,10 +8956,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -8961,10 +8979,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -8984,10 +9002,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9007,10 +9025,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9030,10 +9048,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9053,10 +9071,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9076,10 +9094,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9099,10 +9117,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9122,10 +9140,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9145,10 +9163,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9168,10 +9186,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9191,10 +9209,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9214,10 +9232,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9237,10 +9255,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9260,10 +9278,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9283,10 +9301,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9306,10 +9324,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9329,10 +9347,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9352,10 +9370,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9375,10 +9393,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9398,10 +9416,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9421,10 +9439,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9444,10 +9462,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9467,10 +9485,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9490,10 +9508,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9513,10 +9531,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9536,10 +9554,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9559,10 +9577,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9582,10 +9600,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9605,10 +9623,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9628,10 +9646,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9651,10 +9669,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9674,10 +9692,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9697,10 +9715,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9720,10 +9738,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9743,10 +9761,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9766,10 +9784,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9789,10 +9807,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9812,10 +9830,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9835,10 +9853,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9858,10 +9876,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9881,10 +9899,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9904,10 +9922,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9927,10 +9945,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -9950,10 +9968,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -9973,10 +9991,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -9996,10 +10014,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10019,10 +10037,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10042,10 +10060,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10065,10 +10083,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10088,10 +10106,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10111,10 +10129,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10134,10 +10152,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10157,10 +10175,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10180,10 +10198,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10203,10 +10221,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10226,10 +10244,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10249,10 +10267,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10272,10 +10290,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10295,10 +10313,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10318,10 +10336,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10341,10 +10359,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10364,10 +10382,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10387,10 +10405,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10410,10 +10428,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10433,10 +10451,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10456,10 +10474,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10479,10 +10497,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10502,10 +10520,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10525,10 +10543,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10548,10 +10566,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10571,10 +10589,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10594,10 +10612,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10617,10 +10635,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10640,10 +10658,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10663,10 +10681,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10686,10 +10704,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10709,10 +10727,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10732,10 +10750,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10755,10 +10773,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10778,10 +10796,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10801,10 +10819,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10824,10 +10842,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10847,10 +10865,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10870,10 +10888,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10893,10 +10911,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10916,10 +10934,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10939,10 +10957,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -10962,10 +10980,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -10985,10 +11003,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11008,10 +11026,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11031,10 +11049,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11054,10 +11072,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11077,10 +11095,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11100,10 +11118,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11123,10 +11141,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11146,10 +11164,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11169,10 +11187,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11192,10 +11210,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11215,10 +11233,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11238,10 +11256,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11261,10 +11279,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11284,10 +11302,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11307,10 +11325,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11330,10 +11348,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11353,10 +11371,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11376,10 +11394,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11399,10 +11417,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11422,10 +11440,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11445,10 +11463,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11468,10 +11486,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11491,10 +11509,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11514,10 +11532,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11537,10 +11555,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11560,10 +11578,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11583,10 +11601,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11606,10 +11624,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11629,10 +11647,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11652,10 +11670,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11675,10 +11693,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11698,10 +11716,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11721,10 +11739,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11744,10 +11762,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11767,10 +11785,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11790,10 +11808,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11813,10 +11831,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>372</v>
+        <v>582</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11836,10 +11854,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11859,10 +11877,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11882,10 +11900,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>593</v>
+        <v>372</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11905,10 +11923,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11928,10 +11946,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -11951,10 +11969,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -11974,10 +11992,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -11997,10 +12015,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12020,10 +12038,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>462</v>
+        <v>599</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12043,10 +12061,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12066,10 +12084,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12089,10 +12107,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12112,10 +12130,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12135,10 +12153,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12158,10 +12176,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12181,10 +12199,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12204,10 +12222,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12227,10 +12245,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12250,10 +12268,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12273,10 +12291,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12296,10 +12314,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12319,10 +12337,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12342,10 +12360,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12365,10 +12383,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12388,10 +12406,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12411,10 +12429,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12434,10 +12452,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12457,10 +12475,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12480,10 +12498,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12503,10 +12521,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12526,10 +12544,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12549,10 +12567,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12572,10 +12590,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12595,10 +12613,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12618,10 +12636,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12641,10 +12659,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12664,10 +12682,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12687,10 +12705,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12710,10 +12728,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12733,10 +12751,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12756,10 +12774,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12779,10 +12797,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12802,10 +12820,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12825,10 +12843,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12848,10 +12866,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12871,10 +12889,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12894,10 +12912,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12917,10 +12935,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12940,10 +12958,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -12963,10 +12981,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -12986,10 +13004,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13009,10 +13027,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13032,10 +13050,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13055,10 +13073,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13078,10 +13096,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13101,10 +13119,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13124,10 +13142,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13147,10 +13165,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13170,10 +13188,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13193,10 +13211,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13216,10 +13234,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13239,10 +13257,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13262,10 +13280,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13285,10 +13303,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13308,10 +13326,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13331,10 +13349,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13354,10 +13372,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13377,10 +13395,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13400,10 +13418,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13423,10 +13441,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13446,10 +13464,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13469,10 +13487,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13492,10 +13510,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13515,10 +13533,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13538,10 +13556,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13561,10 +13579,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13584,10 +13602,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13607,10 +13625,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13630,10 +13648,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13653,10 +13671,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13676,10 +13694,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13699,10 +13717,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13722,10 +13740,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13745,10 +13763,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13768,10 +13786,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13791,10 +13809,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13814,10 +13832,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13837,10 +13855,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13860,10 +13878,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13883,10 +13901,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13906,10 +13924,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13929,10 +13947,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -13952,10 +13970,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -13975,10 +13993,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -13998,10 +14016,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14021,10 +14039,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14044,10 +14062,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14067,10 +14085,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14090,10 +14108,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14113,10 +14131,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14136,10 +14154,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14159,10 +14177,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14182,10 +14200,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14205,10 +14223,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14228,10 +14246,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14251,10 +14269,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14274,10 +14292,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14297,10 +14315,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14320,10 +14338,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14343,10 +14361,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14366,10 +14384,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14389,10 +14407,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14412,10 +14430,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14435,10 +14453,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14458,10 +14476,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14481,10 +14499,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14504,10 +14522,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14527,10 +14545,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14550,10 +14568,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14573,10 +14591,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14596,10 +14614,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>186</v>
+        <v>822</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14619,10 +14637,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14642,10 +14660,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14665,10 +14683,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>632</v>
+        <v>186</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14688,10 +14706,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14711,10 +14729,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14734,10 +14752,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>838</v>
+        <v>632</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14757,10 +14775,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14780,10 +14798,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14803,10 +14821,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14826,10 +14844,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14849,10 +14867,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14872,10 +14890,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14895,10 +14913,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14918,10 +14936,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14941,10 +14959,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -14964,10 +14982,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -14987,10 +15005,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15010,10 +15028,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15033,10 +15051,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15056,10 +15074,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15079,10 +15097,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>374</v>
+        <v>862</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15102,10 +15120,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15125,10 +15143,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>154</v>
+        <v>866</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15148,10 +15166,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>872</v>
+        <v>374</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15171,10 +15189,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15194,10 +15212,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>876</v>
+        <v>154</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15217,10 +15235,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15240,10 +15258,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15263,10 +15281,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15286,10 +15304,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15309,10 +15327,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15332,10 +15350,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15355,10 +15373,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15378,10 +15396,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>891</v>
+        <v>400</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15401,10 +15419,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15424,10 +15442,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15447,10 +15465,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15470,10 +15488,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>104</v>
+        <v>893</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15493,10 +15511,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15516,10 +15534,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15539,10 +15557,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>904</v>
+        <v>104</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15562,10 +15580,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15585,10 +15603,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15608,10 +15626,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15631,10 +15649,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15654,10 +15672,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15677,10 +15695,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15700,10 +15718,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15723,10 +15741,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15746,10 +15764,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15769,10 +15787,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15792,10 +15810,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15815,10 +15833,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15838,10 +15856,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15861,10 +15879,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15884,10 +15902,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15907,10 +15925,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15930,10 +15948,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -15953,10 +15971,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -15976,10 +15994,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -15999,10 +16017,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16022,10 +16040,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16045,10 +16063,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16068,10 +16086,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16091,10 +16109,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16114,10 +16132,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16137,10 +16155,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16160,10 +16178,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16183,10 +16201,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16206,10 +16224,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16229,10 +16247,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16252,10 +16270,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16275,10 +16293,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16298,10 +16316,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16321,10 +16339,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16344,10 +16362,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16367,10 +16385,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16390,10 +16408,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16413,10 +16431,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16436,10 +16454,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16459,10 +16477,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16482,10 +16500,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16505,10 +16523,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16528,10 +16546,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16551,10 +16569,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16574,10 +16592,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>895</v>
+        <v>988</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16597,10 +16615,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16620,10 +16638,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16643,10 +16661,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>999</v>
+        <v>895</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16666,10 +16684,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16689,10 +16707,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16712,10 +16730,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16735,10 +16753,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16758,10 +16776,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16781,10 +16799,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16804,10 +16822,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>696</v>
+        <v>1007</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16827,10 +16845,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16850,10 +16868,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16873,10 +16891,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1018</v>
+        <v>696</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16896,10 +16914,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16919,10 +16937,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16942,10 +16960,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>692</v>
+        <v>1018</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -16965,10 +16983,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -16988,10 +17006,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17011,10 +17029,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1029</v>
+        <v>692</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17034,10 +17052,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17057,10 +17075,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17080,10 +17098,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>104</v>
+        <v>1029</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17103,10 +17121,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17126,10 +17144,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17149,10 +17167,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1040</v>
+        <v>104</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17172,10 +17190,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17195,10 +17213,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17218,10 +17236,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17241,10 +17259,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17264,10 +17282,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17287,10 +17305,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>986</v>
+        <v>1046</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17310,10 +17328,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17333,10 +17351,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17356,10 +17374,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1057</v>
+        <v>986</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17379,10 +17397,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17402,10 +17420,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17425,10 +17443,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>986</v>
+        <v>1057</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17448,10 +17466,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17471,10 +17489,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17494,10 +17512,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1068</v>
+        <v>986</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17517,10 +17535,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17540,10 +17558,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>186</v>
+        <v>1066</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17563,10 +17581,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>100</v>
+        <v>1068</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17586,10 +17604,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>32</v>
+        <v>1070</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17609,10 +17627,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1075</v>
+        <v>186</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17632,10 +17650,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1077</v>
+        <v>100</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17655,10 +17673,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1079</v>
+        <v>32</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17678,10 +17696,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>786</v>
+        <v>1075</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17701,10 +17719,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>186</v>
+        <v>1077</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17724,10 +17742,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17747,10 +17765,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1085</v>
+        <v>786</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17770,10 +17788,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1087</v>
+        <v>186</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17793,10 +17811,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17816,10 +17834,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17839,10 +17857,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17862,10 +17880,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17885,10 +17903,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17908,10 +17926,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17931,10 +17949,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -17954,10 +17972,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -17977,10 +17995,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18000,10 +18018,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18023,10 +18041,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18046,10 +18064,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18069,10 +18087,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18092,10 +18110,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18115,10 +18133,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18138,10 +18156,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>891</v>
+        <v>1113</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18161,10 +18179,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18184,10 +18202,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18207,10 +18225,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1124</v>
+        <v>891</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18230,10 +18248,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18253,10 +18271,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18276,10 +18294,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18299,10 +18317,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18322,10 +18340,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18345,10 +18363,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18368,10 +18386,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18391,10 +18409,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18414,10 +18432,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18437,10 +18455,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18460,10 +18478,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18483,10 +18501,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18506,10 +18524,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18529,10 +18547,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18552,10 +18570,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18575,10 +18593,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18598,10 +18616,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18621,10 +18639,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18644,10 +18662,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18667,10 +18685,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18690,10 +18708,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18713,10 +18731,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18736,10 +18754,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18759,10 +18777,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18782,10 +18800,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18805,10 +18823,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18828,10 +18846,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18851,10 +18869,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18874,10 +18892,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18897,10 +18915,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18920,10 +18938,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18943,10 +18961,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -18966,10 +18984,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -18989,10 +19007,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19012,10 +19030,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19035,10 +19053,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19058,10 +19076,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19081,10 +19099,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19104,10 +19122,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19127,10 +19145,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19150,10 +19168,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19173,10 +19191,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>902</v>
+        <v>1202</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19196,10 +19214,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19219,10 +19237,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19242,10 +19260,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1213</v>
+        <v>902</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19265,10 +19283,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19288,10 +19306,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19311,10 +19329,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19334,10 +19352,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19357,10 +19375,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19380,10 +19398,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19403,10 +19421,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19426,10 +19444,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19449,10 +19467,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19472,10 +19490,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19495,10 +19513,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19518,10 +19536,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19541,10 +19559,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19564,10 +19582,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19587,10 +19605,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19610,10 +19628,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19633,10 +19651,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19656,10 +19674,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19679,10 +19697,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19702,10 +19720,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19725,10 +19743,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19748,10 +19766,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1448</v>
+        <v>1250</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1449</v>
+        <v>1251</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19771,10 +19789,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19794,10 +19812,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19817,10 +19835,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1260</v>
+        <v>1448</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1261</v>
+        <v>1449</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19840,10 +19858,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19863,10 +19881,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19886,10 +19904,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>186</v>
+        <v>1261</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19909,10 +19927,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>186</v>
+        <v>1263</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19932,10 +19950,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -19955,10 +19973,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -19978,10 +19996,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1272</v>
+        <v>186</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20001,10 +20019,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1274</v>
+        <v>186</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20024,10 +20042,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20047,10 +20065,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20070,10 +20088,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20093,10 +20111,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>782</v>
+        <v>1276</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20116,10 +20134,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20139,10 +20157,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20162,10 +20180,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1287</v>
+        <v>782</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20185,10 +20203,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20208,10 +20226,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20231,10 +20249,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20254,10 +20272,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20277,10 +20295,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20300,10 +20318,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20323,10 +20341,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20346,10 +20364,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20369,10 +20387,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20392,10 +20410,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20415,10 +20433,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20438,10 +20456,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20461,10 +20479,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20484,10 +20502,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20507,10 +20525,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20530,10 +20548,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20553,10 +20571,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20576,10 +20594,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20599,10 +20617,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1456</v>
+        <v>1318</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1457</v>
+        <v>1319</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20622,10 +20640,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20645,10 +20663,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1462</v>
+        <v>1322</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1463</v>
+        <v>1323</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20668,10 +20686,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20691,22 +20709,22 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E691" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F691" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G691" s="6" t="s">
         <v>14</v>
@@ -20714,22 +20732,22 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1331</v>
+        <v>1462</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>186</v>
+        <v>1463</v>
       </c>
       <c r="C692" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E692" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F692" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G692" s="6" t="s">
         <v>14</v>
@@ -20737,22 +20755,22 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1333</v>
+        <v>1450</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1334</v>
+        <v>1451</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>1335</v>
+        <v>10</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>1335</v>
+        <v>11</v>
       </c>
       <c r="E693" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F693" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G693" s="6" t="s">
         <v>14</v>
@@ -20760,16 +20778,16 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E694" s="5" t="s">
         <v>12</v>
@@ -20783,22 +20801,22 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1339</v>
+        <v>186</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E695" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F695" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G695" s="6" t="s">
         <v>14</v>
@@ -20806,10 +20824,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>1335</v>
@@ -20829,10 +20847,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>1335</v>
@@ -20852,10 +20870,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>1335</v>
@@ -20875,22 +20893,22 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F699" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G699" s="6" t="s">
         <v>14</v>
@@ -20898,22 +20916,22 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>186</v>
+        <v>1343</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="E700" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F700" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G700" s="6" t="s">
         <v>14</v>
@@ -20921,22 +20939,22 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>1353</v>
+        <v>12</v>
       </c>
       <c r="F701" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G701" s="6" t="s">
         <v>14</v>
@@ -20944,22 +20962,22 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>1356</v>
+        <v>10</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G702" s="6" t="s">
         <v>14</v>
@@ -20967,22 +20985,22 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1358</v>
+        <v>186</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>1328</v>
+        <v>186</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E703" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F703" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G703" s="6" t="s">
         <v>14</v>
@@ -20990,22 +21008,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21013,10 +21031,10 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>1356</v>
@@ -21036,13 +21054,13 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D706" s="5" t="s">
         <v>1329</v>
@@ -21059,10 +21077,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1356</v>
@@ -21082,10 +21100,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1356</v>
@@ -21105,10 +21123,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1356</v>
@@ -21128,10 +21146,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1356</v>
@@ -21151,10 +21169,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1356</v>
@@ -21174,10 +21192,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C712" s="5" t="s">
         <v>1356</v>
@@ -21197,10 +21215,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1356</v>
@@ -21220,10 +21238,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21243,10 +21261,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21266,10 +21284,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21289,10 +21307,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21312,10 +21330,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21335,10 +21353,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21358,10 +21376,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21381,10 +21399,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1339</v>
+        <v>1388</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21404,10 +21422,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21427,10 +21445,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21450,10 +21468,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1399</v>
+        <v>1339</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21473,10 +21491,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21496,10 +21514,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21519,10 +21537,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21542,10 +21560,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21565,10 +21583,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21588,10 +21606,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21611,10 +21629,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21634,16 +21652,16 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>12</v>
@@ -21657,16 +21675,16 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E733" s="5" t="s">
         <v>12</v>
@@ -21680,16 +21698,16 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="C734" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E734" s="5" t="s">
         <v>12</v>
@@ -21703,22 +21721,22 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>186</v>
+        <v>1415</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E735" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F735" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G735" s="6" t="s">
         <v>14</v>
@@ -21726,22 +21744,22 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C736" s="5" t="s">
-        <v>10</v>
+        <v>1416</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>11</v>
+        <v>1417</v>
       </c>
       <c r="E736" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F736" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G736" s="6" t="s">
         <v>14</v>
@@ -21749,16 +21767,16 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>1328</v>
+        <v>1416</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>1329</v>
+        <v>1417</v>
       </c>
       <c r="E737" s="5" t="s">
         <v>12</v>
@@ -21772,10 +21790,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1428</v>
+        <v>186</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>186</v>
@@ -21790,6 +21808,75 @@
         <v>1332</v>
       </c>
       <c r="G738" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E739" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F739" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G739" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E740" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F740" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G740" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E741" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F741" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G741" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4417,9 +4417,6 @@
     <t>ODENSLUNDA</t>
   </si>
   <si>
-    <t>Categorias Produto : 04-02-2020 15:43:05</t>
-  </si>
-  <si>
     <t>1062</t>
   </si>
   <si>
@@ -4436,6 +4433,9 @@
   </si>
   <si>
     <t>KLIPPAN LVL</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 11-02-2020 10:32:08</t>
   </si>
 </sst>
 </file>
@@ -4846,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="G692" sqref="G692"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7070,10 +7070,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>1465</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>1466</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>10</v>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>1467</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1468</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>1469</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1470</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1473">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4435,7 +4435,13 @@
     <t>KLIPPAN LVL</t>
   </si>
   <si>
-    <t>Categorias Produto : 11-02-2020 10:32:08</t>
+    <t>Categorias Produto : 21-02-2020 11:18:07</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>CHACAL</t>
   </si>
 </sst>
 </file>
@@ -4566,8 +4572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G741" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G741"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G742" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G742"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4844,10 +4850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G741"/>
+  <dimension ref="A1:G742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,10 +7191,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>177</v>
+        <v>1471</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>178</v>
+        <v>1472</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7208,10 +7214,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7231,10 +7237,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7254,10 +7260,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7277,10 +7283,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7300,10 +7306,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7323,10 +7329,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7346,10 +7352,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7369,10 +7375,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7392,10 +7398,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7415,10 +7421,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7438,10 +7444,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7461,10 +7467,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7484,10 +7490,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7507,10 +7513,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7530,10 +7536,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7553,10 +7559,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7576,10 +7582,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7599,10 +7605,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7622,10 +7628,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7645,10 +7651,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7668,10 +7674,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7691,10 +7697,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7714,10 +7720,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7737,10 +7743,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7760,10 +7766,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7783,10 +7789,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7806,10 +7812,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7829,10 +7835,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7852,10 +7858,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7875,10 +7881,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7898,10 +7904,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7921,10 +7927,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7944,10 +7950,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -7967,10 +7973,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -7990,10 +7996,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8013,10 +8019,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8036,10 +8042,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8059,10 +8065,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8082,10 +8088,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8105,10 +8111,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8128,10 +8134,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8151,10 +8157,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8174,10 +8180,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8197,10 +8203,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8220,10 +8226,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8243,10 +8249,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8266,10 +8272,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8289,10 +8295,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8312,10 +8318,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8335,10 +8341,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8358,10 +8364,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8381,10 +8387,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8404,10 +8410,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8427,10 +8433,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8450,10 +8456,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8473,10 +8479,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8496,10 +8502,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8519,10 +8525,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8542,10 +8548,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8565,10 +8571,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8588,10 +8594,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8611,10 +8617,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8634,10 +8640,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8657,10 +8663,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8680,10 +8686,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8703,10 +8709,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8726,10 +8732,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8749,10 +8755,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8772,10 +8778,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8795,10 +8801,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8818,10 +8824,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8841,10 +8847,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8864,10 +8870,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8887,10 +8893,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8910,10 +8916,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8933,10 +8939,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8956,10 +8962,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -8979,10 +8985,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9002,10 +9008,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9025,10 +9031,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9048,10 +9054,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9071,10 +9077,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9094,10 +9100,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9117,10 +9123,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9140,10 +9146,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9163,10 +9169,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9186,10 +9192,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9209,10 +9215,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9232,10 +9238,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9255,10 +9261,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9278,10 +9284,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9301,10 +9307,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9324,10 +9330,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9347,10 +9353,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9370,10 +9376,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9393,10 +9399,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9416,10 +9422,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9439,10 +9445,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9462,10 +9468,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9485,10 +9491,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9508,10 +9514,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9531,10 +9537,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9554,10 +9560,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9577,10 +9583,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9600,10 +9606,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9623,10 +9629,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9646,10 +9652,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9669,10 +9675,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9692,10 +9698,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9715,10 +9721,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9738,10 +9744,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9761,10 +9767,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9784,10 +9790,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9807,10 +9813,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9830,10 +9836,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9853,10 +9859,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9876,10 +9882,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9899,10 +9905,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9922,10 +9928,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9945,10 +9951,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -9968,10 +9974,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -9991,10 +9997,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10014,10 +10020,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10037,10 +10043,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10060,10 +10066,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10083,10 +10089,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10106,10 +10112,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10129,10 +10135,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10152,10 +10158,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10175,10 +10181,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10198,10 +10204,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10221,10 +10227,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10244,10 +10250,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10267,10 +10273,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10290,10 +10296,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10313,10 +10319,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10336,10 +10342,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10359,10 +10365,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10382,10 +10388,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10405,10 +10411,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10428,10 +10434,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10451,10 +10457,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10474,10 +10480,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10497,10 +10503,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10520,10 +10526,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10543,10 +10549,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10566,10 +10572,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10589,10 +10595,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10612,10 +10618,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10635,10 +10641,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10658,10 +10664,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10681,10 +10687,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10704,10 +10710,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10727,10 +10733,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10750,10 +10756,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10773,10 +10779,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10796,10 +10802,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10819,10 +10825,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10842,10 +10848,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10865,10 +10871,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10888,10 +10894,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10911,10 +10917,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10934,10 +10940,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10957,10 +10963,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -10980,10 +10986,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11003,10 +11009,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11026,10 +11032,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11049,10 +11055,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11072,10 +11078,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11095,10 +11101,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11118,10 +11124,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11141,10 +11147,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11164,10 +11170,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11187,10 +11193,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11210,10 +11216,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11233,10 +11239,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11256,10 +11262,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11279,10 +11285,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11302,10 +11308,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11325,10 +11331,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11348,10 +11354,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11371,10 +11377,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11394,10 +11400,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11417,10 +11423,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11440,10 +11446,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11463,10 +11469,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11486,10 +11492,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11509,10 +11515,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11532,10 +11538,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11555,10 +11561,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11578,10 +11584,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11601,10 +11607,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11624,10 +11630,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11647,10 +11653,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11670,10 +11676,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11693,10 +11699,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11716,10 +11722,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11739,10 +11745,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11762,10 +11768,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11785,10 +11791,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11808,10 +11814,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11831,10 +11837,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11854,10 +11860,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11877,10 +11883,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11900,10 +11906,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11923,10 +11929,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11946,10 +11952,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -11969,10 +11975,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -11992,10 +11998,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12015,10 +12021,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12038,10 +12044,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12061,10 +12067,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12084,10 +12090,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12107,10 +12113,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12130,10 +12136,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12153,10 +12159,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12176,10 +12182,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12199,10 +12205,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12222,10 +12228,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12245,10 +12251,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12268,10 +12274,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12291,10 +12297,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12314,10 +12320,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12337,10 +12343,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12360,10 +12366,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12383,10 +12389,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12406,10 +12412,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12429,10 +12435,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12452,10 +12458,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12475,10 +12481,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12498,10 +12504,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12521,10 +12527,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12544,10 +12550,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12567,10 +12573,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12590,10 +12596,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12613,10 +12619,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12636,10 +12642,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12659,10 +12665,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12682,10 +12688,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12705,10 +12711,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12728,10 +12734,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12751,10 +12757,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12774,10 +12780,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12797,10 +12803,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12820,10 +12826,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12843,10 +12849,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12866,10 +12872,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12889,10 +12895,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12912,10 +12918,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12935,10 +12941,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12958,10 +12964,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -12981,10 +12987,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13004,10 +13010,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13027,10 +13033,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13050,10 +13056,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13073,10 +13079,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13096,10 +13102,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13119,10 +13125,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13142,10 +13148,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13165,10 +13171,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13188,10 +13194,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13211,10 +13217,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13234,10 +13240,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13257,10 +13263,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13280,10 +13286,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13303,10 +13309,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13326,10 +13332,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13349,10 +13355,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13372,10 +13378,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13395,10 +13401,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13418,10 +13424,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13441,10 +13447,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13464,10 +13470,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13487,10 +13493,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13510,10 +13516,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13533,10 +13539,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13556,10 +13562,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13579,10 +13585,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13602,10 +13608,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13625,10 +13631,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13648,10 +13654,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13671,10 +13677,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13694,10 +13700,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13717,10 +13723,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13740,10 +13746,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13763,10 +13769,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13786,10 +13792,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13809,10 +13815,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13832,10 +13838,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13855,10 +13861,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13878,10 +13884,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13901,10 +13907,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13924,10 +13930,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13947,10 +13953,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -13970,10 +13976,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -13993,10 +13999,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14016,10 +14022,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14039,10 +14045,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14062,10 +14068,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14085,10 +14091,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14108,10 +14114,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14131,10 +14137,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14154,10 +14160,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14177,10 +14183,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14200,10 +14206,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14223,10 +14229,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14246,10 +14252,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14269,10 +14275,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14292,10 +14298,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14315,10 +14321,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14338,10 +14344,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14361,10 +14367,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14384,10 +14390,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14407,10 +14413,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14430,10 +14436,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14453,10 +14459,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14476,10 +14482,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14499,10 +14505,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14522,10 +14528,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14545,10 +14551,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14568,10 +14574,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14591,10 +14597,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14614,10 +14620,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14637,10 +14643,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14660,10 +14666,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14683,10 +14689,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14706,10 +14712,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14729,10 +14735,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14752,10 +14758,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14775,10 +14781,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14798,10 +14804,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14821,10 +14827,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14844,10 +14850,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14867,10 +14873,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14890,10 +14896,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14913,10 +14919,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14936,10 +14942,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14959,10 +14965,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -14982,10 +14988,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15005,10 +15011,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15028,10 +15034,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15051,10 +15057,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15074,10 +15080,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15097,10 +15103,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15120,10 +15126,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15143,10 +15149,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15166,10 +15172,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15189,10 +15195,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15212,10 +15218,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15235,10 +15241,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15258,10 +15264,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15281,10 +15287,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15304,10 +15310,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15327,10 +15333,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15350,10 +15356,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15373,10 +15379,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15396,10 +15402,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15419,10 +15425,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>887</v>
+        <v>400</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15442,10 +15448,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15465,10 +15471,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15488,10 +15494,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15511,10 +15517,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15534,10 +15540,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15557,10 +15563,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>104</v>
+        <v>897</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15580,10 +15586,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>900</v>
+        <v>104</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15603,10 +15609,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15626,10 +15632,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15649,10 +15655,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15672,10 +15678,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15695,10 +15701,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15718,10 +15724,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15741,10 +15747,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15764,10 +15770,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15787,10 +15793,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15810,10 +15816,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15833,10 +15839,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15856,10 +15862,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15879,10 +15885,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15902,10 +15908,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15925,10 +15931,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15948,10 +15954,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -15971,10 +15977,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -15994,10 +16000,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16017,10 +16023,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16040,10 +16046,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16063,10 +16069,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16086,10 +16092,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16109,10 +16115,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16132,10 +16138,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16155,10 +16161,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16178,10 +16184,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16201,10 +16207,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16224,10 +16230,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16247,10 +16253,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16270,10 +16276,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16293,10 +16299,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16316,10 +16322,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16339,10 +16345,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16362,10 +16368,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16385,10 +16391,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16408,10 +16414,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16431,10 +16437,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16454,10 +16460,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16477,10 +16483,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16500,10 +16506,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16523,10 +16529,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16546,10 +16552,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16569,10 +16575,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16592,10 +16598,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16615,10 +16621,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16638,10 +16644,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16661,10 +16667,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16684,10 +16690,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16707,10 +16713,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16730,10 +16736,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16753,10 +16759,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16776,10 +16782,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16799,10 +16805,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16822,10 +16828,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16845,10 +16851,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16868,10 +16874,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16891,10 +16897,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16914,10 +16920,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1014</v>
+        <v>696</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16937,10 +16943,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16960,10 +16966,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -16983,10 +16989,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17006,10 +17012,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17029,10 +17035,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17052,10 +17058,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1025</v>
+        <v>692</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17075,10 +17081,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17098,10 +17104,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17121,10 +17127,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17144,10 +17150,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17167,10 +17173,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17190,10 +17196,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1036</v>
+        <v>104</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17213,10 +17219,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17236,10 +17242,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17259,10 +17265,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17282,10 +17288,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17305,10 +17311,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17328,10 +17334,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17351,10 +17357,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17374,10 +17380,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17397,10 +17403,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1053</v>
+        <v>986</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17420,10 +17426,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17443,10 +17449,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17466,10 +17472,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17489,10 +17495,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17512,10 +17518,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17535,10 +17541,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17558,10 +17564,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17581,10 +17587,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17604,10 +17610,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17627,10 +17633,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>186</v>
+        <v>1070</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17650,10 +17656,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17673,10 +17679,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17696,10 +17702,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1075</v>
+        <v>32</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17719,10 +17725,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17742,10 +17748,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17765,10 +17771,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17788,10 +17794,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>186</v>
+        <v>786</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17811,10 +17817,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1083</v>
+        <v>186</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17834,10 +17840,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17857,10 +17863,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17880,10 +17886,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17903,10 +17909,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17926,10 +17932,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17949,10 +17955,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -17972,10 +17978,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -17995,10 +18001,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18018,10 +18024,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18041,10 +18047,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18064,10 +18070,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18087,10 +18093,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18110,10 +18116,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18133,10 +18139,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18156,10 +18162,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18179,10 +18185,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18202,10 +18208,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18225,10 +18231,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>891</v>
+        <v>1117</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18248,10 +18254,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1120</v>
+        <v>891</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18271,10 +18277,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18294,10 +18300,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18317,10 +18323,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18340,10 +18346,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18363,10 +18369,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18386,10 +18392,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18409,10 +18415,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18432,10 +18438,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18455,10 +18461,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18478,10 +18484,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18501,10 +18507,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18524,10 +18530,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18547,10 +18553,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18570,10 +18576,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18593,10 +18599,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18616,10 +18622,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18639,10 +18645,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18662,10 +18668,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18685,10 +18691,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18708,10 +18714,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18731,10 +18737,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18754,10 +18760,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18777,10 +18783,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18800,10 +18806,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18823,10 +18829,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18846,10 +18852,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18869,10 +18875,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18892,10 +18898,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18915,10 +18921,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18938,10 +18944,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18961,10 +18967,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -18984,10 +18990,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19007,10 +19013,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19030,10 +19036,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19053,10 +19059,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19076,10 +19082,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19099,10 +19105,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19122,10 +19128,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19145,10 +19151,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19168,10 +19174,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19191,10 +19197,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19214,10 +19220,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19237,10 +19243,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19260,10 +19266,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>902</v>
+        <v>1206</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19283,10 +19289,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1209</v>
+        <v>902</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19306,10 +19312,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19329,10 +19335,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19352,10 +19358,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19375,10 +19381,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19398,10 +19404,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19421,10 +19427,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19444,10 +19450,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19467,10 +19473,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19490,10 +19496,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19513,10 +19519,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19536,10 +19542,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19559,10 +19565,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19582,10 +19588,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19605,10 +19611,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19628,10 +19634,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19651,10 +19657,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19674,10 +19680,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19697,10 +19703,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19720,10 +19726,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19743,10 +19749,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19766,10 +19772,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19789,10 +19795,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19812,10 +19818,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19835,10 +19841,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1448</v>
+        <v>1254</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1449</v>
+        <v>1255</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19858,10 +19864,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1256</v>
+        <v>1448</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1257</v>
+        <v>1449</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19881,10 +19887,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19904,10 +19910,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19927,10 +19933,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19950,10 +19956,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -19973,10 +19979,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -19996,7 +20002,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B660" s="5" t="s">
         <v>186</v>
@@ -20019,7 +20025,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B661" s="5" t="s">
         <v>186</v>
@@ -20042,10 +20048,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20065,10 +20071,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20088,10 +20094,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20111,10 +20117,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20134,10 +20140,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20157,10 +20163,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20180,10 +20186,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20203,10 +20209,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1283</v>
+        <v>782</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20226,10 +20232,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20249,10 +20255,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20272,10 +20278,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20295,10 +20301,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20318,10 +20324,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20341,10 +20347,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20364,10 +20370,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20387,10 +20393,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20410,10 +20416,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20433,10 +20439,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20456,10 +20462,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20479,10 +20485,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20502,10 +20508,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20525,10 +20531,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20548,10 +20554,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20571,10 +20577,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20594,10 +20600,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20617,10 +20623,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20640,10 +20646,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20663,10 +20669,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20686,10 +20692,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1456</v>
+        <v>1322</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1457</v>
+        <v>1323</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20709,10 +20715,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1324</v>
+        <v>1456</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1325</v>
+        <v>1457</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20732,10 +20738,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1462</v>
+        <v>1324</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1463</v>
+        <v>1325</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20755,10 +20761,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20778,22 +20784,22 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E694" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F694" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G694" s="6" t="s">
         <v>14</v>
@@ -20801,22 +20807,22 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>186</v>
+        <v>1327</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>186</v>
+        <v>1329</v>
       </c>
       <c r="E695" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F695" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G695" s="6" t="s">
         <v>14</v>
@@ -20824,22 +20830,22 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1334</v>
+        <v>186</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F696" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G696" s="6" t="s">
         <v>14</v>
@@ -20847,10 +20853,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>1335</v>
@@ -20870,10 +20876,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>1335</v>
@@ -20893,10 +20899,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>1335</v>
@@ -20916,10 +20922,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>1335</v>
@@ -20939,10 +20945,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>1335</v>
@@ -20962,22 +20968,22 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G702" s="6" t="s">
         <v>14</v>
@@ -20985,22 +20991,22 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>186</v>
+        <v>1347</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E703" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F703" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G703" s="6" t="s">
         <v>14</v>
@@ -21008,19 +21014,19 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1350</v>
+        <v>186</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>1351</v>
+        <v>186</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1352</v>
+        <v>186</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>1353</v>
+        <v>186</v>
       </c>
       <c r="F704" s="6" t="s">
         <v>1332</v>
@@ -21031,22 +21037,22 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F705" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G705" s="6" t="s">
         <v>14</v>
@@ -21054,13 +21060,13 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>1328</v>
+        <v>1356</v>
       </c>
       <c r="D706" s="5" t="s">
         <v>1329</v>
@@ -21077,13 +21083,13 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D707" s="5" t="s">
         <v>1329</v>
@@ -21100,10 +21106,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1356</v>
@@ -21123,10 +21129,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1356</v>
@@ -21146,10 +21152,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1356</v>
@@ -21169,10 +21175,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1356</v>
@@ -21192,10 +21198,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C712" s="5" t="s">
         <v>1356</v>
@@ -21215,10 +21221,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1356</v>
@@ -21238,10 +21244,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21261,10 +21267,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21284,10 +21290,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21307,10 +21313,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21330,10 +21336,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21353,10 +21359,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21376,10 +21382,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21399,10 +21405,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21422,10 +21428,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21445,10 +21451,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21468,10 +21474,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21491,10 +21497,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21514,10 +21520,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21537,10 +21543,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21560,10 +21566,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21583,10 +21589,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21606,10 +21612,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21629,10 +21635,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21652,10 +21658,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21675,10 +21681,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21698,10 +21704,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21721,16 +21727,16 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>12</v>
@@ -21744,10 +21750,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1416</v>
@@ -21767,10 +21773,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1416</v>
@@ -21790,22 +21796,22 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>186</v>
+        <v>1421</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E738" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F738" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G738" s="6" t="s">
         <v>14</v>
@@ -21813,22 +21819,22 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1424</v>
+        <v>186</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F739" s="6" t="s">
-        <v>13</v>
+        <v>1332</v>
       </c>
       <c r="G739" s="6" t="s">
         <v>14</v>
@@ -21836,22 +21842,22 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F740" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G740" s="6" t="s">
         <v>14</v>
@@ -21859,24 +21865,47 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E741" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F741" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G741" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B741" s="5" t="s">
+      <c r="B742" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C741" s="5" t="s">
+      <c r="C742" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D741" s="5" t="s">
+      <c r="D742" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E741" s="5" t="s">
+      <c r="E742" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F741" s="6" t="s">
+      <c r="F742" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G741" s="6" t="s">
+      <c r="G742" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4435,13 +4435,13 @@
     <t>KLIPPAN LVL</t>
   </si>
   <si>
-    <t>Categorias Produto : 21-02-2020 11:18:07</t>
-  </si>
-  <si>
     <t>1080</t>
   </si>
   <si>
     <t>CHACAL</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 26-02-2020 09:05:59</t>
   </si>
 </sst>
 </file>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7191,10 +7191,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>1471</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1472</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4441,7 +4441,7 @@
     <t>CHACAL</t>
   </si>
   <si>
-    <t>Categorias Produto : 26-02-2020 09:05:59</t>
+    <t>Categorias Produto : 05-03-2020 13:50:24</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="1475">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4441,7 +4441,13 @@
     <t>CHACAL</t>
   </si>
   <si>
-    <t>Categorias Produto : 05-03-2020 13:50:24</t>
+    <t>Categorias Produto : 25-05-2020 09:24:55</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
   </si>
 </sst>
 </file>
@@ -4572,8 +4578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G742" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G742"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G743" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G743"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4850,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G742"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7099,10 +7105,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>173</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>174</v>
+        <v>1474</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7122,10 +7128,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1467</v>
+        <v>174</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7145,10 +7151,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7168,10 +7174,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>175</v>
+        <v>1468</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>176</v>
+        <v>1469</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7191,10 +7197,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1471</v>
+        <v>176</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7214,10 +7220,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>177</v>
+        <v>1470</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>178</v>
+        <v>1471</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7237,10 +7243,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7260,10 +7266,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7283,10 +7289,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7306,10 +7312,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7329,10 +7335,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7352,10 +7358,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7375,10 +7381,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7398,10 +7404,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7421,10 +7427,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7444,10 +7450,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7467,10 +7473,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7490,10 +7496,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7513,10 +7519,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7536,10 +7542,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7559,10 +7565,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7582,10 +7588,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7605,10 +7611,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7628,10 +7634,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7651,10 +7657,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7674,10 +7680,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7697,10 +7703,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7720,10 +7726,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7743,10 +7749,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7766,10 +7772,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7789,10 +7795,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7812,10 +7818,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7835,10 +7841,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7858,10 +7864,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7881,10 +7887,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7904,10 +7910,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7927,10 +7933,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7950,10 +7956,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -7973,10 +7979,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -7996,10 +8002,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8019,10 +8025,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8042,10 +8048,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8065,10 +8071,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8088,10 +8094,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8111,10 +8117,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8134,10 +8140,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8157,10 +8163,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8180,10 +8186,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8203,10 +8209,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8226,10 +8232,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8249,10 +8255,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8272,10 +8278,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8295,10 +8301,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8318,10 +8324,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8341,10 +8347,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8364,10 +8370,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8387,10 +8393,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8410,10 +8416,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8433,10 +8439,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8456,10 +8462,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8479,10 +8485,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8502,10 +8508,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8525,10 +8531,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8548,10 +8554,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8571,10 +8577,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8594,10 +8600,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8617,10 +8623,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8640,10 +8646,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8663,10 +8669,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8686,10 +8692,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8709,10 +8715,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8732,10 +8738,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8755,10 +8761,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8778,10 +8784,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8801,10 +8807,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8824,10 +8830,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8847,10 +8853,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8870,10 +8876,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8893,10 +8899,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8916,10 +8922,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8939,10 +8945,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8962,10 +8968,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -8985,10 +8991,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9008,10 +9014,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9031,10 +9037,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9054,10 +9060,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9077,10 +9083,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9100,10 +9106,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9123,10 +9129,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9146,10 +9152,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9169,10 +9175,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9192,10 +9198,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9215,10 +9221,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9238,10 +9244,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9261,10 +9267,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9284,10 +9290,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9307,10 +9313,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9330,10 +9336,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9353,10 +9359,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9376,10 +9382,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9399,10 +9405,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9422,10 +9428,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9445,10 +9451,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9468,10 +9474,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9491,10 +9497,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9514,10 +9520,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9537,10 +9543,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9560,10 +9566,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9583,10 +9589,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9606,10 +9612,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9629,10 +9635,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9652,10 +9658,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9675,10 +9681,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9698,10 +9704,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9721,10 +9727,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9744,10 +9750,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9767,10 +9773,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9790,10 +9796,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9813,10 +9819,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9836,10 +9842,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9859,10 +9865,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9882,10 +9888,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9905,10 +9911,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9928,10 +9934,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9951,10 +9957,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -9974,10 +9980,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -9997,10 +10003,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10020,10 +10026,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10043,10 +10049,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10066,10 +10072,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10089,10 +10095,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10112,10 +10118,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10135,10 +10141,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10158,10 +10164,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10181,10 +10187,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10204,10 +10210,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10227,10 +10233,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10250,10 +10256,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10273,10 +10279,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10296,10 +10302,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10319,10 +10325,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10342,10 +10348,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10365,10 +10371,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10388,10 +10394,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10411,10 +10417,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10434,10 +10440,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10457,10 +10463,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10480,10 +10486,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10503,10 +10509,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10526,10 +10532,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10549,10 +10555,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10572,10 +10578,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10595,10 +10601,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10618,10 +10624,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10641,10 +10647,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10664,10 +10670,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10687,10 +10693,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10710,10 +10716,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10733,10 +10739,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10756,10 +10762,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10779,10 +10785,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10802,10 +10808,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10825,10 +10831,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10848,10 +10854,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10871,10 +10877,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10894,10 +10900,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10917,10 +10923,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10940,10 +10946,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10963,10 +10969,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -10986,10 +10992,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11009,10 +11015,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11032,10 +11038,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11055,10 +11061,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11078,10 +11084,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11101,10 +11107,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11124,10 +11130,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11147,10 +11153,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11170,10 +11176,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11193,10 +11199,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11216,10 +11222,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11239,10 +11245,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11262,10 +11268,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11285,10 +11291,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11308,10 +11314,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11331,10 +11337,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11354,10 +11360,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11377,10 +11383,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11400,10 +11406,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11423,10 +11429,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11446,10 +11452,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11469,10 +11475,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11492,10 +11498,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11515,10 +11521,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11538,10 +11544,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11561,10 +11567,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11584,10 +11590,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11607,10 +11613,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11630,10 +11636,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11653,10 +11659,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11676,10 +11682,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11699,10 +11705,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11722,10 +11728,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11745,10 +11751,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11768,10 +11774,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11791,10 +11797,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11814,10 +11820,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11837,10 +11843,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11860,10 +11866,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11883,10 +11889,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11906,10 +11912,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11929,10 +11935,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11952,10 +11958,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -11975,10 +11981,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -11998,10 +12004,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12021,10 +12027,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12044,10 +12050,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12067,10 +12073,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12090,10 +12096,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12113,10 +12119,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12136,10 +12142,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12159,10 +12165,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12182,10 +12188,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12205,10 +12211,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12228,10 +12234,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12251,10 +12257,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12274,10 +12280,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12297,10 +12303,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12320,10 +12326,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12343,10 +12349,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12366,10 +12372,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12389,10 +12395,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12412,10 +12418,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12435,10 +12441,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12458,10 +12464,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12481,10 +12487,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12504,10 +12510,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12527,10 +12533,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12550,10 +12556,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12573,10 +12579,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12596,10 +12602,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12619,10 +12625,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12642,10 +12648,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12665,10 +12671,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12688,10 +12694,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12711,10 +12717,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12734,10 +12740,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12757,10 +12763,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12780,10 +12786,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12803,10 +12809,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12826,10 +12832,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12849,10 +12855,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12872,10 +12878,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12895,10 +12901,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12918,10 +12924,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12941,10 +12947,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12964,10 +12970,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -12987,10 +12993,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13010,10 +13016,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13033,10 +13039,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13056,10 +13062,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13079,10 +13085,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13102,10 +13108,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13125,10 +13131,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13148,10 +13154,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13171,10 +13177,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13194,10 +13200,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13217,10 +13223,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13240,10 +13246,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13263,10 +13269,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13286,10 +13292,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13309,10 +13315,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13332,10 +13338,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13355,10 +13361,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13378,10 +13384,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13401,10 +13407,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13424,10 +13430,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13447,10 +13453,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13470,10 +13476,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13493,10 +13499,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13516,10 +13522,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13539,10 +13545,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13562,10 +13568,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13585,10 +13591,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13608,10 +13614,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13631,10 +13637,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13654,10 +13660,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13677,10 +13683,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13700,10 +13706,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13723,10 +13729,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13746,10 +13752,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13769,10 +13775,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13792,10 +13798,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13815,10 +13821,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13838,10 +13844,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13861,10 +13867,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13884,10 +13890,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13907,10 +13913,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13930,10 +13936,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13953,10 +13959,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -13976,10 +13982,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -13999,10 +14005,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14022,10 +14028,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14045,10 +14051,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14068,10 +14074,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14091,10 +14097,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14114,10 +14120,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14137,10 +14143,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14160,10 +14166,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14183,10 +14189,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14206,10 +14212,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14229,10 +14235,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14252,10 +14258,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14275,10 +14281,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14298,10 +14304,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14321,10 +14327,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14344,10 +14350,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14367,10 +14373,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14390,10 +14396,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14413,10 +14419,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14436,10 +14442,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14459,10 +14465,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14482,10 +14488,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14505,10 +14511,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14528,10 +14534,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14551,10 +14557,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14574,10 +14580,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14597,10 +14603,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14620,10 +14626,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14643,10 +14649,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14666,10 +14672,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14689,10 +14695,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14712,10 +14718,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14735,10 +14741,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14758,10 +14764,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14781,10 +14787,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14804,10 +14810,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14827,10 +14833,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14850,10 +14856,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14873,10 +14879,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14896,10 +14902,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14919,10 +14925,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14942,10 +14948,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14965,10 +14971,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -14988,10 +14994,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15011,10 +15017,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15034,10 +15040,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15057,10 +15063,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15080,10 +15086,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15103,10 +15109,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15126,10 +15132,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15149,10 +15155,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15172,10 +15178,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15195,10 +15201,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15218,10 +15224,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15241,10 +15247,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15264,10 +15270,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15287,10 +15293,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15310,10 +15316,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15333,10 +15339,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15356,10 +15362,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15379,10 +15385,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15402,10 +15408,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15425,10 +15431,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15448,10 +15454,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>887</v>
+        <v>400</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15471,10 +15477,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15494,10 +15500,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15517,10 +15523,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15540,10 +15546,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15563,10 +15569,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15586,10 +15592,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>104</v>
+        <v>897</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15609,10 +15615,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>900</v>
+        <v>104</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15632,10 +15638,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15655,10 +15661,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15678,10 +15684,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15701,10 +15707,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15724,10 +15730,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15747,10 +15753,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15770,10 +15776,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15793,10 +15799,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15816,10 +15822,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15839,10 +15845,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15862,10 +15868,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15885,10 +15891,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15908,10 +15914,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15931,10 +15937,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15954,10 +15960,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -15977,10 +15983,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16000,10 +16006,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16023,10 +16029,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16046,10 +16052,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16069,10 +16075,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16092,10 +16098,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16115,10 +16121,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16138,10 +16144,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16161,10 +16167,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16184,10 +16190,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16207,10 +16213,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16230,10 +16236,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16253,10 +16259,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16276,10 +16282,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16299,10 +16305,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16322,10 +16328,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16345,10 +16351,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16368,10 +16374,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16391,10 +16397,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16414,10 +16420,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16437,10 +16443,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16460,10 +16466,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16483,10 +16489,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16506,10 +16512,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16529,10 +16535,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16552,10 +16558,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16575,10 +16581,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16598,10 +16604,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16621,10 +16627,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16644,10 +16650,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16667,10 +16673,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16690,10 +16696,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16713,10 +16719,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16736,10 +16742,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16759,10 +16765,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16782,10 +16788,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16805,10 +16811,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16828,10 +16834,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16851,10 +16857,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16874,10 +16880,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16897,10 +16903,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16920,10 +16926,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16943,10 +16949,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1014</v>
+        <v>696</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16966,10 +16972,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -16989,10 +16995,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17012,10 +17018,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17035,10 +17041,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17058,10 +17064,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17081,10 +17087,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1025</v>
+        <v>692</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17104,10 +17110,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17127,10 +17133,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17150,10 +17156,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17173,10 +17179,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17196,10 +17202,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17219,10 +17225,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1036</v>
+        <v>104</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17242,10 +17248,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17265,10 +17271,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17288,10 +17294,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17311,10 +17317,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17334,10 +17340,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17357,10 +17363,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17380,10 +17386,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17403,10 +17409,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17426,10 +17432,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1053</v>
+        <v>986</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17449,10 +17455,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17472,10 +17478,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17495,10 +17501,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17518,10 +17524,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17541,10 +17547,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17564,10 +17570,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17587,10 +17593,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17610,10 +17616,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17633,10 +17639,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17656,10 +17662,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>186</v>
+        <v>1070</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17679,10 +17685,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17702,10 +17708,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17725,10 +17731,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1075</v>
+        <v>32</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17748,10 +17754,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17771,10 +17777,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17794,10 +17800,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17817,10 +17823,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>186</v>
+        <v>786</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17840,10 +17846,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1083</v>
+        <v>186</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17863,10 +17869,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17886,10 +17892,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17909,10 +17915,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17932,10 +17938,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17955,10 +17961,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -17978,10 +17984,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18001,10 +18007,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18024,10 +18030,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18047,10 +18053,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18070,10 +18076,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18093,10 +18099,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18116,10 +18122,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18139,10 +18145,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18162,10 +18168,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18185,10 +18191,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18208,10 +18214,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18231,10 +18237,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18254,10 +18260,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>891</v>
+        <v>1117</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18277,10 +18283,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1120</v>
+        <v>891</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18300,10 +18306,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18323,10 +18329,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18346,10 +18352,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18369,10 +18375,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18392,10 +18398,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18415,10 +18421,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18438,10 +18444,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18461,10 +18467,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18484,10 +18490,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18507,10 +18513,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18530,10 +18536,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18553,10 +18559,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18576,10 +18582,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18599,10 +18605,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18622,10 +18628,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18645,10 +18651,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18668,10 +18674,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18691,10 +18697,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18714,10 +18720,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18737,10 +18743,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18760,10 +18766,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18783,10 +18789,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18806,10 +18812,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18829,10 +18835,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18852,10 +18858,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18875,10 +18881,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18898,10 +18904,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18921,10 +18927,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18944,10 +18950,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18967,10 +18973,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -18990,10 +18996,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19013,10 +19019,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19036,10 +19042,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19059,10 +19065,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19082,10 +19088,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19105,10 +19111,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19128,10 +19134,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19151,10 +19157,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19174,10 +19180,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19197,10 +19203,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19220,10 +19226,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19243,10 +19249,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19266,10 +19272,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19289,10 +19295,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>902</v>
+        <v>1206</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19312,10 +19318,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1209</v>
+        <v>902</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19335,10 +19341,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19358,10 +19364,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19381,10 +19387,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19404,10 +19410,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19427,10 +19433,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19450,10 +19456,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19473,10 +19479,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19496,10 +19502,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19519,10 +19525,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19542,10 +19548,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19565,10 +19571,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19588,10 +19594,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19611,10 +19617,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19634,10 +19640,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19657,10 +19663,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19680,10 +19686,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19703,10 +19709,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19726,10 +19732,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19749,10 +19755,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19772,10 +19778,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19795,10 +19801,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19818,10 +19824,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19841,10 +19847,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19864,10 +19870,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1448</v>
+        <v>1254</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1449</v>
+        <v>1255</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19887,10 +19893,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1256</v>
+        <v>1448</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1257</v>
+        <v>1449</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19910,10 +19916,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19933,10 +19939,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19956,10 +19962,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -19979,10 +19985,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20002,10 +20008,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20025,7 +20031,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B661" s="5" t="s">
         <v>186</v>
@@ -20048,7 +20054,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B662" s="5" t="s">
         <v>186</v>
@@ -20071,10 +20077,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20094,10 +20100,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20117,10 +20123,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20140,10 +20146,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20163,10 +20169,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20186,10 +20192,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20209,10 +20215,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20232,10 +20238,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1283</v>
+        <v>782</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20255,10 +20261,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20278,10 +20284,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20301,10 +20307,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20324,10 +20330,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20347,10 +20353,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20370,10 +20376,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20393,10 +20399,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20416,10 +20422,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20439,10 +20445,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20462,10 +20468,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20485,10 +20491,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20508,10 +20514,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20531,10 +20537,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20554,10 +20560,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20577,10 +20583,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20600,10 +20606,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20623,10 +20629,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20646,10 +20652,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20669,10 +20675,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20692,10 +20698,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20715,10 +20721,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1456</v>
+        <v>1322</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1457</v>
+        <v>1323</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20738,10 +20744,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1324</v>
+        <v>1456</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1325</v>
+        <v>1457</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20761,10 +20767,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1462</v>
+        <v>1324</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1463</v>
+        <v>1325</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20784,10 +20790,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20807,22 +20813,22 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E695" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F695" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G695" s="6" t="s">
         <v>14</v>
@@ -20830,22 +20836,22 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>186</v>
+        <v>1327</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>186</v>
+        <v>1329</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F696" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G696" s="6" t="s">
         <v>14</v>
@@ -20853,22 +20859,22 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1334</v>
+        <v>186</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G697" s="6" t="s">
         <v>14</v>
@@ -20876,10 +20882,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>1335</v>
@@ -20899,10 +20905,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>1335</v>
@@ -20922,10 +20928,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>1335</v>
@@ -20945,10 +20951,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>1335</v>
@@ -20968,10 +20974,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>1335</v>
@@ -20991,22 +20997,22 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F703" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G703" s="6" t="s">
         <v>14</v>
@@ -21014,22 +21020,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>186</v>
+        <v>1347</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21037,19 +21043,19 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1350</v>
+        <v>186</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>1351</v>
+        <v>186</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>1352</v>
+        <v>186</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>1353</v>
+        <v>186</v>
       </c>
       <c r="F705" s="6" t="s">
         <v>1332</v>
@@ -21060,22 +21066,22 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E706" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F706" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>14</v>
@@ -21083,13 +21089,13 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>1328</v>
+        <v>1356</v>
       </c>
       <c r="D707" s="5" t="s">
         <v>1329</v>
@@ -21106,13 +21112,13 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D708" s="5" t="s">
         <v>1329</v>
@@ -21129,10 +21135,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1356</v>
@@ -21152,10 +21158,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1356</v>
@@ -21175,10 +21181,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1356</v>
@@ -21198,10 +21204,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C712" s="5" t="s">
         <v>1356</v>
@@ -21221,10 +21227,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1356</v>
@@ -21244,10 +21250,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21267,10 +21273,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21290,10 +21296,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21313,10 +21319,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21336,10 +21342,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21359,10 +21365,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21382,10 +21388,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21405,10 +21411,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21428,10 +21434,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21451,10 +21457,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21474,10 +21480,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21497,10 +21503,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21520,10 +21526,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21543,10 +21549,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21566,10 +21572,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21589,10 +21595,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21612,10 +21618,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21635,10 +21641,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21658,10 +21664,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21681,10 +21687,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21704,10 +21710,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21727,10 +21733,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21750,16 +21756,16 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C736" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E736" s="5" t="s">
         <v>12</v>
@@ -21773,10 +21779,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1416</v>
@@ -21796,10 +21802,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1416</v>
@@ -21819,22 +21825,22 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>186</v>
+        <v>1421</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F739" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G739" s="6" t="s">
         <v>14</v>
@@ -21842,22 +21848,22 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1424</v>
+        <v>186</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E740" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F740" s="6" t="s">
-        <v>13</v>
+        <v>1332</v>
       </c>
       <c r="G740" s="6" t="s">
         <v>14</v>
@@ -21865,22 +21871,22 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F741" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G741" s="6" t="s">
         <v>14</v>
@@ -21888,24 +21894,47 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C742" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E742" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F742" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G742" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B742" s="5" t="s">
+      <c r="B743" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C742" s="5" t="s">
+      <c r="C743" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D742" s="5" t="s">
+      <c r="D743" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E742" s="5" t="s">
+      <c r="E743" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F742" s="6" t="s">
+      <c r="F743" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G742" s="6" t="s">
+      <c r="G743" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.2\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4441,13 +4441,13 @@
     <t>CHACAL</t>
   </si>
   <si>
-    <t>Categorias Produto : 25-05-2020 09:24:55</t>
-  </si>
-  <si>
     <t>1066</t>
   </si>
   <si>
     <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 02-06-2020 10:14:42</t>
   </si>
 </sst>
 </file>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>1473</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1474</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1477">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4447,7 +4447,13 @@
     <t>ADELAIDE</t>
   </si>
   <si>
-    <t>Categorias Produto : 02-06-2020 10:14:42</t>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>SUSA</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 17-06-2020 09:18:38</t>
   </si>
 </sst>
 </file>
@@ -4578,8 +4584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G743" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G743"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G744" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G744"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4856,7 +4862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G743"/>
+  <dimension ref="A1:G744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4886,7 +4892,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6990,10 +6996,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>167</v>
+        <v>1474</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>168</v>
+        <v>1475</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>10</v>
@@ -7013,10 +7019,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>1460</v>
+        <v>167</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1461</v>
+        <v>168</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>10</v>
@@ -7036,10 +7042,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>169</v>
+        <v>1460</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>170</v>
+        <v>1461</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>10</v>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>10</v>
@@ -7082,10 +7088,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1464</v>
+        <v>171</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1465</v>
+        <v>172</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>10</v>
@@ -7105,10 +7111,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7128,10 +7134,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>173</v>
+        <v>1472</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>174</v>
+        <v>1473</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7151,10 +7157,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1467</v>
+        <v>174</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7174,10 +7180,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7197,10 +7203,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>175</v>
+        <v>1468</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>176</v>
+        <v>1469</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7220,10 +7226,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1471</v>
+        <v>176</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7243,10 +7249,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>177</v>
+        <v>1470</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>178</v>
+        <v>1471</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7266,10 +7272,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7289,10 +7295,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7312,10 +7318,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7335,10 +7341,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7358,10 +7364,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7381,10 +7387,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7404,10 +7410,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7427,10 +7433,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7450,10 +7456,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7473,10 +7479,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7496,10 +7502,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7519,10 +7525,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7542,10 +7548,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7565,10 +7571,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7588,10 +7594,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7611,10 +7617,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7634,10 +7640,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7657,10 +7663,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7680,10 +7686,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7703,10 +7709,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7726,10 +7732,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7749,10 +7755,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7772,10 +7778,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7795,10 +7801,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7818,10 +7824,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7864,10 +7870,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7887,10 +7893,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7910,10 +7916,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7933,10 +7939,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7956,10 +7962,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -7979,10 +7985,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8002,10 +8008,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8025,10 +8031,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8048,10 +8054,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8071,10 +8077,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8094,10 +8100,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8117,10 +8123,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8140,10 +8146,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8163,10 +8169,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8186,10 +8192,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8209,10 +8215,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8232,10 +8238,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8255,10 +8261,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8278,10 +8284,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8301,10 +8307,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8324,10 +8330,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8347,10 +8353,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8370,10 +8376,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8393,10 +8399,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8416,10 +8422,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8439,10 +8445,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8462,10 +8468,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8485,10 +8491,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8508,10 +8514,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8531,10 +8537,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8554,10 +8560,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8577,10 +8583,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8600,10 +8606,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8623,10 +8629,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8646,10 +8652,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8669,10 +8675,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8692,10 +8698,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8715,10 +8721,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8738,10 +8744,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8761,10 +8767,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8784,10 +8790,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8807,10 +8813,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8830,10 +8836,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8853,10 +8859,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8876,10 +8882,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8899,10 +8905,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8922,10 +8928,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8945,10 +8951,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8968,10 +8974,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -8991,10 +8997,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9014,10 +9020,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9037,10 +9043,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9060,10 +9066,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9083,10 +9089,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9106,10 +9112,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9129,10 +9135,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9152,10 +9158,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9175,10 +9181,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9198,10 +9204,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9221,10 +9227,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9244,10 +9250,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9267,10 +9273,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9290,10 +9296,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9313,10 +9319,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9336,10 +9342,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9359,10 +9365,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9382,10 +9388,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9405,10 +9411,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9428,10 +9434,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9451,10 +9457,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9474,10 +9480,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9497,10 +9503,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9520,10 +9526,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9543,10 +9549,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9566,10 +9572,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9589,10 +9595,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9612,10 +9618,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9635,10 +9641,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9658,10 +9664,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9681,10 +9687,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9704,10 +9710,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9727,10 +9733,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9750,10 +9756,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9773,10 +9779,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9796,10 +9802,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9819,10 +9825,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9842,10 +9848,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9865,10 +9871,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9888,10 +9894,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9911,10 +9917,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9934,10 +9940,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9957,10 +9963,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -9980,10 +9986,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10003,10 +10009,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10026,10 +10032,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10049,10 +10055,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10072,10 +10078,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10095,10 +10101,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10118,10 +10124,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10141,10 +10147,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10164,10 +10170,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10187,10 +10193,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10210,10 +10216,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10233,10 +10239,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10256,10 +10262,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10279,10 +10285,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10302,10 +10308,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10325,10 +10331,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10348,10 +10354,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10371,10 +10377,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10394,10 +10400,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10417,10 +10423,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10440,10 +10446,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10463,10 +10469,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10486,10 +10492,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10509,10 +10515,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10532,10 +10538,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10555,10 +10561,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10578,10 +10584,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10601,10 +10607,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10624,10 +10630,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10647,10 +10653,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10670,10 +10676,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10693,10 +10699,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10716,10 +10722,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10739,10 +10745,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10762,10 +10768,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10785,10 +10791,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10808,10 +10814,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10831,10 +10837,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10854,10 +10860,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10877,10 +10883,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10900,10 +10906,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10923,10 +10929,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10946,10 +10952,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10969,10 +10975,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -10992,10 +10998,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11015,10 +11021,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11038,10 +11044,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11061,10 +11067,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11084,10 +11090,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11107,10 +11113,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11130,10 +11136,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11153,10 +11159,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11176,10 +11182,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11199,10 +11205,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11222,10 +11228,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11245,10 +11251,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11268,10 +11274,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11291,10 +11297,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11314,10 +11320,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11337,10 +11343,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11360,10 +11366,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11383,10 +11389,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11406,10 +11412,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11429,10 +11435,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11452,10 +11458,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11475,10 +11481,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11498,10 +11504,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11521,10 +11527,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11544,10 +11550,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11567,10 +11573,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11590,10 +11596,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11613,10 +11619,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11636,10 +11642,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11659,10 +11665,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11682,10 +11688,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11705,10 +11711,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11728,10 +11734,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11751,10 +11757,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11774,10 +11780,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11797,10 +11803,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11820,10 +11826,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11843,10 +11849,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11866,10 +11872,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11889,10 +11895,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11912,10 +11918,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11935,10 +11941,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11958,10 +11964,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -11981,10 +11987,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12004,10 +12010,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12027,10 +12033,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12050,10 +12056,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12073,10 +12079,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12096,10 +12102,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12119,10 +12125,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12142,10 +12148,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12165,10 +12171,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12188,10 +12194,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12211,10 +12217,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12234,10 +12240,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12257,10 +12263,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12280,10 +12286,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12303,10 +12309,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12326,10 +12332,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12349,10 +12355,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12372,10 +12378,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12395,10 +12401,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12418,10 +12424,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12441,10 +12447,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12464,10 +12470,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12487,10 +12493,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12510,10 +12516,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12533,10 +12539,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12556,10 +12562,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12579,10 +12585,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12602,10 +12608,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12625,10 +12631,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12648,10 +12654,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12671,10 +12677,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12694,10 +12700,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12717,10 +12723,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12740,10 +12746,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12763,10 +12769,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12786,10 +12792,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12809,10 +12815,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12832,10 +12838,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12855,10 +12861,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12878,10 +12884,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12901,10 +12907,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12924,10 +12930,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12947,10 +12953,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12970,10 +12976,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -12993,10 +12999,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13016,10 +13022,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13039,10 +13045,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13062,10 +13068,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13085,10 +13091,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13108,10 +13114,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13131,10 +13137,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13154,10 +13160,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13177,10 +13183,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13200,10 +13206,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13223,10 +13229,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13246,10 +13252,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13269,10 +13275,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13292,10 +13298,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13315,10 +13321,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13338,10 +13344,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13361,10 +13367,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13384,10 +13390,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13407,10 +13413,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13430,10 +13436,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13453,10 +13459,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13476,10 +13482,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13499,10 +13505,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13522,10 +13528,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13545,10 +13551,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13568,10 +13574,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13591,10 +13597,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13614,10 +13620,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13637,10 +13643,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13660,10 +13666,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13683,10 +13689,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13706,10 +13712,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13729,10 +13735,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13752,10 +13758,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13775,10 +13781,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13798,10 +13804,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13821,10 +13827,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13844,10 +13850,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13867,10 +13873,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13890,10 +13896,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13913,10 +13919,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13936,10 +13942,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13959,10 +13965,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -13982,10 +13988,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14005,10 +14011,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14028,10 +14034,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14051,10 +14057,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14074,10 +14080,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14097,10 +14103,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14120,10 +14126,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14143,10 +14149,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14166,10 +14172,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14189,10 +14195,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14212,10 +14218,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14235,10 +14241,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14258,10 +14264,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14281,10 +14287,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14304,10 +14310,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14327,10 +14333,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14350,10 +14356,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14373,10 +14379,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14396,10 +14402,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14419,10 +14425,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14442,10 +14448,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14465,10 +14471,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14488,10 +14494,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14511,10 +14517,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14534,10 +14540,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14557,10 +14563,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14580,10 +14586,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14603,10 +14609,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14626,10 +14632,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14649,10 +14655,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14672,10 +14678,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14695,10 +14701,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14718,10 +14724,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14741,10 +14747,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14764,10 +14770,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14787,10 +14793,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14810,10 +14816,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14833,10 +14839,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14856,10 +14862,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14879,10 +14885,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14902,10 +14908,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14925,10 +14931,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14948,10 +14954,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14971,10 +14977,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -14994,10 +15000,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15017,10 +15023,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15040,10 +15046,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15063,10 +15069,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15086,10 +15092,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15109,10 +15115,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15132,10 +15138,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15155,10 +15161,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15178,10 +15184,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15201,10 +15207,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15224,10 +15230,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15247,10 +15253,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15270,10 +15276,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15293,10 +15299,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15316,10 +15322,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15339,10 +15345,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15362,10 +15368,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15385,10 +15391,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15408,10 +15414,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15431,10 +15437,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15454,10 +15460,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15477,10 +15483,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>887</v>
+        <v>400</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15500,10 +15506,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15523,10 +15529,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15546,10 +15552,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15569,10 +15575,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15592,10 +15598,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15615,10 +15621,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>104</v>
+        <v>897</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15638,10 +15644,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>900</v>
+        <v>104</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15661,10 +15667,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15684,10 +15690,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15707,10 +15713,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15730,10 +15736,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15753,10 +15759,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15776,10 +15782,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15799,10 +15805,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15822,10 +15828,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15845,10 +15851,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15868,10 +15874,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15891,10 +15897,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15914,10 +15920,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15937,10 +15943,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15960,10 +15966,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -15983,10 +15989,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16006,10 +16012,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16029,10 +16035,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16052,10 +16058,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16075,10 +16081,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16098,10 +16104,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16121,10 +16127,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16144,10 +16150,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16167,10 +16173,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16190,10 +16196,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16213,10 +16219,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16236,10 +16242,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16259,10 +16265,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16282,10 +16288,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16305,10 +16311,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16328,10 +16334,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16351,10 +16357,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16374,10 +16380,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16397,10 +16403,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16420,10 +16426,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16443,10 +16449,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16466,10 +16472,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16489,10 +16495,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16512,10 +16518,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16535,10 +16541,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16558,10 +16564,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16581,10 +16587,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16604,10 +16610,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16627,10 +16633,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16650,10 +16656,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16673,10 +16679,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16696,10 +16702,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16719,10 +16725,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16742,10 +16748,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16765,10 +16771,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16788,10 +16794,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16811,10 +16817,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16834,10 +16840,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16857,10 +16863,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16880,10 +16886,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16903,10 +16909,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16926,10 +16932,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16949,10 +16955,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16972,10 +16978,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1014</v>
+        <v>696</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -16995,10 +17001,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17018,10 +17024,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17041,10 +17047,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17064,10 +17070,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17087,10 +17093,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17110,10 +17116,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1025</v>
+        <v>692</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17133,10 +17139,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17156,10 +17162,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17179,10 +17185,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17202,10 +17208,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17225,10 +17231,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17248,10 +17254,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1036</v>
+        <v>104</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17271,10 +17277,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17294,10 +17300,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17317,10 +17323,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17340,10 +17346,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17363,10 +17369,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17386,10 +17392,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17409,10 +17415,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17432,10 +17438,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17455,10 +17461,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1053</v>
+        <v>986</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17478,10 +17484,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17501,10 +17507,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17524,10 +17530,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17547,10 +17553,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17570,10 +17576,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17593,10 +17599,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17616,10 +17622,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17639,10 +17645,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17662,10 +17668,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17685,10 +17691,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>186</v>
+        <v>1070</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17708,10 +17714,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17731,10 +17737,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17754,10 +17760,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1075</v>
+        <v>32</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17777,10 +17783,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17800,10 +17806,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17823,10 +17829,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17846,10 +17852,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>186</v>
+        <v>786</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17869,10 +17875,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1083</v>
+        <v>186</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17892,10 +17898,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17915,10 +17921,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17938,10 +17944,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17961,10 +17967,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -17984,10 +17990,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18007,10 +18013,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18030,10 +18036,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18053,10 +18059,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18076,10 +18082,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18099,10 +18105,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18122,10 +18128,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18145,10 +18151,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18168,10 +18174,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18191,10 +18197,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18214,10 +18220,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18237,10 +18243,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18260,10 +18266,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18283,10 +18289,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>891</v>
+        <v>1117</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18306,10 +18312,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1120</v>
+        <v>891</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18329,10 +18335,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18352,10 +18358,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18375,10 +18381,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18398,10 +18404,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18421,10 +18427,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18444,10 +18450,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18467,10 +18473,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18490,10 +18496,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18513,10 +18519,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18536,10 +18542,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18559,10 +18565,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18582,10 +18588,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18605,10 +18611,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18628,10 +18634,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18651,10 +18657,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18674,10 +18680,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18697,10 +18703,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18720,10 +18726,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18743,10 +18749,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18766,10 +18772,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18789,10 +18795,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18812,10 +18818,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18835,10 +18841,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18858,10 +18864,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18881,10 +18887,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18904,10 +18910,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18927,10 +18933,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18950,10 +18956,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18973,10 +18979,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -18996,10 +19002,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19019,10 +19025,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19042,10 +19048,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19065,10 +19071,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19088,10 +19094,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19111,10 +19117,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19134,10 +19140,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19157,10 +19163,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19180,10 +19186,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19203,10 +19209,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19226,10 +19232,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19249,10 +19255,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19272,10 +19278,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19295,10 +19301,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19318,10 +19324,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>902</v>
+        <v>1206</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19341,10 +19347,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1209</v>
+        <v>902</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19364,10 +19370,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19387,10 +19393,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19410,10 +19416,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19433,10 +19439,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19456,10 +19462,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19479,10 +19485,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19502,10 +19508,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19525,10 +19531,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19548,10 +19554,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19571,10 +19577,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19594,10 +19600,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19617,10 +19623,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19640,10 +19646,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19663,10 +19669,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19686,10 +19692,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19709,10 +19715,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19732,10 +19738,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19755,10 +19761,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19778,10 +19784,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19801,10 +19807,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19824,10 +19830,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19847,10 +19853,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19870,10 +19876,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19893,10 +19899,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1448</v>
+        <v>1254</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1449</v>
+        <v>1255</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19916,10 +19922,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1256</v>
+        <v>1448</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1257</v>
+        <v>1449</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19939,10 +19945,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19962,10 +19968,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -19985,10 +19991,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20008,10 +20014,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20031,10 +20037,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20054,7 +20060,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B662" s="5" t="s">
         <v>186</v>
@@ -20077,7 +20083,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B663" s="5" t="s">
         <v>186</v>
@@ -20100,10 +20106,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20123,10 +20129,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20146,10 +20152,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20169,10 +20175,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20192,10 +20198,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20215,10 +20221,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20238,10 +20244,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20261,10 +20267,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1283</v>
+        <v>782</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20284,10 +20290,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20307,10 +20313,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20330,10 +20336,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20353,10 +20359,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20376,10 +20382,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20399,10 +20405,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20422,10 +20428,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20445,10 +20451,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20468,10 +20474,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20491,10 +20497,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20514,10 +20520,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20537,10 +20543,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20560,10 +20566,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20583,10 +20589,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20606,10 +20612,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20629,10 +20635,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20652,10 +20658,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20675,10 +20681,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20698,10 +20704,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20721,10 +20727,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20744,10 +20750,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1456</v>
+        <v>1322</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1457</v>
+        <v>1323</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20767,10 +20773,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1324</v>
+        <v>1456</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1325</v>
+        <v>1457</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20790,10 +20796,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1462</v>
+        <v>1324</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1463</v>
+        <v>1325</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20813,10 +20819,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20836,22 +20842,22 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E696" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F696" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G696" s="6" t="s">
         <v>14</v>
@@ -20859,22 +20865,22 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>186</v>
+        <v>1327</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>186</v>
+        <v>1329</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G697" s="6" t="s">
         <v>14</v>
@@ -20882,22 +20888,22 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1334</v>
+        <v>186</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E698" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F698" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G698" s="6" t="s">
         <v>14</v>
@@ -20905,10 +20911,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>1335</v>
@@ -20928,10 +20934,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>1335</v>
@@ -20951,10 +20957,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>1335</v>
@@ -20974,10 +20980,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>1335</v>
@@ -20997,10 +21003,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>1335</v>
@@ -21020,22 +21026,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E704" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21043,22 +21049,22 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>186</v>
+        <v>1347</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F705" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G705" s="6" t="s">
         <v>14</v>
@@ -21066,19 +21072,19 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1350</v>
+        <v>186</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>1351</v>
+        <v>186</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>1352</v>
+        <v>186</v>
       </c>
       <c r="E706" s="5" t="s">
-        <v>1353</v>
+        <v>186</v>
       </c>
       <c r="F706" s="6" t="s">
         <v>1332</v>
@@ -21089,22 +21095,22 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F707" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>14</v>
@@ -21112,13 +21118,13 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>1328</v>
+        <v>1356</v>
       </c>
       <c r="D708" s="5" t="s">
         <v>1329</v>
@@ -21135,13 +21141,13 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D709" s="5" t="s">
         <v>1329</v>
@@ -21158,10 +21164,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1356</v>
@@ -21181,10 +21187,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1356</v>
@@ -21204,10 +21210,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C712" s="5" t="s">
         <v>1356</v>
@@ -21227,10 +21233,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1356</v>
@@ -21250,10 +21256,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21273,10 +21279,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21296,10 +21302,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21319,10 +21325,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21342,10 +21348,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21365,10 +21371,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21388,10 +21394,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21411,10 +21417,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21434,10 +21440,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21457,10 +21463,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21480,10 +21486,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21503,10 +21509,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21526,10 +21532,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21549,10 +21555,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21572,10 +21578,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21595,10 +21601,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21618,10 +21624,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21641,10 +21647,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21664,10 +21670,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21687,10 +21693,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21710,10 +21716,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21733,10 +21739,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21756,10 +21762,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21779,16 +21785,16 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E737" s="5" t="s">
         <v>12</v>
@@ -21802,10 +21808,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1416</v>
@@ -21825,10 +21831,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>1416</v>
@@ -21848,22 +21854,22 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>186</v>
+        <v>1421</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E740" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F740" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G740" s="6" t="s">
         <v>14</v>
@@ -21871,22 +21877,22 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1424</v>
+        <v>186</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E741" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F741" s="6" t="s">
-        <v>13</v>
+        <v>1332</v>
       </c>
       <c r="G741" s="6" t="s">
         <v>14</v>
@@ -21894,22 +21900,22 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F742" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G742" s="6" t="s">
         <v>14</v>
@@ -21917,24 +21923,47 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E743" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F743" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G743" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B743" s="5" t="s">
+      <c r="B744" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C743" s="5" t="s">
+      <c r="C744" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D743" s="5" t="s">
+      <c r="D744" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E743" s="5" t="s">
+      <c r="E744" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F743" s="6" t="s">
+      <c r="F744" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G743" s="6" t="s">
+      <c r="G744" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4453,7 +4453,7 @@
     <t>SUSA</t>
   </si>
   <si>
-    <t>Categorias Produto : 17-06-2020 09:18:38</t>
+    <t>Categorias Produto : 18-06-2020 10:15:11</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4453,7 +4453,7 @@
     <t>SUSA</t>
   </si>
   <si>
-    <t>Categorias Produto : 18-06-2020 10:15:11</t>
+    <t>Categorias Produto : 22-06-2020 08:47:24</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4453,7 +4453,7 @@
     <t>SUSA</t>
   </si>
   <si>
-    <t>Categorias Produto : 22-06-2020 08:47:24</t>
+    <t>Categorias Produto : 24-06-2020 09:37:10</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5217" uniqueCount="1483">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4453,7 +4453,25 @@
     <t>SUSA</t>
   </si>
   <si>
-    <t>Categorias Produto : 24-06-2020 09:37:10</t>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>HANS</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>KELSEY</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>GRONLID</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 10-07-2020 10:13:54</t>
   </si>
 </sst>
 </file>
@@ -4584,8 +4602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G744" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G744"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G747" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G747"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4862,7 +4880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G744"/>
+  <dimension ref="A1:G747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4892,7 +4910,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7088,10 +7106,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>171</v>
+        <v>1476</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>172</v>
+        <v>1477</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>10</v>
@@ -7111,10 +7129,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7134,10 +7152,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>1472</v>
+        <v>171</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1473</v>
+        <v>172</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7157,10 +7175,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>173</v>
+        <v>1464</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>174</v>
+        <v>1465</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7180,10 +7198,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7203,10 +7221,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1468</v>
+        <v>173</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1469</v>
+        <v>174</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7226,10 +7244,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>175</v>
+        <v>1466</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>176</v>
+        <v>1467</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7249,10 +7267,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7272,10 +7290,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7295,10 +7313,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>179</v>
+        <v>1470</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>180</v>
+        <v>1471</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7318,10 +7336,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7341,10 +7359,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7364,10 +7382,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7387,10 +7405,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7410,10 +7428,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7433,10 +7451,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7456,10 +7474,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7479,10 +7497,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7502,10 +7520,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7525,10 +7543,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7548,10 +7566,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7571,10 +7589,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7594,10 +7612,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7617,10 +7635,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7640,10 +7658,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7663,10 +7681,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7686,10 +7704,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7709,10 +7727,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7732,10 +7750,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7755,10 +7773,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7778,10 +7796,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7801,10 +7819,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7824,10 +7842,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7847,10 +7865,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7870,10 +7888,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7893,10 +7911,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7916,10 +7934,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7939,10 +7957,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7962,10 +7980,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -7985,10 +8003,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8008,10 +8026,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8031,10 +8049,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8054,10 +8072,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8077,10 +8095,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8100,10 +8118,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8123,10 +8141,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8146,10 +8164,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8169,10 +8187,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8192,10 +8210,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8215,10 +8233,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8238,10 +8256,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8261,10 +8279,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8284,10 +8302,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8307,10 +8325,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8330,10 +8348,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8353,10 +8371,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8376,10 +8394,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8399,10 +8417,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8422,10 +8440,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8445,10 +8463,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8468,10 +8486,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8491,10 +8509,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8514,10 +8532,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8537,10 +8555,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8560,10 +8578,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8583,10 +8601,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8606,10 +8624,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8629,10 +8647,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8652,10 +8670,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8675,10 +8693,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8698,10 +8716,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8721,10 +8739,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8744,10 +8762,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8767,10 +8785,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8790,10 +8808,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8813,10 +8831,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8836,10 +8854,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8859,10 +8877,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8882,10 +8900,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8905,10 +8923,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8928,10 +8946,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8951,10 +8969,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8974,10 +8992,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -8997,10 +9015,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9020,10 +9038,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9043,10 +9061,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9066,10 +9084,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9089,10 +9107,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9112,10 +9130,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9135,10 +9153,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9158,10 +9176,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9181,10 +9199,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9204,10 +9222,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9227,10 +9245,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9250,10 +9268,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9273,10 +9291,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9296,10 +9314,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9319,10 +9337,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9342,10 +9360,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9365,10 +9383,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9388,10 +9406,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9411,10 +9429,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9434,10 +9452,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9457,10 +9475,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9480,10 +9498,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9503,10 +9521,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9526,10 +9544,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9549,10 +9567,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9572,10 +9590,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9595,10 +9613,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9618,10 +9636,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9641,10 +9659,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9664,10 +9682,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9687,10 +9705,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9710,10 +9728,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9733,10 +9751,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9756,10 +9774,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9779,10 +9797,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9802,10 +9820,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9825,10 +9843,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9848,10 +9866,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9871,10 +9889,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9894,10 +9912,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9917,10 +9935,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9940,10 +9958,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9963,10 +9981,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -9986,10 +10004,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10009,10 +10027,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10032,10 +10050,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10055,10 +10073,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10078,10 +10096,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10101,10 +10119,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10124,10 +10142,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10147,10 +10165,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10170,10 +10188,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10193,10 +10211,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10216,10 +10234,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10239,10 +10257,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10262,10 +10280,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10285,10 +10303,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10308,10 +10326,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10331,10 +10349,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10354,10 +10372,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10377,10 +10395,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10400,10 +10418,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10423,10 +10441,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10446,10 +10464,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10469,10 +10487,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10492,10 +10510,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10515,10 +10533,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10538,10 +10556,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10561,10 +10579,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10584,10 +10602,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10607,10 +10625,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10630,10 +10648,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10653,10 +10671,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10676,10 +10694,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10699,10 +10717,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10722,10 +10740,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10745,10 +10763,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10768,10 +10786,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10791,10 +10809,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10814,10 +10832,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10837,10 +10855,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10860,10 +10878,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10883,10 +10901,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10906,10 +10924,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10929,10 +10947,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10952,10 +10970,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10975,10 +10993,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -10998,10 +11016,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11021,10 +11039,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11044,10 +11062,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11067,10 +11085,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11090,10 +11108,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11113,10 +11131,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11136,10 +11154,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11159,10 +11177,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11182,10 +11200,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11205,10 +11223,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11228,10 +11246,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11251,10 +11269,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11274,10 +11292,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11297,10 +11315,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11320,10 +11338,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11343,10 +11361,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11366,10 +11384,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11389,10 +11407,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11412,10 +11430,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11435,10 +11453,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11458,10 +11476,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11481,10 +11499,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11504,10 +11522,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11527,10 +11545,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11550,10 +11568,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11573,10 +11591,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11596,10 +11614,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11619,10 +11637,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11642,10 +11660,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11665,10 +11683,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11688,10 +11706,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11711,10 +11729,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11734,10 +11752,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11757,10 +11775,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11780,10 +11798,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11803,10 +11821,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11826,10 +11844,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11849,10 +11867,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11872,10 +11890,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11895,10 +11913,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11918,10 +11936,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11941,10 +11959,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11964,10 +11982,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -11987,10 +12005,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12010,10 +12028,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12033,10 +12051,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>591</v>
+        <v>372</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12056,10 +12074,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12079,10 +12097,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12102,10 +12120,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12125,10 +12143,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12148,10 +12166,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12171,10 +12189,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12194,10 +12212,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>462</v>
+        <v>601</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12217,10 +12235,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12240,10 +12258,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>608</v>
+        <v>462</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12263,10 +12281,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12286,10 +12304,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12309,10 +12327,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12332,10 +12350,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12355,10 +12373,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12378,10 +12396,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12401,10 +12419,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12424,10 +12442,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12447,10 +12465,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12470,10 +12488,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12493,10 +12511,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12516,10 +12534,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12539,10 +12557,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12562,10 +12580,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12585,10 +12603,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12608,10 +12626,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12631,10 +12649,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12654,10 +12672,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12677,10 +12695,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12700,10 +12718,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12723,10 +12741,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12746,10 +12764,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12769,10 +12787,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12792,10 +12810,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12815,10 +12833,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12838,10 +12856,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12861,10 +12879,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12884,10 +12902,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12907,10 +12925,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12930,10 +12948,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12953,10 +12971,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12976,10 +12994,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -12999,10 +13017,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13022,10 +13040,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13045,10 +13063,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13068,10 +13086,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13091,10 +13109,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13114,10 +13132,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13137,10 +13155,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13160,10 +13178,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13183,10 +13201,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13206,10 +13224,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13229,10 +13247,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13252,10 +13270,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13275,10 +13293,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13298,10 +13316,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13321,10 +13339,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13344,10 +13362,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13367,10 +13385,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13390,10 +13408,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13413,10 +13431,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13436,10 +13454,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13459,10 +13477,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13482,10 +13500,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13505,10 +13523,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13528,10 +13546,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13551,10 +13569,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13574,10 +13592,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13597,10 +13615,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13620,10 +13638,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13643,10 +13661,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13666,10 +13684,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13689,10 +13707,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13712,10 +13730,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13735,10 +13753,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13758,10 +13776,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13781,10 +13799,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13804,10 +13822,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13827,10 +13845,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13850,10 +13868,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13873,10 +13891,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13896,10 +13914,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13919,10 +13937,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13942,10 +13960,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13965,10 +13983,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -13988,10 +14006,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14011,10 +14029,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14034,10 +14052,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14057,10 +14075,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14080,10 +14098,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14103,10 +14121,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14126,10 +14144,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14149,10 +14167,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14172,10 +14190,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14195,10 +14213,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14218,10 +14236,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14241,10 +14259,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14264,10 +14282,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14287,10 +14305,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14310,10 +14328,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14333,10 +14351,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14356,10 +14374,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14379,10 +14397,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14402,10 +14420,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14425,10 +14443,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14448,10 +14466,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14471,10 +14489,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14494,10 +14512,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14517,10 +14535,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14540,10 +14558,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14563,10 +14581,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14586,10 +14604,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14609,10 +14627,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14632,10 +14650,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14655,10 +14673,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14678,10 +14696,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14701,10 +14719,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14724,10 +14742,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14747,10 +14765,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14770,10 +14788,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>186</v>
+        <v>824</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14793,10 +14811,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14816,10 +14834,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>831</v>
+        <v>186</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14839,10 +14857,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>632</v>
+        <v>829</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14862,10 +14880,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14885,10 +14903,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>836</v>
+        <v>632</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14908,10 +14926,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14931,10 +14949,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14954,10 +14972,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14977,10 +14995,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15000,10 +15018,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15023,10 +15041,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15046,10 +15064,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15069,10 +15087,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15092,10 +15110,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15115,10 +15133,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15138,10 +15156,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15161,10 +15179,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15184,10 +15202,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15207,10 +15225,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15230,10 +15248,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15253,10 +15271,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>374</v>
+        <v>864</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15276,10 +15294,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15299,10 +15317,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15322,10 +15340,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15345,10 +15363,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>874</v>
+        <v>154</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15368,10 +15386,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15391,10 +15409,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15414,10 +15432,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15437,10 +15455,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15460,10 +15478,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15483,10 +15501,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>400</v>
+        <v>882</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15506,10 +15524,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15529,10 +15547,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15552,10 +15570,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15575,10 +15593,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15598,10 +15616,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15621,10 +15639,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15644,10 +15662,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>104</v>
+        <v>895</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15667,10 +15685,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15690,10 +15708,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>902</v>
+        <v>104</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15713,10 +15731,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15736,10 +15754,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15759,10 +15777,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15782,10 +15800,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15805,10 +15823,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15828,10 +15846,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15851,10 +15869,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15874,10 +15892,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15897,10 +15915,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15920,10 +15938,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15943,10 +15961,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15966,10 +15984,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -15989,10 +16007,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16012,10 +16030,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16035,10 +16053,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16058,10 +16076,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16081,10 +16099,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16104,10 +16122,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16127,10 +16145,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16150,10 +16168,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16173,10 +16191,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16196,10 +16214,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16219,10 +16237,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16242,10 +16260,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16265,10 +16283,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16288,10 +16306,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16311,10 +16329,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16334,10 +16352,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16357,10 +16375,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16380,10 +16398,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16403,10 +16421,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16426,10 +16444,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16449,10 +16467,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16472,10 +16490,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16495,10 +16513,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16518,10 +16536,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16541,10 +16559,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16564,10 +16582,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16587,10 +16605,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16610,10 +16628,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16633,10 +16651,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16656,10 +16674,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16679,10 +16697,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16702,10 +16720,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16725,10 +16743,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16748,10 +16766,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>895</v>
+        <v>990</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16771,10 +16789,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16794,10 +16812,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>997</v>
+        <v>895</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16817,10 +16835,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16840,10 +16858,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16863,10 +16881,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16886,10 +16904,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16909,10 +16927,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16932,10 +16950,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16955,10 +16973,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16978,10 +16996,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>696</v>
+        <v>1009</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -17001,10 +17019,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17024,10 +17042,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1016</v>
+        <v>696</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17047,10 +17065,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17070,10 +17088,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17093,10 +17111,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17116,10 +17134,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>692</v>
+        <v>1020</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17139,10 +17157,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17162,10 +17180,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1027</v>
+        <v>692</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17185,10 +17203,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17208,10 +17226,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17231,10 +17249,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17254,10 +17272,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17277,10 +17295,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17300,10 +17318,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1038</v>
+        <v>104</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17323,10 +17341,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17346,10 +17364,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17369,10 +17387,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17392,10 +17410,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17415,10 +17433,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17438,10 +17456,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17461,10 +17479,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>986</v>
+        <v>1048</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17484,10 +17502,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17507,10 +17525,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1055</v>
+        <v>986</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17530,10 +17548,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17553,10 +17571,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17576,10 +17594,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17599,10 +17617,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>986</v>
+        <v>1059</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17622,10 +17640,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17645,10 +17663,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1066</v>
+        <v>986</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17668,10 +17686,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17691,10 +17709,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17714,10 +17732,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>186</v>
+        <v>1068</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17737,10 +17755,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>100</v>
+        <v>1070</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17760,10 +17778,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17783,10 +17801,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1075</v>
+        <v>100</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17806,10 +17824,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1077</v>
+        <v>32</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17829,10 +17847,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17852,10 +17870,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17875,10 +17893,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>186</v>
+        <v>1079</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17898,10 +17916,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1083</v>
+        <v>786</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17921,10 +17939,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1085</v>
+        <v>186</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17944,10 +17962,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17967,10 +17985,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -17990,10 +18008,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18013,10 +18031,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18036,10 +18054,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18059,10 +18077,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18082,10 +18100,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18105,10 +18123,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18128,10 +18146,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18151,10 +18169,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18174,10 +18192,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18197,10 +18215,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18220,10 +18238,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18243,10 +18261,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18266,10 +18284,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18289,10 +18307,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18312,10 +18330,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>891</v>
+        <v>1115</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18335,10 +18353,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18358,10 +18376,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1122</v>
+        <v>891</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18381,10 +18399,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18404,10 +18422,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18427,10 +18445,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18450,10 +18468,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18473,10 +18491,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18496,10 +18514,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18519,10 +18537,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18542,10 +18560,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18565,10 +18583,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18588,10 +18606,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18611,10 +18629,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18634,10 +18652,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18657,10 +18675,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18680,10 +18698,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18703,10 +18721,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18726,10 +18744,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18749,10 +18767,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18772,10 +18790,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18795,10 +18813,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18818,10 +18836,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18841,10 +18859,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18864,10 +18882,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18887,10 +18905,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18910,10 +18928,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18933,10 +18951,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18956,10 +18974,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18979,10 +18997,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -19002,10 +19020,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19025,10 +19043,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19048,10 +19066,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19071,10 +19089,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19094,10 +19112,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19117,10 +19135,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19140,10 +19158,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19163,10 +19181,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19186,10 +19204,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19209,10 +19227,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19232,10 +19250,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19255,10 +19273,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19278,10 +19296,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19301,10 +19319,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19324,10 +19342,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1205</v>
+        <v>1480</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1206</v>
+        <v>1481</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19347,10 +19365,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>902</v>
+        <v>1202</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19370,10 +19388,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19393,10 +19411,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19416,10 +19434,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1213</v>
+        <v>902</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19439,10 +19457,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19462,10 +19480,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19485,10 +19503,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19508,10 +19526,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19531,10 +19549,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19554,10 +19572,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19577,10 +19595,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19600,10 +19618,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19623,10 +19641,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19646,10 +19664,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19669,10 +19687,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19692,10 +19710,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19715,10 +19733,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19738,10 +19756,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19761,10 +19779,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19784,10 +19802,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19807,10 +19825,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19830,10 +19848,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19853,10 +19871,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19876,10 +19894,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19899,10 +19917,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19922,10 +19940,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1448</v>
+        <v>1250</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1449</v>
+        <v>1251</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19945,10 +19963,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19968,10 +19986,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -19991,10 +20009,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1260</v>
+        <v>1448</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1261</v>
+        <v>1449</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20014,10 +20032,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20037,10 +20055,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20060,10 +20078,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>186</v>
+        <v>1261</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20083,10 +20101,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>186</v>
+        <v>1263</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20106,10 +20124,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20129,10 +20147,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20152,10 +20170,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1272</v>
+        <v>186</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20175,10 +20193,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1274</v>
+        <v>186</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20198,10 +20216,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20221,10 +20239,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20244,10 +20262,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20267,10 +20285,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>782</v>
+        <v>1276</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20290,10 +20308,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20313,10 +20331,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20336,10 +20354,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1287</v>
+        <v>782</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20359,10 +20377,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20382,10 +20400,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20405,10 +20423,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20428,10 +20446,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20451,10 +20469,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20474,10 +20492,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20497,10 +20515,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20520,10 +20538,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20543,10 +20561,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20566,10 +20584,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20589,10 +20607,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20612,10 +20630,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20635,10 +20653,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20658,10 +20676,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20681,10 +20699,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20704,10 +20722,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20727,10 +20745,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20750,10 +20768,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20773,10 +20791,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1456</v>
+        <v>1318</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1457</v>
+        <v>1319</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20796,10 +20814,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20819,10 +20837,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1462</v>
+        <v>1322</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1463</v>
+        <v>1323</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20842,10 +20860,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>10</v>
@@ -20865,22 +20883,22 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E697" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G697" s="6" t="s">
         <v>14</v>
@@ -20888,22 +20906,22 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1331</v>
+        <v>1462</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>186</v>
+        <v>1463</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E698" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F698" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G698" s="6" t="s">
         <v>14</v>
@@ -20911,22 +20929,22 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1333</v>
+        <v>1450</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1334</v>
+        <v>1451</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>1335</v>
+        <v>10</v>
       </c>
       <c r="D699" s="5" t="s">
-        <v>1335</v>
+        <v>11</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F699" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G699" s="6" t="s">
         <v>14</v>
@@ -20934,16 +20952,16 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E700" s="5" t="s">
         <v>12</v>
@@ -20957,22 +20975,22 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1339</v>
+        <v>186</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F701" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G701" s="6" t="s">
         <v>14</v>
@@ -20980,10 +20998,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>1335</v>
@@ -21003,10 +21021,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>1335</v>
@@ -21026,10 +21044,10 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>1335</v>
@@ -21049,22 +21067,22 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E705" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F705" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G705" s="6" t="s">
         <v>14</v>
@@ -21072,22 +21090,22 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>186</v>
+        <v>1343</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="E706" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F706" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>14</v>
@@ -21095,22 +21113,22 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>1353</v>
+        <v>12</v>
       </c>
       <c r="F707" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>14</v>
@@ -21118,22 +21136,22 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>1356</v>
+        <v>10</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E708" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F708" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G708" s="6" t="s">
         <v>14</v>
@@ -21141,22 +21159,22 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1358</v>
+        <v>186</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>1328</v>
+        <v>186</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E709" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F709" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>14</v>
@@ -21164,22 +21182,22 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F710" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>14</v>
@@ -21187,10 +21205,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1356</v>
@@ -21210,13 +21228,13 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D712" s="5" t="s">
         <v>1329</v>
@@ -21233,10 +21251,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1356</v>
@@ -21256,10 +21274,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21279,10 +21297,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21302,10 +21320,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21325,10 +21343,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21348,10 +21366,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21371,10 +21389,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21394,10 +21412,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21417,10 +21435,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21440,10 +21458,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21463,10 +21481,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21486,10 +21504,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21509,10 +21527,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21532,10 +21550,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21555,10 +21573,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1339</v>
+        <v>1388</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21578,10 +21596,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21601,10 +21619,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21624,10 +21642,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1399</v>
+        <v>1339</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21647,10 +21665,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21670,10 +21688,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21693,10 +21711,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21716,10 +21734,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21739,10 +21757,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21762,10 +21780,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21785,10 +21803,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1356</v>
@@ -21808,16 +21826,16 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E738" s="5" t="s">
         <v>12</v>
@@ -21831,16 +21849,16 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E739" s="5" t="s">
         <v>12</v>
@@ -21854,16 +21872,16 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>12</v>
@@ -21877,22 +21895,22 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>186</v>
+        <v>1415</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E741" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F741" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G741" s="6" t="s">
         <v>14</v>
@@ -21900,22 +21918,22 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>10</v>
+        <v>1416</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>11</v>
+        <v>1417</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F742" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G742" s="6" t="s">
         <v>14</v>
@@ -21923,16 +21941,16 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>1328</v>
+        <v>1416</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>1329</v>
+        <v>1417</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>12</v>
@@ -21946,10 +21964,10 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1428</v>
+        <v>186</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>186</v>
@@ -21964,6 +21982,75 @@
         <v>1332</v>
       </c>
       <c r="G744" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E745" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F745" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G745" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D746" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E746" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F746" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G746" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E747" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F747" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G747" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -4471,7 +4471,7 @@
     <t>GRONLID</t>
   </si>
   <si>
-    <t>Categorias Produto : 10-07-2020 10:13:54</t>
+    <t>Categorias Produto : 17-07-2020 08:44:13</t>
   </si>
 </sst>
 </file>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5217" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1485">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4471,7 +4471,13 @@
     <t>GRONLID</t>
   </si>
   <si>
-    <t>Categorias Produto : 17-07-2020 08:44:13</t>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>POLLY</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 22-07-2020 09:23:43</t>
   </si>
 </sst>
 </file>
@@ -4602,8 +4608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G747" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G747"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G748" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G748"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4880,7 +4886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G747"/>
+  <dimension ref="A1:G748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4910,7 +4916,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7060,10 +7066,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1460</v>
+        <v>1482</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1461</v>
+        <v>1483</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>10</v>
@@ -7083,10 +7089,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>169</v>
+        <v>1460</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>170</v>
+        <v>1461</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>10</v>
@@ -7106,10 +7112,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1476</v>
+        <v>169</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1477</v>
+        <v>170</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>10</v>
@@ -7129,10 +7135,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7152,10 +7158,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>171</v>
+        <v>1478</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>172</v>
+        <v>1479</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7175,10 +7181,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1464</v>
+        <v>171</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1465</v>
+        <v>172</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7198,10 +7204,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7221,10 +7227,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>173</v>
+        <v>1472</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>174</v>
+        <v>1473</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7244,10 +7250,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1467</v>
+        <v>174</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7267,10 +7273,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7290,10 +7296,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>175</v>
+        <v>1468</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>176</v>
+        <v>1469</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7313,10 +7319,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1471</v>
+        <v>176</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7336,10 +7342,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>177</v>
+        <v>1470</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>178</v>
+        <v>1471</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7359,10 +7365,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7382,10 +7388,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7405,10 +7411,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7428,10 +7434,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7451,10 +7457,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7474,10 +7480,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7497,10 +7503,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7520,10 +7526,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7543,10 +7549,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7566,10 +7572,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7589,10 +7595,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7612,10 +7618,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7635,10 +7641,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7658,10 +7664,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7681,10 +7687,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7704,10 +7710,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7727,10 +7733,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7750,10 +7756,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7773,10 +7779,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7796,10 +7802,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7819,10 +7825,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7842,10 +7848,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7865,10 +7871,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7888,10 +7894,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7911,10 +7917,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7934,10 +7940,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7957,10 +7963,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7980,10 +7986,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -8003,10 +8009,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8026,10 +8032,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8049,10 +8055,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8072,10 +8078,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8095,10 +8101,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8118,10 +8124,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8141,10 +8147,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8164,10 +8170,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8187,10 +8193,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8210,10 +8216,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8233,10 +8239,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8256,10 +8262,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8279,10 +8285,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8302,10 +8308,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8325,10 +8331,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8348,10 +8354,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8371,10 +8377,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8394,10 +8400,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8417,10 +8423,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8440,10 +8446,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8463,10 +8469,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8486,10 +8492,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8509,10 +8515,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8532,10 +8538,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8555,10 +8561,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8578,10 +8584,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8601,10 +8607,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8624,10 +8630,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8647,10 +8653,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8670,10 +8676,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8693,10 +8699,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8716,10 +8722,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8739,10 +8745,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8762,10 +8768,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8785,10 +8791,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8808,10 +8814,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8831,10 +8837,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8854,10 +8860,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8877,10 +8883,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8900,10 +8906,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8923,10 +8929,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8946,10 +8952,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8969,10 +8975,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8992,10 +8998,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -9015,10 +9021,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9038,10 +9044,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9061,10 +9067,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9084,10 +9090,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9107,10 +9113,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9130,10 +9136,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9153,10 +9159,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9176,10 +9182,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9199,10 +9205,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9222,10 +9228,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9245,10 +9251,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9268,10 +9274,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9291,10 +9297,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9314,10 +9320,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9337,10 +9343,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9360,10 +9366,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9383,10 +9389,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9406,10 +9412,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9429,10 +9435,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9452,10 +9458,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9475,10 +9481,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9498,10 +9504,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9521,10 +9527,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9544,10 +9550,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9567,10 +9573,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9590,10 +9596,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9613,10 +9619,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9636,10 +9642,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9659,10 +9665,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9682,10 +9688,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9705,10 +9711,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9728,10 +9734,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9751,10 +9757,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9774,10 +9780,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9797,10 +9803,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9820,10 +9826,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9843,10 +9849,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9866,10 +9872,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9889,10 +9895,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9912,10 +9918,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9935,10 +9941,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9958,10 +9964,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9981,10 +9987,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -10004,10 +10010,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10027,10 +10033,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10050,10 +10056,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10073,10 +10079,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10096,10 +10102,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10119,10 +10125,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10142,10 +10148,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10165,10 +10171,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10188,10 +10194,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10211,10 +10217,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10234,10 +10240,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10257,10 +10263,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10280,10 +10286,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10303,10 +10309,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10326,10 +10332,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10349,10 +10355,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10372,10 +10378,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10395,10 +10401,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10418,10 +10424,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10441,10 +10447,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10464,10 +10470,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10487,10 +10493,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10510,10 +10516,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10533,10 +10539,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10556,10 +10562,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10579,10 +10585,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10602,10 +10608,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10625,10 +10631,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10648,10 +10654,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10671,10 +10677,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10694,10 +10700,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10717,10 +10723,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10740,10 +10746,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10763,10 +10769,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10786,10 +10792,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10809,10 +10815,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10832,10 +10838,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10855,10 +10861,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10878,10 +10884,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10901,10 +10907,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10924,10 +10930,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10947,10 +10953,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10970,10 +10976,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10993,10 +10999,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -11016,10 +11022,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11039,10 +11045,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11062,10 +11068,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11085,10 +11091,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11108,10 +11114,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11131,10 +11137,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11154,10 +11160,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11177,10 +11183,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11200,10 +11206,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11223,10 +11229,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11246,10 +11252,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11269,10 +11275,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11292,10 +11298,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11315,10 +11321,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11338,10 +11344,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11361,10 +11367,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11384,10 +11390,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11407,10 +11413,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11430,10 +11436,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11453,10 +11459,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11476,10 +11482,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11499,10 +11505,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11522,10 +11528,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11545,10 +11551,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11568,10 +11574,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11591,10 +11597,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11614,10 +11620,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11637,10 +11643,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11660,10 +11666,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11683,10 +11689,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11706,10 +11712,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11729,10 +11735,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11752,10 +11758,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11775,10 +11781,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11798,10 +11804,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11821,10 +11827,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11844,10 +11850,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11867,10 +11873,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11890,10 +11896,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11913,10 +11919,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11936,10 +11942,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11959,10 +11965,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11982,10 +11988,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -12005,10 +12011,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12028,10 +12034,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12051,10 +12057,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12074,10 +12080,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12097,10 +12103,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12120,10 +12126,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12143,10 +12149,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12166,10 +12172,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12189,10 +12195,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12212,10 +12218,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12235,10 +12241,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12258,10 +12264,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12281,10 +12287,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12304,10 +12310,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12327,10 +12333,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12350,10 +12356,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12373,10 +12379,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12396,10 +12402,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12419,10 +12425,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12442,10 +12448,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12465,10 +12471,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12488,10 +12494,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12511,10 +12517,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12534,10 +12540,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12557,10 +12563,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12580,10 +12586,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12603,10 +12609,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12626,10 +12632,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12649,10 +12655,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12672,10 +12678,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12695,10 +12701,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12718,10 +12724,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12741,10 +12747,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12764,10 +12770,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12787,10 +12793,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12810,10 +12816,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12833,10 +12839,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12856,10 +12862,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12879,10 +12885,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12902,10 +12908,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12925,10 +12931,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12948,10 +12954,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12971,10 +12977,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -12994,10 +13000,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -13017,10 +13023,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13040,10 +13046,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13063,10 +13069,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13086,10 +13092,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13109,10 +13115,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13132,10 +13138,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13155,10 +13161,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13178,10 +13184,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13201,10 +13207,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13224,10 +13230,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13247,10 +13253,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13270,10 +13276,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13293,10 +13299,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13316,10 +13322,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13339,10 +13345,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13362,10 +13368,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13385,10 +13391,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13408,10 +13414,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13431,10 +13437,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13454,10 +13460,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13477,10 +13483,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13500,10 +13506,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13523,10 +13529,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13546,10 +13552,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13569,10 +13575,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13592,10 +13598,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13615,10 +13621,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13638,10 +13644,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13661,10 +13667,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13684,10 +13690,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13707,10 +13713,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13730,10 +13736,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13753,10 +13759,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13776,10 +13782,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13799,10 +13805,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13822,10 +13828,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13845,10 +13851,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13868,10 +13874,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13891,10 +13897,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13914,10 +13920,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13937,10 +13943,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13960,10 +13966,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13983,10 +13989,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -14006,10 +14012,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14029,10 +14035,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14052,10 +14058,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14075,10 +14081,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14098,10 +14104,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14121,10 +14127,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14144,10 +14150,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14167,10 +14173,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14190,10 +14196,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14213,10 +14219,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14236,10 +14242,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14259,10 +14265,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14282,10 +14288,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14305,10 +14311,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14328,10 +14334,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14351,10 +14357,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14374,10 +14380,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14397,10 +14403,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14420,10 +14426,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14443,10 +14449,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14466,10 +14472,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14489,10 +14495,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14512,10 +14518,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14535,10 +14541,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14558,10 +14564,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14581,10 +14587,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14604,10 +14610,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14627,10 +14633,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14650,10 +14656,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14673,10 +14679,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14696,10 +14702,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14719,10 +14725,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14742,10 +14748,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14765,10 +14771,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14788,10 +14794,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14811,10 +14817,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14834,10 +14840,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14857,10 +14863,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14880,10 +14886,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14903,10 +14909,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14926,10 +14932,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14949,10 +14955,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14972,10 +14978,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -14995,10 +15001,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15018,10 +15024,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15041,10 +15047,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15064,10 +15070,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15087,10 +15093,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15110,10 +15116,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15133,10 +15139,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15156,10 +15162,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15179,10 +15185,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15202,10 +15208,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15225,10 +15231,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15248,10 +15254,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15271,10 +15277,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15294,10 +15300,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15317,10 +15323,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15340,10 +15346,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15363,10 +15369,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15386,10 +15392,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15409,10 +15415,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15432,10 +15438,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15455,10 +15461,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15478,10 +15484,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15501,10 +15507,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15524,10 +15530,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15547,10 +15553,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15570,10 +15576,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>887</v>
+        <v>400</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15593,10 +15599,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15616,10 +15622,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15639,10 +15645,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15662,10 +15668,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15685,10 +15691,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15708,10 +15714,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>104</v>
+        <v>897</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15731,10 +15737,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>900</v>
+        <v>104</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15754,10 +15760,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15777,10 +15783,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15800,10 +15806,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15823,10 +15829,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15846,10 +15852,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15869,10 +15875,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15892,10 +15898,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15915,10 +15921,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15938,10 +15944,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15961,10 +15967,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15984,10 +15990,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -16007,10 +16013,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16030,10 +16036,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16053,10 +16059,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16076,10 +16082,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16099,10 +16105,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16122,10 +16128,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16145,10 +16151,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16168,10 +16174,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16191,10 +16197,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16214,10 +16220,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16237,10 +16243,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16260,10 +16266,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16283,10 +16289,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16306,10 +16312,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16329,10 +16335,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16352,10 +16358,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16375,10 +16381,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16398,10 +16404,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16421,10 +16427,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16444,10 +16450,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16467,10 +16473,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16490,10 +16496,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16513,10 +16519,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16536,10 +16542,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16559,10 +16565,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16582,10 +16588,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16605,10 +16611,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16628,10 +16634,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16651,10 +16657,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16674,10 +16680,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16697,10 +16703,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16720,10 +16726,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16743,10 +16749,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16766,10 +16772,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16789,10 +16795,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16812,10 +16818,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16835,10 +16841,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16858,10 +16864,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16881,10 +16887,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16904,10 +16910,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16927,10 +16933,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16950,10 +16956,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16973,10 +16979,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -16996,10 +17002,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -17019,10 +17025,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17042,10 +17048,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17065,10 +17071,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1014</v>
+        <v>696</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17088,10 +17094,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17111,10 +17117,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17134,10 +17140,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17157,10 +17163,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17180,10 +17186,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17203,10 +17209,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1025</v>
+        <v>692</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17226,10 +17232,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17249,10 +17255,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17272,10 +17278,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17295,10 +17301,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17318,10 +17324,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17341,10 +17347,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1036</v>
+        <v>104</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17364,10 +17370,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17387,10 +17393,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17410,10 +17416,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17433,10 +17439,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17456,10 +17462,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17479,10 +17485,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17502,10 +17508,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17525,10 +17531,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17548,10 +17554,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1053</v>
+        <v>986</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17571,10 +17577,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17594,10 +17600,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17617,10 +17623,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17640,10 +17646,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17663,10 +17669,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17686,10 +17692,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17709,10 +17715,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17732,10 +17738,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17755,10 +17761,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17778,10 +17784,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>186</v>
+        <v>1070</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17801,10 +17807,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17824,10 +17830,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17847,10 +17853,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1075</v>
+        <v>32</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17870,10 +17876,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17893,10 +17899,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17916,10 +17922,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17939,10 +17945,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>186</v>
+        <v>786</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17962,10 +17968,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1083</v>
+        <v>186</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17985,10 +17991,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -18008,10 +18014,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18031,10 +18037,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18054,10 +18060,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18077,10 +18083,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18100,10 +18106,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18123,10 +18129,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18146,10 +18152,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18169,10 +18175,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18192,10 +18198,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18215,10 +18221,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18238,10 +18244,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18261,10 +18267,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18284,10 +18290,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18307,10 +18313,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18330,10 +18336,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18353,10 +18359,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18376,10 +18382,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>891</v>
+        <v>1117</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18399,10 +18405,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1120</v>
+        <v>891</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18422,10 +18428,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18445,10 +18451,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18468,10 +18474,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18491,10 +18497,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18514,10 +18520,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18537,10 +18543,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18560,10 +18566,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18583,10 +18589,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18606,10 +18612,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18629,10 +18635,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18652,10 +18658,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18675,10 +18681,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18698,10 +18704,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18721,10 +18727,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18744,10 +18750,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18767,10 +18773,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18790,10 +18796,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18813,10 +18819,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18836,10 +18842,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18859,10 +18865,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18882,10 +18888,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18905,10 +18911,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18928,10 +18934,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18951,10 +18957,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18974,10 +18980,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -18997,10 +19003,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -19020,10 +19026,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19043,10 +19049,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19066,10 +19072,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19089,10 +19095,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19112,10 +19118,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19135,10 +19141,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19158,10 +19164,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19181,10 +19187,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19204,10 +19210,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19227,10 +19233,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19250,10 +19256,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19273,10 +19279,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19296,10 +19302,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19319,10 +19325,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19342,10 +19348,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1480</v>
+        <v>1199</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1481</v>
+        <v>1200</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19365,10 +19371,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1201</v>
+        <v>1480</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1202</v>
+        <v>1481</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19388,10 +19394,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19411,10 +19417,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19434,10 +19440,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>902</v>
+        <v>1206</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19457,10 +19463,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1209</v>
+        <v>902</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19480,10 +19486,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19503,10 +19509,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19526,10 +19532,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19549,10 +19555,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19572,10 +19578,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19595,10 +19601,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19618,10 +19624,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19641,10 +19647,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19664,10 +19670,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19687,10 +19693,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19710,10 +19716,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19733,10 +19739,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19756,10 +19762,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19779,10 +19785,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19802,10 +19808,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19825,10 +19831,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19848,10 +19854,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19871,10 +19877,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19894,10 +19900,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19917,10 +19923,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19940,10 +19946,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19963,10 +19969,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19986,10 +19992,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -20009,10 +20015,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1448</v>
+        <v>1254</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1449</v>
+        <v>1255</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20032,10 +20038,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1256</v>
+        <v>1448</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1257</v>
+        <v>1449</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20055,10 +20061,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20078,10 +20084,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20101,10 +20107,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20124,10 +20130,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20147,10 +20153,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20170,7 +20176,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B666" s="5" t="s">
         <v>186</v>
@@ -20193,7 +20199,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B667" s="5" t="s">
         <v>186</v>
@@ -20216,10 +20222,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20239,10 +20245,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20262,10 +20268,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20285,10 +20291,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20308,10 +20314,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20331,10 +20337,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20354,10 +20360,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20377,10 +20383,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1283</v>
+        <v>782</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20400,10 +20406,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20423,10 +20429,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20446,10 +20452,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20469,10 +20475,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20492,10 +20498,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20515,10 +20521,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20538,10 +20544,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20561,10 +20567,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20584,10 +20590,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20607,10 +20613,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20630,10 +20636,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20653,10 +20659,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20676,10 +20682,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20699,10 +20705,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20722,10 +20728,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20745,10 +20751,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20768,10 +20774,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20791,10 +20797,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20814,10 +20820,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20837,10 +20843,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20860,10 +20866,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1456</v>
+        <v>1322</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1457</v>
+        <v>1323</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>10</v>
@@ -20883,10 +20889,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1324</v>
+        <v>1456</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1325</v>
+        <v>1457</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>10</v>
@@ -20906,10 +20912,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1462</v>
+        <v>1324</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1463</v>
+        <v>1325</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>10</v>
@@ -20929,10 +20935,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>10</v>
@@ -20952,22 +20958,22 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E700" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F700" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G700" s="6" t="s">
         <v>14</v>
@@ -20975,22 +20981,22 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>186</v>
+        <v>1327</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>186</v>
+        <v>1329</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F701" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G701" s="6" t="s">
         <v>14</v>
@@ -20998,22 +21004,22 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1334</v>
+        <v>186</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E702" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G702" s="6" t="s">
         <v>14</v>
@@ -21021,10 +21027,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>1335</v>
@@ -21044,10 +21050,10 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>1335</v>
@@ -21067,10 +21073,10 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>1335</v>
@@ -21090,10 +21096,10 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>1335</v>
@@ -21113,10 +21119,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1335</v>
@@ -21136,22 +21142,22 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E708" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F708" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G708" s="6" t="s">
         <v>14</v>
@@ -21159,22 +21165,22 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>186</v>
+        <v>1347</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E709" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F709" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>14</v>
@@ -21182,19 +21188,19 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1350</v>
+        <v>186</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>1351</v>
+        <v>186</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>1352</v>
+        <v>186</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>1353</v>
+        <v>186</v>
       </c>
       <c r="F710" s="6" t="s">
         <v>1332</v>
@@ -21205,22 +21211,22 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E711" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F711" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>14</v>
@@ -21228,13 +21234,13 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>1328</v>
+        <v>1356</v>
       </c>
       <c r="D712" s="5" t="s">
         <v>1329</v>
@@ -21251,13 +21257,13 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D713" s="5" t="s">
         <v>1329</v>
@@ -21274,10 +21280,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21297,10 +21303,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>1356</v>
@@ -21320,10 +21326,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21343,10 +21349,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21366,10 +21372,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21389,10 +21395,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21412,10 +21418,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21435,10 +21441,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21458,10 +21464,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21481,10 +21487,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21504,10 +21510,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21527,10 +21533,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21550,10 +21556,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21573,10 +21579,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21596,10 +21602,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21619,10 +21625,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21642,10 +21648,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21665,10 +21671,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21688,10 +21694,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21711,10 +21717,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21734,10 +21740,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21757,10 +21763,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21780,10 +21786,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21803,10 +21809,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1356</v>
@@ -21826,10 +21832,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1356</v>
@@ -21849,10 +21855,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>1356</v>
@@ -21872,10 +21878,10 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>1356</v>
@@ -21895,16 +21901,16 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>12</v>
@@ -21918,10 +21924,10 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>1416</v>
@@ -21941,10 +21947,10 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>1416</v>
@@ -21964,22 +21970,22 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>186</v>
+        <v>1421</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E744" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F744" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G744" s="6" t="s">
         <v>14</v>
@@ -21987,22 +21993,22 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1424</v>
+        <v>186</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E745" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F745" s="6" t="s">
-        <v>13</v>
+        <v>1332</v>
       </c>
       <c r="G745" s="6" t="s">
         <v>14</v>
@@ -22010,22 +22016,22 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F746" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G746" s="6" t="s">
         <v>14</v>
@@ -22033,24 +22039,47 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E747" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F747" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G747" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B747" s="5" t="s">
+      <c r="B748" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C747" s="5" t="s">
+      <c r="C748" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D747" s="5" t="s">
+      <c r="D748" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E747" s="5" t="s">
+      <c r="E748" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F747" s="6" t="s">
+      <c r="F748" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G747" s="6" t="s">
+      <c r="G748" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexbot_v1.3\rexBot\EXCEL LIBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEV\rexBot\EXCEL LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="1489">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4477,7 +4477,19 @@
     <t>POLLY</t>
   </si>
   <si>
-    <t>Categorias Produto : 22-07-2020 09:23:43</t>
+    <t>Categorias Produto : 27-07-2020 09:43:23</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>MADS</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>SABÖVIK</t>
   </si>
 </sst>
 </file>
@@ -4608,8 +4620,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G748" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G748"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G750" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G750"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4886,7 +4898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G748"/>
+  <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -7181,10 +7193,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>171</v>
+        <v>1485</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>172</v>
+        <v>1486</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7204,10 +7216,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1464</v>
+        <v>171</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1465</v>
+        <v>172</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7227,10 +7239,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7250,10 +7262,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>173</v>
+        <v>1472</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>174</v>
+        <v>1473</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7273,10 +7285,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1467</v>
+        <v>174</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7296,10 +7308,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7319,10 +7331,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>175</v>
+        <v>1468</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>176</v>
+        <v>1469</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7342,10 +7354,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1471</v>
+        <v>176</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7365,10 +7377,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>177</v>
+        <v>1470</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>178</v>
+        <v>1471</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7388,10 +7400,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7411,10 +7423,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>181</v>
+        <v>1487</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>182</v>
+        <v>1488</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7434,10 +7446,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7457,10 +7469,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7480,10 +7492,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7503,10 +7515,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7526,10 +7538,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7549,10 +7561,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7572,10 +7584,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7595,10 +7607,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7618,10 +7630,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7641,10 +7653,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7664,10 +7676,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7687,10 +7699,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7710,10 +7722,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7733,10 +7745,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7756,10 +7768,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7779,10 +7791,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7802,10 +7814,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7825,10 +7837,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7848,10 +7860,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7871,10 +7883,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7894,10 +7906,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7917,10 +7929,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7940,10 +7952,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7963,10 +7975,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7986,10 +7998,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -8009,10 +8021,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8032,10 +8044,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8055,10 +8067,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8078,10 +8090,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8101,10 +8113,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8124,10 +8136,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8147,10 +8159,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8170,10 +8182,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8193,10 +8205,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8216,10 +8228,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8239,10 +8251,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8262,10 +8274,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8285,10 +8297,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8308,10 +8320,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8331,10 +8343,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8354,10 +8366,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8377,10 +8389,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8400,10 +8412,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8423,10 +8435,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8446,10 +8458,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8469,10 +8481,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8492,10 +8504,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8515,10 +8527,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8538,10 +8550,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8561,10 +8573,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8584,10 +8596,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8607,10 +8619,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8630,10 +8642,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8653,10 +8665,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8676,10 +8688,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8699,10 +8711,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8722,10 +8734,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8745,10 +8757,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8768,10 +8780,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8791,10 +8803,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8814,10 +8826,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8837,10 +8849,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8860,10 +8872,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8883,10 +8895,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8906,10 +8918,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8929,10 +8941,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8952,10 +8964,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8975,10 +8987,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -8998,10 +9010,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -9021,10 +9033,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9044,10 +9056,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9067,10 +9079,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9090,10 +9102,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9113,10 +9125,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9136,10 +9148,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9159,10 +9171,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9182,10 +9194,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9205,10 +9217,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9228,10 +9240,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9251,10 +9263,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9274,10 +9286,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9297,10 +9309,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9320,10 +9332,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9343,10 +9355,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9366,10 +9378,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9389,10 +9401,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9412,10 +9424,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9435,10 +9447,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9458,10 +9470,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9481,10 +9493,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9504,10 +9516,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9527,10 +9539,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9550,10 +9562,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9573,10 +9585,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9596,10 +9608,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9619,10 +9631,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9642,10 +9654,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9665,10 +9677,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9688,10 +9700,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9711,10 +9723,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9734,10 +9746,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9757,10 +9769,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9780,10 +9792,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9803,10 +9815,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9826,10 +9838,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9849,10 +9861,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9872,10 +9884,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9895,10 +9907,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9918,10 +9930,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9941,10 +9953,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9964,10 +9976,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9987,10 +9999,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -10010,10 +10022,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10033,10 +10045,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10056,10 +10068,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10079,10 +10091,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10102,10 +10114,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10125,10 +10137,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10148,10 +10160,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10171,10 +10183,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10194,10 +10206,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10217,10 +10229,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10240,10 +10252,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10263,10 +10275,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10286,10 +10298,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10309,10 +10321,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10332,10 +10344,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10355,10 +10367,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10378,10 +10390,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10401,10 +10413,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10424,10 +10436,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10447,10 +10459,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10470,10 +10482,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10493,10 +10505,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10516,10 +10528,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10539,10 +10551,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10562,10 +10574,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10585,10 +10597,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10608,10 +10620,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10631,10 +10643,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10654,10 +10666,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10677,10 +10689,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10700,10 +10712,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10723,10 +10735,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10746,10 +10758,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10769,10 +10781,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10792,10 +10804,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10815,10 +10827,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10838,10 +10850,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10861,10 +10873,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10884,10 +10896,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10907,10 +10919,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10930,10 +10942,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10953,10 +10965,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10976,10 +10988,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -10999,10 +11011,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -11022,10 +11034,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11045,10 +11057,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11068,10 +11080,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11091,10 +11103,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11114,10 +11126,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11137,10 +11149,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11160,10 +11172,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11183,10 +11195,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11206,10 +11218,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11229,10 +11241,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11252,10 +11264,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11275,10 +11287,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11298,10 +11310,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11321,10 +11333,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11344,10 +11356,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11367,10 +11379,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11390,10 +11402,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11413,10 +11425,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11436,10 +11448,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11459,10 +11471,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11482,10 +11494,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11505,10 +11517,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11528,10 +11540,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11551,10 +11563,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11574,10 +11586,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11597,10 +11609,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11620,10 +11632,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11643,10 +11655,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11666,10 +11678,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11689,10 +11701,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11712,10 +11724,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11735,10 +11747,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11758,10 +11770,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11781,10 +11793,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11804,10 +11816,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11827,10 +11839,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11850,10 +11862,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11873,10 +11885,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11896,10 +11908,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11919,10 +11931,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11942,10 +11954,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11965,10 +11977,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -11988,10 +12000,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -12011,10 +12023,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12034,10 +12046,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12057,10 +12069,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12080,10 +12092,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12103,10 +12115,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12126,10 +12138,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>591</v>
+        <v>372</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12149,10 +12161,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12172,10 +12184,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12195,10 +12207,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12218,10 +12230,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12241,10 +12253,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12264,10 +12276,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12287,10 +12299,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>462</v>
+        <v>601</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12310,10 +12322,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12333,10 +12345,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>608</v>
+        <v>462</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12356,10 +12368,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12379,10 +12391,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12402,10 +12414,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12425,10 +12437,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12448,10 +12460,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12471,10 +12483,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12494,10 +12506,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12517,10 +12529,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12540,10 +12552,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12563,10 +12575,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12586,10 +12598,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12609,10 +12621,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12632,10 +12644,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12655,10 +12667,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12678,10 +12690,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12701,10 +12713,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12724,10 +12736,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12747,10 +12759,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12770,10 +12782,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12793,10 +12805,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12816,10 +12828,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12839,10 +12851,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12862,10 +12874,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12885,10 +12897,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12908,10 +12920,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12931,10 +12943,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12954,10 +12966,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12977,10 +12989,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -13000,10 +13012,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -13023,10 +13035,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13046,10 +13058,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13069,10 +13081,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13092,10 +13104,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13115,10 +13127,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13138,10 +13150,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13161,10 +13173,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13184,10 +13196,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13207,10 +13219,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13230,10 +13242,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13253,10 +13265,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13276,10 +13288,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13299,10 +13311,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13322,10 +13334,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13345,10 +13357,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13368,10 +13380,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13391,10 +13403,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13414,10 +13426,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13437,10 +13449,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13460,10 +13472,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13483,10 +13495,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13506,10 +13518,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13529,10 +13541,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13552,10 +13564,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13575,10 +13587,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13598,10 +13610,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13621,10 +13633,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13644,10 +13656,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13667,10 +13679,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13690,10 +13702,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13713,10 +13725,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13736,10 +13748,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13759,10 +13771,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13782,10 +13794,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13805,10 +13817,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13828,10 +13840,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13851,10 +13863,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13874,10 +13886,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13897,10 +13909,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13920,10 +13932,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13943,10 +13955,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13966,10 +13978,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -13989,10 +14001,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -14012,10 +14024,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14035,10 +14047,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14058,10 +14070,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14081,10 +14093,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14104,10 +14116,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14127,10 +14139,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14150,10 +14162,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14173,10 +14185,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14196,10 +14208,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14219,10 +14231,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14242,10 +14254,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14265,10 +14277,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14288,10 +14300,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14311,10 +14323,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14334,10 +14346,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14357,10 +14369,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14380,10 +14392,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14403,10 +14415,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14426,10 +14438,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14449,10 +14461,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14472,10 +14484,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14495,10 +14507,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14518,10 +14530,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14541,10 +14553,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14564,10 +14576,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14587,10 +14599,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14610,10 +14622,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14633,10 +14645,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14656,10 +14668,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14679,10 +14691,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14702,10 +14714,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14725,10 +14737,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14748,10 +14760,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14771,10 +14783,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14794,10 +14806,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14817,10 +14829,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14840,10 +14852,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14863,10 +14875,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>186</v>
+        <v>824</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14886,10 +14898,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14909,10 +14921,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>831</v>
+        <v>186</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14932,10 +14944,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>632</v>
+        <v>829</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14955,10 +14967,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14978,10 +14990,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>836</v>
+        <v>632</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -15001,10 +15013,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15024,10 +15036,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15047,10 +15059,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15070,10 +15082,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15093,10 +15105,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15116,10 +15128,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15139,10 +15151,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15162,10 +15174,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15185,10 +15197,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15208,10 +15220,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15231,10 +15243,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15254,10 +15266,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15277,10 +15289,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15300,10 +15312,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15323,10 +15335,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15346,10 +15358,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>374</v>
+        <v>864</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15369,10 +15381,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15392,10 +15404,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15415,10 +15427,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15438,10 +15450,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>874</v>
+        <v>154</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15461,10 +15473,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15484,10 +15496,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15507,10 +15519,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15530,10 +15542,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15553,10 +15565,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15576,10 +15588,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>400</v>
+        <v>882</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15599,10 +15611,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15622,10 +15634,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15645,10 +15657,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15668,10 +15680,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15691,10 +15703,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15714,10 +15726,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15737,10 +15749,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>104</v>
+        <v>895</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15760,10 +15772,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15783,10 +15795,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>902</v>
+        <v>104</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15806,10 +15818,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15829,10 +15841,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15852,10 +15864,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15875,10 +15887,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15898,10 +15910,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15921,10 +15933,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15944,10 +15956,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15967,10 +15979,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -15990,10 +16002,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -16013,10 +16025,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16036,10 +16048,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16059,10 +16071,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16082,10 +16094,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16105,10 +16117,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16128,10 +16140,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16151,10 +16163,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16174,10 +16186,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16197,10 +16209,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16220,10 +16232,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16243,10 +16255,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16266,10 +16278,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16289,10 +16301,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16312,10 +16324,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16335,10 +16347,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16358,10 +16370,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16381,10 +16393,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16404,10 +16416,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16427,10 +16439,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16450,10 +16462,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16473,10 +16485,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16496,10 +16508,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16519,10 +16531,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16542,10 +16554,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16565,10 +16577,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16588,10 +16600,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16611,10 +16623,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16634,10 +16646,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16657,10 +16669,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16680,10 +16692,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16703,10 +16715,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16726,10 +16738,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16749,10 +16761,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16772,10 +16784,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16795,10 +16807,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16818,10 +16830,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16841,10 +16853,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>895</v>
+        <v>990</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16864,10 +16876,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16887,10 +16899,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>997</v>
+        <v>895</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16910,10 +16922,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16933,10 +16945,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16956,10 +16968,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16979,10 +16991,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -17002,10 +17014,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -17025,10 +17037,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17048,10 +17060,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17071,10 +17083,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>696</v>
+        <v>1009</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17094,10 +17106,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17117,10 +17129,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1016</v>
+        <v>696</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17140,10 +17152,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17163,10 +17175,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17186,10 +17198,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17209,10 +17221,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>692</v>
+        <v>1020</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17232,10 +17244,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17255,10 +17267,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1027</v>
+        <v>692</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17278,10 +17290,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17301,10 +17313,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17324,10 +17336,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17347,10 +17359,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17370,10 +17382,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17393,10 +17405,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1038</v>
+        <v>104</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17416,10 +17428,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17439,10 +17451,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17462,10 +17474,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17485,10 +17497,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17508,10 +17520,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17531,10 +17543,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17554,10 +17566,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>986</v>
+        <v>1048</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17577,10 +17589,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17600,10 +17612,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1055</v>
+        <v>986</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17623,10 +17635,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17646,10 +17658,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17669,10 +17681,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17692,10 +17704,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>986</v>
+        <v>1059</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17715,10 +17727,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17738,10 +17750,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1066</v>
+        <v>986</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17761,10 +17773,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17784,10 +17796,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17807,10 +17819,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>186</v>
+        <v>1068</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17830,10 +17842,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>100</v>
+        <v>1070</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17853,10 +17865,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17876,10 +17888,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1075</v>
+        <v>100</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17899,10 +17911,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1077</v>
+        <v>32</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17922,10 +17934,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17945,10 +17957,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17968,10 +17980,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>186</v>
+        <v>1079</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -17991,10 +18003,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1083</v>
+        <v>786</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -18014,10 +18026,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1085</v>
+        <v>186</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18037,10 +18049,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18060,10 +18072,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18083,10 +18095,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18106,10 +18118,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18129,10 +18141,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18152,10 +18164,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18175,10 +18187,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18198,10 +18210,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18221,10 +18233,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18244,10 +18256,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18267,10 +18279,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18290,10 +18302,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18313,10 +18325,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18336,10 +18348,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18359,10 +18371,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18382,10 +18394,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18405,10 +18417,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>891</v>
+        <v>1115</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18428,10 +18440,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18451,10 +18463,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1122</v>
+        <v>891</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18474,10 +18486,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18497,10 +18509,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18520,10 +18532,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18543,10 +18555,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18566,10 +18578,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18589,10 +18601,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18612,10 +18624,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18635,10 +18647,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18658,10 +18670,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18681,10 +18693,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18704,10 +18716,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18727,10 +18739,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18750,10 +18762,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18773,10 +18785,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18796,10 +18808,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18819,10 +18831,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18842,10 +18854,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18865,10 +18877,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18888,10 +18900,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18911,10 +18923,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18934,10 +18946,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18957,10 +18969,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18980,10 +18992,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -19003,10 +19015,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -19026,10 +19038,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19049,10 +19061,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19072,10 +19084,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19095,10 +19107,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19118,10 +19130,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19141,10 +19153,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19164,10 +19176,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19187,10 +19199,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19210,10 +19222,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19233,10 +19245,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19256,10 +19268,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19279,10 +19291,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19302,10 +19314,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19325,10 +19337,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19348,10 +19360,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19371,10 +19383,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1480</v>
+        <v>1197</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1481</v>
+        <v>1198</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19394,10 +19406,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19417,10 +19429,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1203</v>
+        <v>1480</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1204</v>
+        <v>1481</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19440,10 +19452,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19463,10 +19475,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>902</v>
+        <v>1204</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19486,10 +19498,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19509,10 +19521,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1211</v>
+        <v>902</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19532,10 +19544,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19555,10 +19567,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19578,10 +19590,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19601,10 +19613,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19624,10 +19636,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19647,10 +19659,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19670,10 +19682,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19693,10 +19705,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19716,10 +19728,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19739,10 +19751,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19762,10 +19774,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19785,10 +19797,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19808,10 +19820,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19831,10 +19843,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19854,10 +19866,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19877,10 +19889,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19900,10 +19912,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19923,10 +19935,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19946,10 +19958,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19969,10 +19981,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -19992,10 +20004,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -20015,10 +20027,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20038,10 +20050,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1448</v>
+        <v>1252</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1449</v>
+        <v>1253</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20061,10 +20073,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20084,10 +20096,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1258</v>
+        <v>1448</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1259</v>
+        <v>1449</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20107,10 +20119,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20130,10 +20142,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20153,10 +20165,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20176,10 +20188,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>186</v>
+        <v>1263</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20199,10 +20211,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20222,7 +20234,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B668" s="5" t="s">
         <v>186</v>
@@ -20245,10 +20257,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20268,10 +20280,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1272</v>
+        <v>186</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20291,10 +20303,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20314,10 +20326,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20337,10 +20349,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20360,10 +20372,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20383,10 +20395,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>782</v>
+        <v>1278</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20406,10 +20418,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20429,10 +20441,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1285</v>
+        <v>782</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20452,10 +20464,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20475,10 +20487,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20498,10 +20510,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20521,10 +20533,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20544,10 +20556,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20567,10 +20579,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20590,10 +20602,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20613,10 +20625,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20636,10 +20648,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20659,10 +20671,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20682,10 +20694,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20705,10 +20717,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20728,10 +20740,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20751,10 +20763,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20774,10 +20786,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20797,10 +20809,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20820,10 +20832,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20843,10 +20855,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20866,10 +20878,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>10</v>
@@ -20889,10 +20901,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1456</v>
+        <v>1320</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1457</v>
+        <v>1321</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>10</v>
@@ -20912,10 +20924,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>10</v>
@@ -20935,10 +20947,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>10</v>
@@ -20958,10 +20970,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1450</v>
+        <v>1324</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1451</v>
+        <v>1325</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>10</v>
@@ -20981,22 +20993,22 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1326</v>
+        <v>1462</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1327</v>
+        <v>1463</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E701" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F701" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G701" s="6" t="s">
         <v>14</v>
@@ -21004,22 +21016,22 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1331</v>
+        <v>1450</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>186</v>
+        <v>1451</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D702" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E702" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G702" s="6" t="s">
         <v>14</v>
@@ -21027,16 +21039,16 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>12</v>
@@ -21050,22 +21062,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1337</v>
+        <v>186</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21073,10 +21085,10 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>1335</v>
@@ -21096,10 +21108,10 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>1335</v>
@@ -21119,10 +21131,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1335</v>
@@ -21142,10 +21154,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1335</v>
@@ -21165,22 +21177,22 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E709" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F709" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>14</v>
@@ -21188,22 +21200,22 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>186</v>
+        <v>1345</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F710" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>14</v>
@@ -21211,22 +21223,22 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>1351</v>
+        <v>10</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>1352</v>
+        <v>11</v>
       </c>
       <c r="E711" s="5" t="s">
-        <v>1353</v>
+        <v>12</v>
       </c>
       <c r="F711" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>14</v>
@@ -21234,22 +21246,22 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1355</v>
+        <v>186</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>1356</v>
+        <v>186</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F712" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>14</v>
@@ -21257,22 +21269,22 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>1328</v>
+        <v>1351</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F713" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G713" s="6" t="s">
         <v>14</v>
@@ -21280,10 +21292,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>1356</v>
@@ -21303,13 +21315,13 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D715" s="5" t="s">
         <v>1329</v>
@@ -21326,10 +21338,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C716" s="5" t="s">
         <v>1356</v>
@@ -21349,10 +21361,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21372,10 +21384,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21395,10 +21407,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21418,10 +21430,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21441,10 +21453,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21464,10 +21476,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21487,10 +21499,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21510,10 +21522,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21533,10 +21545,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21556,10 +21568,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21579,10 +21591,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21602,10 +21614,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21625,10 +21637,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21648,10 +21660,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21671,10 +21683,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1339</v>
+        <v>1390</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21694,10 +21706,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21717,10 +21729,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1397</v>
+        <v>1339</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21740,10 +21752,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21763,10 +21775,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21786,10 +21798,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21809,10 +21821,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1356</v>
@@ -21832,10 +21844,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1356</v>
@@ -21855,10 +21867,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>1356</v>
@@ -21878,10 +21890,10 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>1356</v>
@@ -21901,10 +21913,10 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C741" s="5" t="s">
         <v>1356</v>
@@ -21924,16 +21936,16 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>12</v>
@@ -21947,16 +21959,16 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>12</v>
@@ -21970,10 +21982,10 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>1416</v>
@@ -21993,22 +22005,22 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>186</v>
+        <v>1419</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E745" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F745" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G745" s="6" t="s">
         <v>14</v>
@@ -22016,22 +22028,22 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>10</v>
+        <v>1416</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>11</v>
+        <v>1417</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F746" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G746" s="6" t="s">
         <v>14</v>
@@ -22039,22 +22051,22 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>1426</v>
+        <v>186</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>1328</v>
+        <v>186</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E747" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F747" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G747" s="6" t="s">
         <v>14</v>
@@ -22062,24 +22074,70 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D748" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E748" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F748" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G748" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E749" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F749" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G749" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B748" s="5" t="s">
+      <c r="B750" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C748" s="5" t="s">
+      <c r="C750" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D748" s="5" t="s">
+      <c r="D750" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E748" s="5" t="s">
+      <c r="E750" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F748" s="6" t="s">
+      <c r="F750" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G748" s="6" t="s">
+      <c r="G750" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1491">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4477,9 +4477,6 @@
     <t>POLLY</t>
   </si>
   <si>
-    <t>Categorias Produto : 27-07-2020 09:43:23</t>
-  </si>
-  <si>
     <t>1056</t>
   </si>
   <si>
@@ -4490,6 +4487,15 @@
   </si>
   <si>
     <t>SABÖVIK</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 30-07-2020 09:24:02</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHAN </t>
   </si>
 </sst>
 </file>
@@ -4620,8 +4626,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G750" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G750"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G751" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G751"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4898,7 +4904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G750"/>
+  <dimension ref="A1:G751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4928,7 +4934,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7147,10 +7153,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7170,10 +7176,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -7193,10 +7199,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>10</v>
@@ -7216,10 +7222,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>171</v>
+        <v>1484</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>172</v>
+        <v>1485</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>10</v>
@@ -7239,10 +7245,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>1464</v>
+        <v>171</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1465</v>
+        <v>172</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -7262,10 +7268,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>10</v>
@@ -7285,10 +7291,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>173</v>
+        <v>1472</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>174</v>
+        <v>1473</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>10</v>
@@ -7308,10 +7314,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1467</v>
+        <v>174</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>10</v>
@@ -7331,10 +7337,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -7354,10 +7360,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>175</v>
+        <v>1468</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>176</v>
+        <v>1469</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>10</v>
@@ -7377,10 +7383,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1471</v>
+        <v>176</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>10</v>
@@ -7400,10 +7406,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>177</v>
+        <v>1470</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>178</v>
+        <v>1471</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>10</v>
@@ -7423,10 +7429,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>1487</v>
+        <v>177</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1488</v>
+        <v>178</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -7446,10 +7452,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>179</v>
+        <v>1486</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>180</v>
+        <v>1487</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>10</v>
@@ -7469,10 +7475,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7492,10 +7498,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7515,10 +7521,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7538,10 +7544,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7561,10 +7567,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7607,10 +7613,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7630,10 +7636,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7653,10 +7659,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7676,10 +7682,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7699,10 +7705,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7722,10 +7728,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7745,10 +7751,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7768,10 +7774,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7791,10 +7797,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7814,10 +7820,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7837,10 +7843,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7860,10 +7866,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7883,10 +7889,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7906,10 +7912,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7929,10 +7935,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7952,10 +7958,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7975,10 +7981,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -7998,10 +8004,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -8021,10 +8027,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8044,10 +8050,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8067,10 +8073,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8090,10 +8096,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8113,10 +8119,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8136,10 +8142,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8159,10 +8165,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8182,10 +8188,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8205,10 +8211,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8228,10 +8234,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8251,10 +8257,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8274,10 +8280,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8297,10 +8303,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8320,10 +8326,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8343,10 +8349,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8366,10 +8372,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8389,10 +8395,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8412,10 +8418,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8435,10 +8441,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8458,10 +8464,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8481,10 +8487,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8504,10 +8510,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8527,10 +8533,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8550,10 +8556,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8573,10 +8579,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8596,10 +8602,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8619,10 +8625,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8642,10 +8648,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8665,10 +8671,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8688,10 +8694,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8711,10 +8717,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8734,10 +8740,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8757,10 +8763,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8780,10 +8786,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8803,10 +8809,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8826,10 +8832,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8849,10 +8855,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8872,10 +8878,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8895,10 +8901,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8918,10 +8924,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8941,10 +8947,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8964,10 +8970,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8987,10 +8993,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -9010,10 +9016,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -9033,10 +9039,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9056,10 +9062,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9079,10 +9085,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9102,10 +9108,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9125,10 +9131,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9148,10 +9154,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9171,10 +9177,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9194,10 +9200,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9217,10 +9223,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9240,10 +9246,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9263,10 +9269,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9286,10 +9292,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9309,10 +9315,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9332,10 +9338,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9355,10 +9361,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9378,10 +9384,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9401,10 +9407,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9424,10 +9430,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9447,10 +9453,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9470,10 +9476,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9493,10 +9499,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9516,10 +9522,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9539,10 +9545,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9562,10 +9568,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9585,10 +9591,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9608,10 +9614,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9631,10 +9637,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9654,10 +9660,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9677,10 +9683,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9700,10 +9706,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9723,10 +9729,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9746,10 +9752,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9769,10 +9775,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9792,10 +9798,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9815,10 +9821,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9838,10 +9844,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9861,10 +9867,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9884,10 +9890,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9907,10 +9913,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9930,10 +9936,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9953,10 +9959,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9976,10 +9982,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -9999,10 +10005,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -10022,10 +10028,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10045,10 +10051,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10068,10 +10074,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10091,10 +10097,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10114,10 +10120,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10137,10 +10143,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10160,10 +10166,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10183,10 +10189,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10206,10 +10212,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10229,10 +10235,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10252,10 +10258,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10275,10 +10281,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10298,10 +10304,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10321,10 +10327,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10344,10 +10350,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10367,10 +10373,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10390,10 +10396,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10413,10 +10419,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10436,10 +10442,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10459,10 +10465,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10482,10 +10488,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10505,10 +10511,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10528,10 +10534,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10551,10 +10557,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10574,10 +10580,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10597,10 +10603,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10620,10 +10626,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10643,10 +10649,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10666,10 +10672,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10689,10 +10695,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10712,10 +10718,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10735,10 +10741,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10758,10 +10764,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10781,10 +10787,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10804,10 +10810,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10827,10 +10833,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10850,10 +10856,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10873,10 +10879,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10896,10 +10902,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10919,10 +10925,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10942,10 +10948,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10965,10 +10971,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10988,10 +10994,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -11011,10 +11017,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -11034,10 +11040,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11057,10 +11063,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11080,10 +11086,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11103,10 +11109,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11126,10 +11132,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11149,10 +11155,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11172,10 +11178,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11195,10 +11201,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11218,10 +11224,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11241,10 +11247,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11264,10 +11270,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11287,10 +11293,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11310,10 +11316,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11333,10 +11339,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11356,10 +11362,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11379,10 +11385,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11402,10 +11408,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11425,10 +11431,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11448,10 +11454,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11471,10 +11477,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11494,10 +11500,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11517,10 +11523,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11540,10 +11546,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11563,10 +11569,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11586,10 +11592,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11609,10 +11615,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11632,10 +11638,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11655,10 +11661,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11678,10 +11684,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11701,10 +11707,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11724,10 +11730,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11747,10 +11753,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11770,10 +11776,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11793,10 +11799,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11816,10 +11822,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11839,10 +11845,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11862,10 +11868,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11885,10 +11891,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11908,10 +11914,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11931,10 +11937,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11954,10 +11960,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11977,10 +11983,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -12000,10 +12006,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -12023,10 +12029,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12046,10 +12052,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12069,10 +12075,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12092,10 +12098,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12115,10 +12121,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12138,10 +12144,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12161,10 +12167,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12184,10 +12190,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12207,10 +12213,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12230,10 +12236,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12253,10 +12259,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12276,10 +12282,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12299,10 +12305,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12322,10 +12328,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12345,10 +12351,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12368,10 +12374,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12391,10 +12397,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12414,10 +12420,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12437,10 +12443,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12460,10 +12466,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12483,10 +12489,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12506,10 +12512,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12529,10 +12535,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12552,10 +12558,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12575,10 +12581,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12598,10 +12604,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12621,10 +12627,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12644,10 +12650,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12667,10 +12673,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12690,10 +12696,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12713,10 +12719,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12736,10 +12742,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12759,10 +12765,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12782,10 +12788,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12805,10 +12811,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12828,10 +12834,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12851,10 +12857,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12874,10 +12880,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12897,10 +12903,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12920,10 +12926,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12943,10 +12949,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12966,10 +12972,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12989,10 +12995,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -13012,10 +13018,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -13035,10 +13041,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13058,10 +13064,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13081,10 +13087,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13104,10 +13110,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13127,10 +13133,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13150,10 +13156,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13173,10 +13179,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13196,10 +13202,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13219,10 +13225,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13242,10 +13248,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13265,10 +13271,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13288,10 +13294,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13311,10 +13317,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13334,10 +13340,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13357,10 +13363,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13380,10 +13386,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13403,10 +13409,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13426,10 +13432,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13449,10 +13455,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13472,10 +13478,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13495,10 +13501,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13518,10 +13524,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13541,10 +13547,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13564,10 +13570,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13587,10 +13593,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13610,10 +13616,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13633,10 +13639,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13656,10 +13662,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13679,10 +13685,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13702,10 +13708,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13725,10 +13731,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13748,10 +13754,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13771,10 +13777,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13794,10 +13800,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13817,10 +13823,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13840,10 +13846,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13863,10 +13869,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13886,10 +13892,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13909,10 +13915,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13932,10 +13938,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13955,10 +13961,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13978,10 +13984,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -14001,10 +14007,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -14024,10 +14030,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14047,10 +14053,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14070,10 +14076,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14093,10 +14099,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14116,10 +14122,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14139,10 +14145,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14162,10 +14168,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14185,10 +14191,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14208,10 +14214,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14231,10 +14237,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14254,10 +14260,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14277,10 +14283,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14300,10 +14306,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14323,10 +14329,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14346,10 +14352,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14369,10 +14375,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14392,10 +14398,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14415,10 +14421,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14438,10 +14444,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14461,10 +14467,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14484,10 +14490,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14507,10 +14513,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14530,10 +14536,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14553,10 +14559,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14576,10 +14582,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14599,10 +14605,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14622,10 +14628,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14645,10 +14651,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14668,10 +14674,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14691,10 +14697,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14714,10 +14720,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14737,10 +14743,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14760,10 +14766,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14783,10 +14789,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14806,10 +14812,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14829,10 +14835,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14852,10 +14858,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14875,10 +14881,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14898,10 +14904,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14921,10 +14927,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14944,10 +14950,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14967,10 +14973,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14990,10 +14996,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -15013,10 +15019,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15036,10 +15042,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15059,10 +15065,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15082,10 +15088,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15105,10 +15111,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15128,10 +15134,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15151,10 +15157,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15174,10 +15180,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15197,10 +15203,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15220,10 +15226,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15243,10 +15249,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15266,10 +15272,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15289,10 +15295,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15312,10 +15318,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15335,10 +15341,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15358,10 +15364,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15381,10 +15387,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15404,10 +15410,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15427,10 +15433,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15450,10 +15456,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15473,10 +15479,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15496,10 +15502,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15519,10 +15525,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15542,10 +15548,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15565,10 +15571,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15588,10 +15594,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15611,10 +15617,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15634,10 +15640,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>400</v>
+        <v>884</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15657,10 +15663,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>887</v>
+        <v>400</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15680,10 +15686,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15703,10 +15709,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15726,10 +15732,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15749,10 +15755,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15772,10 +15778,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15795,10 +15801,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>104</v>
+        <v>897</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15818,10 +15824,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>900</v>
+        <v>104</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15841,10 +15847,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15864,10 +15870,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15887,10 +15893,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15910,10 +15916,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15933,10 +15939,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15956,10 +15962,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15979,10 +15985,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -16002,10 +16008,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -16025,10 +16031,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16048,10 +16054,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16071,10 +16077,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16094,10 +16100,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16117,10 +16123,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16140,10 +16146,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16163,10 +16169,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16186,10 +16192,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16209,10 +16215,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16232,10 +16238,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16255,10 +16261,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16278,10 +16284,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16301,10 +16307,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16324,10 +16330,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16347,10 +16353,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16370,10 +16376,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16393,10 +16399,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16416,10 +16422,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16439,10 +16445,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16462,10 +16468,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16485,10 +16491,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16508,10 +16514,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16531,10 +16537,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16554,10 +16560,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16577,10 +16583,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16600,10 +16606,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16623,10 +16629,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16646,10 +16652,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16669,10 +16675,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16692,10 +16698,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16715,10 +16721,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16738,10 +16744,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16761,10 +16767,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16784,10 +16790,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16807,10 +16813,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16830,10 +16836,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16853,10 +16859,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16876,10 +16882,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16899,10 +16905,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>895</v>
+        <v>992</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16922,10 +16928,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16945,10 +16951,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16968,10 +16974,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16991,10 +16997,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -17014,10 +17020,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -17037,10 +17043,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17060,10 +17066,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17083,10 +17089,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17106,10 +17112,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17129,10 +17135,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>696</v>
+        <v>1011</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17152,10 +17158,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1014</v>
+        <v>696</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17175,10 +17181,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17198,10 +17204,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17221,10 +17227,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17244,10 +17250,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17267,10 +17273,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>692</v>
+        <v>1022</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17290,10 +17296,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1025</v>
+        <v>692</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17313,10 +17319,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17336,10 +17342,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17359,10 +17365,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17382,10 +17388,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17405,10 +17411,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17428,10 +17434,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1036</v>
+        <v>104</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17451,10 +17457,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17474,10 +17480,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17497,10 +17503,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17520,10 +17526,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17543,10 +17549,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17566,10 +17572,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17589,10 +17595,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17612,10 +17618,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17635,10 +17641,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1053</v>
+        <v>986</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17658,10 +17664,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17681,10 +17687,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17704,10 +17710,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17727,10 +17733,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17750,10 +17756,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17773,10 +17779,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1064</v>
+        <v>986</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17796,10 +17802,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17819,10 +17825,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17842,10 +17848,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17865,10 +17871,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>186</v>
+        <v>1070</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17888,10 +17894,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17911,10 +17917,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17934,10 +17940,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1075</v>
+        <v>32</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17957,10 +17963,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17980,10 +17986,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -18003,10 +18009,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -18026,10 +18032,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>186</v>
+        <v>786</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18049,10 +18055,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1083</v>
+        <v>186</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18072,10 +18078,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18095,10 +18101,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18118,10 +18124,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18141,10 +18147,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18164,10 +18170,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18187,10 +18193,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18210,10 +18216,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18233,10 +18239,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18256,10 +18262,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18279,10 +18285,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18302,10 +18308,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18325,10 +18331,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18348,10 +18354,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18371,10 +18377,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18394,10 +18400,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18417,10 +18423,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18440,10 +18446,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18463,10 +18469,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>891</v>
+        <v>1117</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18486,10 +18492,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1120</v>
+        <v>891</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18509,10 +18515,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18532,10 +18538,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18555,10 +18561,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18578,10 +18584,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18601,10 +18607,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18624,10 +18630,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18647,10 +18653,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18670,10 +18676,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18693,10 +18699,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18716,10 +18722,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18739,10 +18745,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18762,10 +18768,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18785,10 +18791,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18808,10 +18814,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18831,10 +18837,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18854,10 +18860,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18877,10 +18883,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18900,10 +18906,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18923,10 +18929,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18946,10 +18952,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18969,10 +18975,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18992,10 +18998,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -19015,10 +19021,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -19038,10 +19044,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19061,10 +19067,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19084,10 +19090,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19107,10 +19113,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19130,10 +19136,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19153,10 +19159,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19176,10 +19182,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19199,10 +19205,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19222,10 +19228,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19245,10 +19251,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19268,10 +19274,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19291,10 +19297,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19314,10 +19320,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19337,10 +19343,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19360,10 +19366,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19383,10 +19389,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19406,10 +19412,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19429,10 +19435,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1480</v>
+        <v>1199</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1481</v>
+        <v>1200</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19452,10 +19458,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1201</v>
+        <v>1480</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1202</v>
+        <v>1481</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19475,10 +19481,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19498,10 +19504,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19521,10 +19527,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>902</v>
+        <v>1206</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19544,10 +19550,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1209</v>
+        <v>902</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19567,10 +19573,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19590,10 +19596,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19613,10 +19619,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19636,10 +19642,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19659,10 +19665,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19682,10 +19688,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19705,10 +19711,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19728,10 +19734,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19751,10 +19757,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19774,10 +19780,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19797,10 +19803,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19820,10 +19826,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19843,10 +19849,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19866,10 +19872,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19889,10 +19895,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19912,10 +19918,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19935,10 +19941,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19958,10 +19964,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19981,10 +19987,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -20004,10 +20010,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -20027,10 +20033,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20050,10 +20056,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20073,10 +20079,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20096,10 +20102,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1448</v>
+        <v>1254</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1449</v>
+        <v>1255</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20119,10 +20125,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1256</v>
+        <v>1448</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1257</v>
+        <v>1449</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20142,10 +20148,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20165,10 +20171,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20188,10 +20194,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20211,10 +20217,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20234,10 +20240,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20257,7 +20263,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B669" s="5" t="s">
         <v>186</v>
@@ -20280,7 +20286,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B670" s="5" t="s">
         <v>186</v>
@@ -20303,10 +20309,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>10</v>
@@ -20326,10 +20332,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20349,10 +20355,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20372,10 +20378,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20395,10 +20401,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20418,10 +20424,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20441,10 +20447,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20464,10 +20470,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1283</v>
+        <v>782</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20487,10 +20493,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20510,10 +20516,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20533,10 +20539,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20556,10 +20562,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20579,10 +20585,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20602,10 +20608,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20625,10 +20631,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20648,10 +20654,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20671,10 +20677,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20694,10 +20700,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20717,10 +20723,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20740,10 +20746,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20763,10 +20769,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20786,10 +20792,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20809,10 +20815,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20832,10 +20838,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20855,10 +20861,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20878,10 +20884,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>10</v>
@@ -20901,10 +20907,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>10</v>
@@ -20924,10 +20930,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>10</v>
@@ -20947,10 +20953,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1456</v>
+        <v>1322</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1457</v>
+        <v>1323</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>10</v>
@@ -20970,10 +20976,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1324</v>
+        <v>1456</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1325</v>
+        <v>1457</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>10</v>
@@ -20993,10 +20999,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1462</v>
+        <v>1324</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1463</v>
+        <v>1325</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>10</v>
@@ -21016,10 +21022,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>10</v>
@@ -21039,22 +21045,22 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F703" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G703" s="6" t="s">
         <v>14</v>
@@ -21062,22 +21068,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>186</v>
+        <v>1327</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>186</v>
+        <v>1329</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21085,22 +21091,22 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1334</v>
+        <v>186</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F705" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G705" s="6" t="s">
         <v>14</v>
@@ -21108,10 +21114,10 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>1335</v>
@@ -21131,10 +21137,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1335</v>
@@ -21154,10 +21160,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1335</v>
@@ -21177,10 +21183,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1335</v>
@@ -21200,10 +21206,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1335</v>
@@ -21223,22 +21229,22 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E711" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F711" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>14</v>
@@ -21246,22 +21252,22 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>186</v>
+        <v>1347</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F712" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>14</v>
@@ -21269,19 +21275,19 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1350</v>
+        <v>186</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>1351</v>
+        <v>186</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>1352</v>
+        <v>186</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>1353</v>
+        <v>186</v>
       </c>
       <c r="F713" s="6" t="s">
         <v>1332</v>
@@ -21292,22 +21298,22 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E714" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F714" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G714" s="6" t="s">
         <v>14</v>
@@ -21315,13 +21321,13 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>1328</v>
+        <v>1356</v>
       </c>
       <c r="D715" s="5" t="s">
         <v>1329</v>
@@ -21338,13 +21344,13 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D716" s="5" t="s">
         <v>1329</v>
@@ -21361,10 +21367,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21384,10 +21390,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>1356</v>
@@ -21407,10 +21413,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21430,10 +21436,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21453,10 +21459,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21476,10 +21482,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21499,10 +21505,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21522,10 +21528,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21545,10 +21551,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21568,10 +21574,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21591,10 +21597,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21614,10 +21620,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21637,10 +21643,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21660,10 +21666,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21683,10 +21689,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21706,10 +21712,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21729,10 +21735,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1339</v>
+        <v>1392</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21752,10 +21758,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21775,10 +21781,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21798,10 +21804,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21821,10 +21827,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1356</v>
@@ -21844,10 +21850,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1356</v>
@@ -21867,10 +21873,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>1356</v>
@@ -21890,10 +21896,10 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>1356</v>
@@ -21913,10 +21919,10 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C741" s="5" t="s">
         <v>1356</v>
@@ -21936,10 +21942,10 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>1356</v>
@@ -21959,10 +21965,10 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>1356</v>
@@ -21982,16 +21988,16 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E744" s="5" t="s">
         <v>12</v>
@@ -22005,10 +22011,10 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>1416</v>
@@ -22028,10 +22034,10 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C746" s="5" t="s">
         <v>1416</v>
@@ -22051,22 +22057,22 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>186</v>
+        <v>1421</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E747" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F747" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G747" s="6" t="s">
         <v>14</v>
@@ -22074,22 +22080,22 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>1424</v>
+        <v>186</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="E748" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F748" s="6" t="s">
-        <v>13</v>
+        <v>1332</v>
       </c>
       <c r="G748" s="6" t="s">
         <v>14</v>
@@ -22097,22 +22103,22 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F749" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G749" s="6" t="s">
         <v>14</v>
@@ -22120,24 +22126,47 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E750" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F750" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G750" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B750" s="5" t="s">
+      <c r="B751" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C750" s="5" t="s">
+      <c r="C751" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D750" s="5" t="s">
+      <c r="D751" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E750" s="5" t="s">
+      <c r="E751" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F750" s="6" t="s">
+      <c r="F751" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G750" s="6" t="s">
+      <c r="G751" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1495">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4489,13 +4489,25 @@
     <t>SABÖVIK</t>
   </si>
   <si>
-    <t>Categorias Produto : 30-07-2020 09:24:02</t>
-  </si>
-  <si>
     <t>1052</t>
   </si>
   <si>
     <t xml:space="preserve">MEGHAN </t>
+  </si>
+  <si>
+    <t>Categorias Produto : 03-08-2020 09:33:12</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>VADHEIM</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>TUFJORD</t>
   </si>
 </sst>
 </file>
@@ -4626,8 +4638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G751" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G751"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G753" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G753"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4904,7 +4916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G751"/>
+  <dimension ref="A1:G753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4934,7 +4946,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7153,10 +7165,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1490</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -7475,10 +7487,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>179</v>
+        <v>1491</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>180</v>
+        <v>1492</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7498,10 +7510,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>181</v>
+        <v>1493</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>182</v>
+        <v>1494</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7521,10 +7533,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7544,10 +7556,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7567,10 +7579,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7590,10 +7602,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7613,10 +7625,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7636,10 +7648,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7659,10 +7671,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7682,10 +7694,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7705,10 +7717,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7728,10 +7740,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7751,10 +7763,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7774,10 +7786,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7797,10 +7809,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7820,10 +7832,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7843,10 +7855,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7866,10 +7878,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7889,10 +7901,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7912,10 +7924,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7935,10 +7947,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7958,10 +7970,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7981,10 +7993,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -8004,10 +8016,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -8027,10 +8039,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8050,10 +8062,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8073,10 +8085,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8096,10 +8108,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8119,10 +8131,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8142,10 +8154,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8165,10 +8177,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8188,10 +8200,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8211,10 +8223,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8234,10 +8246,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8257,10 +8269,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8280,10 +8292,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8303,10 +8315,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8326,10 +8338,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8349,10 +8361,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8372,10 +8384,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8395,10 +8407,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8418,10 +8430,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8441,10 +8453,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8464,10 +8476,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8487,10 +8499,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8510,10 +8522,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8533,10 +8545,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8556,10 +8568,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8579,10 +8591,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8602,10 +8614,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8625,10 +8637,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8648,10 +8660,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8671,10 +8683,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8694,10 +8706,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8717,10 +8729,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8740,10 +8752,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8763,10 +8775,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8786,10 +8798,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8809,10 +8821,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8832,10 +8844,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8855,10 +8867,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8878,10 +8890,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8901,10 +8913,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8924,10 +8936,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8947,10 +8959,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8970,10 +8982,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -8993,10 +9005,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -9016,10 +9028,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -9039,10 +9051,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9062,10 +9074,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9085,10 +9097,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9108,10 +9120,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9131,10 +9143,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9154,10 +9166,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9177,10 +9189,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9200,10 +9212,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9223,10 +9235,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9246,10 +9258,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9269,10 +9281,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9292,10 +9304,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9315,10 +9327,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9338,10 +9350,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9361,10 +9373,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9384,10 +9396,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9407,10 +9419,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9430,10 +9442,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9453,10 +9465,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9476,10 +9488,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9499,10 +9511,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9522,10 +9534,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9545,10 +9557,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9568,10 +9580,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9591,10 +9603,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9614,10 +9626,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9637,10 +9649,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9660,10 +9672,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9683,10 +9695,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9706,10 +9718,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9729,10 +9741,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9752,10 +9764,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9775,10 +9787,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9798,10 +9810,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9821,10 +9833,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9844,10 +9856,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9867,10 +9879,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9890,10 +9902,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9913,10 +9925,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9936,10 +9948,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9959,10 +9971,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9982,10 +9994,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -10005,10 +10017,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -10028,10 +10040,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10051,10 +10063,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10074,10 +10086,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10097,10 +10109,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10120,10 +10132,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10143,10 +10155,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10166,10 +10178,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10189,10 +10201,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10212,10 +10224,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10235,10 +10247,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10258,10 +10270,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10281,10 +10293,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10304,10 +10316,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10327,10 +10339,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10350,10 +10362,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10373,10 +10385,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10396,10 +10408,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10419,10 +10431,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10442,10 +10454,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10465,10 +10477,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10488,10 +10500,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10511,10 +10523,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10534,10 +10546,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10557,10 +10569,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10580,10 +10592,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10603,10 +10615,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10626,10 +10638,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10649,10 +10661,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10672,10 +10684,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10695,10 +10707,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10718,10 +10730,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10741,10 +10753,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10764,10 +10776,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10787,10 +10799,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10810,10 +10822,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10833,10 +10845,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10856,10 +10868,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10879,10 +10891,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10902,10 +10914,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10925,10 +10937,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10948,10 +10960,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10971,10 +10983,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -10994,10 +11006,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -11017,10 +11029,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -11040,10 +11052,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11063,10 +11075,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11086,10 +11098,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11109,10 +11121,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11132,10 +11144,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11155,10 +11167,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11178,10 +11190,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11201,10 +11213,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11224,10 +11236,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11247,10 +11259,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11270,10 +11282,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11293,10 +11305,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11316,10 +11328,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11339,10 +11351,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11362,10 +11374,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11385,10 +11397,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11408,10 +11420,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11431,10 +11443,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11454,10 +11466,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11477,10 +11489,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11500,10 +11512,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11523,10 +11535,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11546,10 +11558,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11569,10 +11581,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11592,10 +11604,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11615,10 +11627,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11638,10 +11650,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11661,10 +11673,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11684,10 +11696,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11707,10 +11719,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11730,10 +11742,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11753,10 +11765,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11776,10 +11788,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11799,10 +11811,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11822,10 +11834,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11845,10 +11857,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11868,10 +11880,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11891,10 +11903,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11914,10 +11926,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11937,10 +11949,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11960,10 +11972,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11983,10 +11995,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -12006,10 +12018,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -12029,10 +12041,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12052,10 +12064,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12075,10 +12087,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12098,10 +12110,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12121,10 +12133,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12144,10 +12156,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12167,10 +12179,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12190,10 +12202,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12213,10 +12225,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>591</v>
+        <v>372</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12236,10 +12248,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12259,10 +12271,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12282,10 +12294,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12305,10 +12317,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12328,10 +12340,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12351,10 +12363,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12374,10 +12386,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>462</v>
+        <v>601</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12397,10 +12409,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12420,10 +12432,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>608</v>
+        <v>462</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12443,10 +12455,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12466,10 +12478,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12489,10 +12501,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12512,10 +12524,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12535,10 +12547,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12558,10 +12570,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12581,10 +12593,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12604,10 +12616,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12627,10 +12639,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12650,10 +12662,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12673,10 +12685,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12696,10 +12708,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12719,10 +12731,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12742,10 +12754,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12765,10 +12777,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12788,10 +12800,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12811,10 +12823,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12834,10 +12846,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12857,10 +12869,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12880,10 +12892,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12903,10 +12915,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12926,10 +12938,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12949,10 +12961,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12972,10 +12984,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -12995,10 +13007,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -13018,10 +13030,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -13041,10 +13053,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13064,10 +13076,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13087,10 +13099,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13110,10 +13122,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13133,10 +13145,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13156,10 +13168,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13179,10 +13191,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13202,10 +13214,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13225,10 +13237,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13248,10 +13260,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13271,10 +13283,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13294,10 +13306,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13317,10 +13329,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13340,10 +13352,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13363,10 +13375,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13386,10 +13398,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13409,10 +13421,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13432,10 +13444,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13455,10 +13467,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13478,10 +13490,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13501,10 +13513,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13524,10 +13536,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13547,10 +13559,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13570,10 +13582,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13593,10 +13605,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13616,10 +13628,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13639,10 +13651,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13662,10 +13674,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13685,10 +13697,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13708,10 +13720,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13731,10 +13743,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13754,10 +13766,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13777,10 +13789,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13800,10 +13812,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13823,10 +13835,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13846,10 +13858,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13869,10 +13881,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13892,10 +13904,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13915,10 +13927,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13938,10 +13950,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13961,10 +13973,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13984,10 +13996,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -14007,10 +14019,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -14030,10 +14042,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14053,10 +14065,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14076,10 +14088,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14099,10 +14111,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14122,10 +14134,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14145,10 +14157,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14168,10 +14180,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14191,10 +14203,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14214,10 +14226,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14237,10 +14249,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14260,10 +14272,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14283,10 +14295,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14306,10 +14318,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14329,10 +14341,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14352,10 +14364,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14375,10 +14387,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14398,10 +14410,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14421,10 +14433,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14444,10 +14456,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14467,10 +14479,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14490,10 +14502,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14513,10 +14525,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14536,10 +14548,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14559,10 +14571,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14582,10 +14594,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14605,10 +14617,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14628,10 +14640,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14651,10 +14663,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14674,10 +14686,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14697,10 +14709,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14720,10 +14732,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14743,10 +14755,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14766,10 +14778,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14789,10 +14801,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14812,10 +14824,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14835,10 +14847,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14858,10 +14870,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14881,10 +14893,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14904,10 +14916,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14927,10 +14939,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14950,10 +14962,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>186</v>
+        <v>824</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14973,10 +14985,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -14996,10 +15008,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>831</v>
+        <v>186</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -15019,10 +15031,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>632</v>
+        <v>829</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15042,10 +15054,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15065,10 +15077,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>836</v>
+        <v>632</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15088,10 +15100,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15111,10 +15123,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15134,10 +15146,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15157,10 +15169,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15180,10 +15192,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15203,10 +15215,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15226,10 +15238,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15249,10 +15261,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15272,10 +15284,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15295,10 +15307,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15318,10 +15330,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15341,10 +15353,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15364,10 +15376,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15387,10 +15399,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15410,10 +15422,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15433,10 +15445,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>374</v>
+        <v>864</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15456,10 +15468,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15479,10 +15491,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15502,10 +15514,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15525,10 +15537,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>874</v>
+        <v>154</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15548,10 +15560,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15571,10 +15583,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>10</v>
@@ -15594,10 +15606,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>10</v>
@@ -15617,10 +15629,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>10</v>
@@ -15640,10 +15652,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>10</v>
@@ -15663,10 +15675,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>400</v>
+        <v>882</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>10</v>
@@ -15686,10 +15698,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>10</v>
@@ -15709,10 +15721,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>10</v>
@@ -15732,10 +15744,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>10</v>
@@ -15755,10 +15767,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>10</v>
@@ -15778,10 +15790,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>10</v>
@@ -15801,10 +15813,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>10</v>
@@ -15824,10 +15836,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>104</v>
+        <v>895</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>10</v>
@@ -15847,10 +15859,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>10</v>
@@ -15870,10 +15882,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>902</v>
+        <v>104</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>10</v>
@@ -15893,10 +15905,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>10</v>
@@ -15916,10 +15928,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>10</v>
@@ -15939,10 +15951,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>10</v>
@@ -15962,10 +15974,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>10</v>
@@ -15985,10 +15997,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>10</v>
@@ -16008,10 +16020,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>10</v>
@@ -16031,10 +16043,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>10</v>
@@ -16054,10 +16066,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>10</v>
@@ -16077,10 +16089,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>10</v>
@@ -16100,10 +16112,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>10</v>
@@ -16123,10 +16135,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>10</v>
@@ -16146,10 +16158,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>10</v>
@@ -16169,10 +16181,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>10</v>
@@ -16192,10 +16204,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>10</v>
@@ -16215,10 +16227,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>10</v>
@@ -16238,10 +16250,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>10</v>
@@ -16261,10 +16273,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C495" s="5" t="s">
         <v>10</v>
@@ -16284,10 +16296,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C496" s="5" t="s">
         <v>10</v>
@@ -16307,10 +16319,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>10</v>
@@ -16330,10 +16342,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C498" s="5" t="s">
         <v>10</v>
@@ -16353,10 +16365,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>10</v>
@@ -16376,10 +16388,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>10</v>
@@ -16399,10 +16411,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C501" s="5" t="s">
         <v>10</v>
@@ -16422,10 +16434,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>10</v>
@@ -16445,10 +16457,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>10</v>
@@ -16468,10 +16480,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>10</v>
@@ -16491,10 +16503,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>10</v>
@@ -16514,10 +16526,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>10</v>
@@ -16537,10 +16549,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>10</v>
@@ -16560,10 +16572,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>10</v>
@@ -16583,10 +16595,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>10</v>
@@ -16606,10 +16618,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>10</v>
@@ -16629,10 +16641,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>10</v>
@@ -16652,10 +16664,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>10</v>
@@ -16675,10 +16687,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>10</v>
@@ -16698,10 +16710,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>10</v>
@@ -16721,10 +16733,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>10</v>
@@ -16744,10 +16756,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>10</v>
@@ -16767,10 +16779,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C517" s="5" t="s">
         <v>10</v>
@@ -16790,10 +16802,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>10</v>
@@ -16813,10 +16825,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>10</v>
@@ -16836,10 +16848,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>10</v>
@@ -16859,10 +16871,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>10</v>
@@ -16882,10 +16894,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>10</v>
@@ -16905,10 +16917,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>10</v>
@@ -16928,10 +16940,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>895</v>
+        <v>990</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>10</v>
@@ -16951,10 +16963,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>10</v>
@@ -16974,10 +16986,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>997</v>
+        <v>895</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>10</v>
@@ -16997,10 +17009,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>10</v>
@@ -17020,10 +17032,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C528" s="5" t="s">
         <v>10</v>
@@ -17043,10 +17055,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>10</v>
@@ -17066,10 +17078,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>10</v>
@@ -17089,10 +17101,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>10</v>
@@ -17112,10 +17124,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>10</v>
@@ -17135,10 +17147,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>10</v>
@@ -17158,10 +17170,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>696</v>
+        <v>1009</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>10</v>
@@ -17181,10 +17193,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>10</v>
@@ -17204,10 +17216,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1016</v>
+        <v>696</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>10</v>
@@ -17227,10 +17239,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>10</v>
@@ -17250,10 +17262,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>10</v>
@@ -17273,10 +17285,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C539" s="5" t="s">
         <v>10</v>
@@ -17296,10 +17308,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>692</v>
+        <v>1020</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>10</v>
@@ -17319,10 +17331,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>10</v>
@@ -17342,10 +17354,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1027</v>
+        <v>692</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>10</v>
@@ -17365,10 +17377,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>10</v>
@@ -17388,10 +17400,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C544" s="5" t="s">
         <v>10</v>
@@ -17411,10 +17423,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C545" s="5" t="s">
         <v>10</v>
@@ -17434,10 +17446,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>10</v>
@@ -17457,10 +17469,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C547" s="5" t="s">
         <v>10</v>
@@ -17480,10 +17492,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1038</v>
+        <v>104</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>10</v>
@@ -17503,10 +17515,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>10</v>
@@ -17526,10 +17538,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>10</v>
@@ -17549,10 +17561,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C551" s="5" t="s">
         <v>10</v>
@@ -17572,10 +17584,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C552" s="5" t="s">
         <v>10</v>
@@ -17595,10 +17607,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>10</v>
@@ -17618,10 +17630,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>10</v>
@@ -17641,10 +17653,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>986</v>
+        <v>1048</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>10</v>
@@ -17664,10 +17676,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>10</v>
@@ -17687,10 +17699,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1055</v>
+        <v>986</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>10</v>
@@ -17710,10 +17722,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>10</v>
@@ -17733,10 +17745,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>10</v>
@@ -17756,10 +17768,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>10</v>
@@ -17779,10 +17791,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>986</v>
+        <v>1059</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>10</v>
@@ -17802,10 +17814,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C562" s="5" t="s">
         <v>10</v>
@@ -17825,10 +17837,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1066</v>
+        <v>986</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>10</v>
@@ -17848,10 +17860,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C564" s="5" t="s">
         <v>10</v>
@@ -17871,10 +17883,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>10</v>
@@ -17894,10 +17906,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>186</v>
+        <v>1068</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>10</v>
@@ -17917,10 +17929,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>100</v>
+        <v>1070</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>10</v>
@@ -17940,10 +17952,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C568" s="5" t="s">
         <v>10</v>
@@ -17963,10 +17975,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1075</v>
+        <v>100</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>10</v>
@@ -17986,10 +17998,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1077</v>
+        <v>32</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>10</v>
@@ -18009,10 +18021,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>10</v>
@@ -18032,10 +18044,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>10</v>
@@ -18055,10 +18067,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>186</v>
+        <v>1079</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>10</v>
@@ -18078,10 +18090,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1083</v>
+        <v>786</v>
       </c>
       <c r="C574" s="5" t="s">
         <v>10</v>
@@ -18101,10 +18113,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1085</v>
+        <v>186</v>
       </c>
       <c r="C575" s="5" t="s">
         <v>10</v>
@@ -18124,10 +18136,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C576" s="5" t="s">
         <v>10</v>
@@ -18147,10 +18159,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C577" s="5" t="s">
         <v>10</v>
@@ -18170,10 +18182,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C578" s="5" t="s">
         <v>10</v>
@@ -18193,10 +18205,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C579" s="5" t="s">
         <v>10</v>
@@ -18216,10 +18228,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>10</v>
@@ -18239,10 +18251,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C581" s="5" t="s">
         <v>10</v>
@@ -18262,10 +18274,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>10</v>
@@ -18285,10 +18297,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C583" s="5" t="s">
         <v>10</v>
@@ -18308,10 +18320,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C584" s="5" t="s">
         <v>10</v>
@@ -18331,10 +18343,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C585" s="5" t="s">
         <v>10</v>
@@ -18354,10 +18366,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C586" s="5" t="s">
         <v>10</v>
@@ -18377,10 +18389,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>10</v>
@@ -18400,10 +18412,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>10</v>
@@ -18423,10 +18435,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C589" s="5" t="s">
         <v>10</v>
@@ -18446,10 +18458,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C590" s="5" t="s">
         <v>10</v>
@@ -18469,10 +18481,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C591" s="5" t="s">
         <v>10</v>
@@ -18492,10 +18504,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>891</v>
+        <v>1115</v>
       </c>
       <c r="C592" s="5" t="s">
         <v>10</v>
@@ -18515,10 +18527,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C593" s="5" t="s">
         <v>10</v>
@@ -18538,10 +18550,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1122</v>
+        <v>891</v>
       </c>
       <c r="C594" s="5" t="s">
         <v>10</v>
@@ -18561,10 +18573,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>10</v>
@@ -18584,10 +18596,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C596" s="5" t="s">
         <v>10</v>
@@ -18607,10 +18619,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>10</v>
@@ -18630,10 +18642,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>10</v>
@@ -18653,10 +18665,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C599" s="5" t="s">
         <v>10</v>
@@ -18676,10 +18688,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C600" s="5" t="s">
         <v>10</v>
@@ -18699,10 +18711,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>10</v>
@@ -18722,10 +18734,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>10</v>
@@ -18745,10 +18757,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>10</v>
@@ -18768,10 +18780,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C604" s="5" t="s">
         <v>10</v>
@@ -18791,10 +18803,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C605" s="5" t="s">
         <v>10</v>
@@ -18814,10 +18826,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>10</v>
@@ -18837,10 +18849,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C607" s="5" t="s">
         <v>10</v>
@@ -18860,10 +18872,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C608" s="5" t="s">
         <v>10</v>
@@ -18883,10 +18895,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C609" s="5" t="s">
         <v>10</v>
@@ -18906,10 +18918,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C610" s="5" t="s">
         <v>10</v>
@@ -18929,10 +18941,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C611" s="5" t="s">
         <v>10</v>
@@ -18952,10 +18964,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C612" s="5" t="s">
         <v>10</v>
@@ -18975,10 +18987,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C613" s="5" t="s">
         <v>10</v>
@@ -18998,10 +19010,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>10</v>
@@ -19021,10 +19033,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C615" s="5" t="s">
         <v>10</v>
@@ -19044,10 +19056,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C616" s="5" t="s">
         <v>10</v>
@@ -19067,10 +19079,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C617" s="5" t="s">
         <v>10</v>
@@ -19090,10 +19102,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C618" s="5" t="s">
         <v>10</v>
@@ -19113,10 +19125,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>10</v>
@@ -19136,10 +19148,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C620" s="5" t="s">
         <v>10</v>
@@ -19159,10 +19171,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C621" s="5" t="s">
         <v>10</v>
@@ -19182,10 +19194,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C622" s="5" t="s">
         <v>10</v>
@@ -19205,10 +19217,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>10</v>
@@ -19228,10 +19240,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>10</v>
@@ -19251,10 +19263,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C625" s="5" t="s">
         <v>10</v>
@@ -19274,10 +19286,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>10</v>
@@ -19297,10 +19309,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>10</v>
@@ -19320,10 +19332,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>10</v>
@@ -19343,10 +19355,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>10</v>
@@ -19366,10 +19378,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>10</v>
@@ -19389,10 +19401,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C631" s="5" t="s">
         <v>10</v>
@@ -19412,10 +19424,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>10</v>
@@ -19435,10 +19447,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>10</v>
@@ -19458,10 +19470,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1480</v>
+        <v>1197</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1481</v>
+        <v>1198</v>
       </c>
       <c r="C634" s="5" t="s">
         <v>10</v>
@@ -19481,10 +19493,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>10</v>
@@ -19504,10 +19516,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1203</v>
+        <v>1480</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1204</v>
+        <v>1481</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>10</v>
@@ -19527,10 +19539,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C637" s="5" t="s">
         <v>10</v>
@@ -19550,10 +19562,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>902</v>
+        <v>1204</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>10</v>
@@ -19573,10 +19585,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C639" s="5" t="s">
         <v>10</v>
@@ -19596,10 +19608,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1211</v>
+        <v>902</v>
       </c>
       <c r="C640" s="5" t="s">
         <v>10</v>
@@ -19619,10 +19631,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>10</v>
@@ -19642,10 +19654,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>10</v>
@@ -19665,10 +19677,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C643" s="5" t="s">
         <v>10</v>
@@ -19688,10 +19700,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>10</v>
@@ -19711,10 +19723,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>10</v>
@@ -19734,10 +19746,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C646" s="5" t="s">
         <v>10</v>
@@ -19757,10 +19769,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C647" s="5" t="s">
         <v>10</v>
@@ -19780,10 +19792,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C648" s="5" t="s">
         <v>10</v>
@@ -19803,10 +19815,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C649" s="5" t="s">
         <v>10</v>
@@ -19826,10 +19838,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>10</v>
@@ -19849,10 +19861,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>10</v>
@@ -19872,10 +19884,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>10</v>
@@ -19895,10 +19907,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C653" s="5" t="s">
         <v>10</v>
@@ -19918,10 +19930,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>10</v>
@@ -19941,10 +19953,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>10</v>
@@ -19964,10 +19976,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C656" s="5" t="s">
         <v>10</v>
@@ -19987,10 +19999,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C657" s="5" t="s">
         <v>10</v>
@@ -20010,10 +20022,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>10</v>
@@ -20033,10 +20045,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C659" s="5" t="s">
         <v>10</v>
@@ -20056,10 +20068,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>10</v>
@@ -20079,10 +20091,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>10</v>
@@ -20102,10 +20114,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C662" s="5" t="s">
         <v>10</v>
@@ -20125,10 +20137,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1448</v>
+        <v>1252</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1449</v>
+        <v>1253</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>10</v>
@@ -20148,10 +20160,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C664" s="5" t="s">
         <v>10</v>
@@ -20171,10 +20183,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>1258</v>
+        <v>1448</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1259</v>
+        <v>1449</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>10</v>
@@ -20194,10 +20206,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C666" s="5" t="s">
         <v>10</v>
@@ -20217,10 +20229,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C667" s="5" t="s">
         <v>10</v>
@@ -20240,10 +20252,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C668" s="5" t="s">
         <v>10</v>
@@ -20263,10 +20275,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>186</v>
+        <v>1263</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>10</v>
@@ -20286,10 +20298,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>186</v>
+        <v>1265</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>10</v>
@@ -20309,7 +20321,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>186</v>
@@ -20332,10 +20344,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>10</v>
@@ -20355,10 +20367,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1272</v>
+        <v>186</v>
       </c>
       <c r="C673" s="5" t="s">
         <v>10</v>
@@ -20378,10 +20390,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C674" s="5" t="s">
         <v>10</v>
@@ -20401,10 +20413,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C675" s="5" t="s">
         <v>10</v>
@@ -20424,10 +20436,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C676" s="5" t="s">
         <v>10</v>
@@ -20447,10 +20459,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>10</v>
@@ -20470,10 +20482,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>782</v>
+        <v>1278</v>
       </c>
       <c r="C678" s="5" t="s">
         <v>10</v>
@@ -20493,10 +20505,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C679" s="5" t="s">
         <v>10</v>
@@ -20516,10 +20528,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1285</v>
+        <v>782</v>
       </c>
       <c r="C680" s="5" t="s">
         <v>10</v>
@@ -20539,10 +20551,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C681" s="5" t="s">
         <v>10</v>
@@ -20562,10 +20574,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C682" s="5" t="s">
         <v>10</v>
@@ -20585,10 +20597,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>10</v>
@@ -20608,10 +20620,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>10</v>
@@ -20631,10 +20643,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>10</v>
@@ -20654,10 +20666,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C686" s="5" t="s">
         <v>10</v>
@@ -20677,10 +20689,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>10</v>
@@ -20700,10 +20712,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C688" s="5" t="s">
         <v>10</v>
@@ -20723,10 +20735,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>10</v>
@@ -20746,10 +20758,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>10</v>
@@ -20769,10 +20781,10 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C691" s="5" t="s">
         <v>10</v>
@@ -20792,10 +20804,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>10</v>
@@ -20815,10 +20827,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C693" s="5" t="s">
         <v>10</v>
@@ -20838,10 +20850,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>10</v>
@@ -20861,10 +20873,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>10</v>
@@ -20884,10 +20896,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>10</v>
@@ -20907,10 +20919,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>10</v>
@@ -20930,10 +20942,10 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>10</v>
@@ -20953,10 +20965,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>10</v>
@@ -20976,10 +20988,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1456</v>
+        <v>1320</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1457</v>
+        <v>1321</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>10</v>
@@ -20999,10 +21011,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>10</v>
@@ -21022,10 +21034,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>10</v>
@@ -21045,10 +21057,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1450</v>
+        <v>1324</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1451</v>
+        <v>1325</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>10</v>
@@ -21068,22 +21080,22 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1326</v>
+        <v>1462</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1327</v>
+        <v>1463</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>1328</v>
+        <v>10</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1329</v>
+        <v>11</v>
       </c>
       <c r="E704" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>1330</v>
+        <v>13</v>
       </c>
       <c r="G704" s="6" t="s">
         <v>14</v>
@@ -21091,22 +21103,22 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1331</v>
+        <v>1450</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>186</v>
+        <v>1451</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F705" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G705" s="6" t="s">
         <v>14</v>
@@ -21114,16 +21126,16 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E706" s="5" t="s">
         <v>12</v>
@@ -21137,22 +21149,22 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1337</v>
+        <v>186</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>1335</v>
+        <v>186</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F707" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>14</v>
@@ -21160,10 +21172,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1335</v>
@@ -21183,10 +21195,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1335</v>
@@ -21206,10 +21218,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1335</v>
@@ -21229,10 +21241,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1335</v>
@@ -21252,22 +21264,22 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>10</v>
+        <v>1335</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>11</v>
+        <v>1335</v>
       </c>
       <c r="E712" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F712" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>14</v>
@@ -21275,22 +21287,22 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>186</v>
+        <v>1345</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>186</v>
+        <v>1335</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F713" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G713" s="6" t="s">
         <v>14</v>
@@ -21298,22 +21310,22 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>1351</v>
+        <v>10</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>1352</v>
+        <v>11</v>
       </c>
       <c r="E714" s="5" t="s">
-        <v>1353</v>
+        <v>12</v>
       </c>
       <c r="F714" s="6" t="s">
-        <v>1332</v>
+        <v>13</v>
       </c>
       <c r="G714" s="6" t="s">
         <v>14</v>
@@ -21321,22 +21333,22 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1355</v>
+        <v>186</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>1356</v>
+        <v>186</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F715" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G715" s="6" t="s">
         <v>14</v>
@@ -21344,22 +21356,22 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>1328</v>
+        <v>1351</v>
       </c>
       <c r="D716" s="5" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="E716" s="5" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
       <c r="F716" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G716" s="6" t="s">
         <v>14</v>
@@ -21367,10 +21379,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C717" s="5" t="s">
         <v>1356</v>
@@ -21390,13 +21402,13 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D718" s="5" t="s">
         <v>1329</v>
@@ -21413,10 +21425,10 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>1356</v>
@@ -21436,10 +21448,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C720" s="5" t="s">
         <v>1356</v>
@@ -21459,10 +21471,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C721" s="5" t="s">
         <v>1356</v>
@@ -21482,10 +21494,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C722" s="5" t="s">
         <v>1356</v>
@@ -21505,10 +21517,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>1356</v>
@@ -21528,10 +21540,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C724" s="5" t="s">
         <v>1356</v>
@@ -21551,10 +21563,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C725" s="5" t="s">
         <v>1356</v>
@@ -21574,10 +21586,10 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C726" s="5" t="s">
         <v>1356</v>
@@ -21597,10 +21609,10 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C727" s="5" t="s">
         <v>1356</v>
@@ -21620,10 +21632,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C728" s="5" t="s">
         <v>1356</v>
@@ -21643,10 +21655,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C729" s="5" t="s">
         <v>1356</v>
@@ -21666,10 +21678,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C730" s="5" t="s">
         <v>1356</v>
@@ -21689,10 +21701,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>1356</v>
@@ -21712,10 +21724,10 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C732" s="5" t="s">
         <v>1356</v>
@@ -21735,10 +21747,10 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C733" s="5" t="s">
         <v>1356</v>
@@ -21758,10 +21770,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1339</v>
+        <v>1390</v>
       </c>
       <c r="C734" s="5" t="s">
         <v>1356</v>
@@ -21781,10 +21793,10 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C735" s="5" t="s">
         <v>1356</v>
@@ -21804,10 +21816,10 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1397</v>
+        <v>1339</v>
       </c>
       <c r="C736" s="5" t="s">
         <v>1356</v>
@@ -21827,10 +21839,10 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C737" s="5" t="s">
         <v>1356</v>
@@ -21850,10 +21862,10 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C738" s="5" t="s">
         <v>1356</v>
@@ -21873,10 +21885,10 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>1356</v>
@@ -21896,10 +21908,10 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C740" s="5" t="s">
         <v>1356</v>
@@ -21919,10 +21931,10 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C741" s="5" t="s">
         <v>1356</v>
@@ -21942,10 +21954,10 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C742" s="5" t="s">
         <v>1356</v>
@@ -21965,10 +21977,10 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C743" s="5" t="s">
         <v>1356</v>
@@ -21988,10 +22000,10 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>1356</v>
@@ -22011,16 +22023,16 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E745" s="5" t="s">
         <v>12</v>
@@ -22034,16 +22046,16 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>1416</v>
+        <v>1356</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>1417</v>
+        <v>1329</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>12</v>
@@ -22057,10 +22069,10 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C747" s="5" t="s">
         <v>1416</v>
@@ -22080,22 +22092,22 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>186</v>
+        <v>1419</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>186</v>
+        <v>1416</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>186</v>
+        <v>1417</v>
       </c>
       <c r="E748" s="5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="F748" s="6" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G748" s="6" t="s">
         <v>14</v>
@@ -22103,22 +22115,22 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>10</v>
+        <v>1416</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>11</v>
+        <v>1417</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F749" s="6" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="G749" s="6" t="s">
         <v>14</v>
@@ -22126,22 +22138,22 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B750" s="5" t="s">
-        <v>1426</v>
+        <v>186</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>1328</v>
+        <v>186</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>1329</v>
+        <v>186</v>
       </c>
       <c r="E750" s="5" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F750" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G750" s="6" t="s">
         <v>14</v>
@@ -22149,24 +22161,70 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D751" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E751" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F751" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G751" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E752" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F752" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G752" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="B751" s="5" t="s">
+      <c r="B753" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C751" s="5" t="s">
+      <c r="C753" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D751" s="5" t="s">
+      <c r="D753" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E751" s="5" t="s">
+      <c r="E753" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F751" s="6" t="s">
+      <c r="F753" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="G751" s="6" t="s">
+      <c r="G753" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EXCEL LIBS/MODELOS.xlsx
+++ b/EXCEL LIBS/MODELOS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5266" uniqueCount="1497">
   <si>
     <t>sqlnav01.aquinos.org : Aquinos, S.A.</t>
   </si>
@@ -4495,9 +4495,6 @@
     <t xml:space="preserve">MEGHAN </t>
   </si>
   <si>
-    <t>Categorias Produto : 03-08-2020 09:33:12</t>
-  </si>
-  <si>
     <t>1098</t>
   </si>
   <si>
@@ -4508,6 +4505,15 @@
   </si>
   <si>
     <t>TUFJORD</t>
+  </si>
+  <si>
+    <t>Categorias Produto : 10-08-2020 17:05:00</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>DUDLEY</t>
   </si>
 </sst>
 </file>
@@ -4638,8 +4644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G753" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:G753"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NavDataRegion" displayName="NavDataRegion" ref="A3:G754" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:G754"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Código" dataDxfId="5"/>
     <tableColumn id="2" name="Descrição" dataDxfId="4"/>
@@ -4916,7 +4922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G753"/>
+  <dimension ref="A1:G754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7487,10 +7493,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>1491</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>1492</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>10</v>
@@ -7510,10 +7516,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>1494</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>10</v>
@@ -7533,10 +7539,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>179</v>
+        <v>1495</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>180</v>
+        <v>1496</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -7556,10 +7562,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>10</v>
@@ -7579,10 +7585,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>10</v>
@@ -7602,10 +7608,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>10</v>
@@ -7625,10 +7631,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -7648,10 +7654,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>10</v>
@@ -7671,10 +7677,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>10</v>
@@ -7694,10 +7700,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>10</v>
@@ -7717,10 +7723,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -7740,10 +7746,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>10</v>
@@ -7763,10 +7769,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>10</v>
@@ -7786,10 +7792,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>10</v>
@@ -7809,10 +7815,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -7832,10 +7838,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>10</v>
@@ -7855,10 +7861,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>10</v>
@@ -7878,10 +7884,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>10</v>
@@ -7901,10 +7907,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>10</v>
@@ -7924,10 +7930,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>10</v>
@@ -7947,10 +7953,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>10</v>
@@ -7970,10 +7976,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>10</v>
@@ -7993,10 +7999,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>10</v>
@@ -8016,10 +8022,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>10</v>
@@ -8039,10 +8045,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>10</v>
@@ -8062,10 +8068,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>10</v>
@@ -8085,10 +8091,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>10</v>
@@ -8108,10 +8114,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>10</v>
@@ -8131,10 +8137,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>10</v>
@@ -8154,10 +8160,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>10</v>
@@ -8177,10 +8183,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>10</v>
@@ -8200,10 +8206,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>10</v>
@@ -8223,10 +8229,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>10</v>
@@ -8246,10 +8252,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>10</v>
@@ -8269,10 +8275,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>10</v>
@@ -8292,10 +8298,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>10</v>
@@ -8315,10 +8321,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>10</v>
@@ -8338,10 +8344,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>10</v>
@@ -8361,10 +8367,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>10</v>
@@ -8384,10 +8390,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>10</v>
@@ -8407,10 +8413,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>10</v>
@@ -8430,10 +8436,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>10</v>
@@ -8453,10 +8459,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>10</v>
@@ -8476,10 +8482,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>10</v>
@@ -8499,10 +8505,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>10</v>
@@ -8522,10 +8528,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>10</v>
@@ -8545,10 +8551,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>10</v>
@@ -8568,10 +8574,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>10</v>
@@ -8591,10 +8597,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>10</v>
@@ -8614,10 +8620,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>10</v>
@@ -8637,10 +8643,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>10</v>
@@ -8660,10 +8666,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>10</v>
@@ -8683,10 +8689,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>10</v>
@@ -8706,10 +8712,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>10</v>
@@ -8729,10 +8735,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>10</v>
@@ -8752,10 +8758,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>10</v>
@@ -8775,10 +8781,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>10</v>
@@ -8798,10 +8804,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>10</v>
@@ -8821,10 +8827,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>10</v>
@@ -8844,10 +8850,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>10</v>
@@ -8867,10 +8873,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>10</v>
@@ -8890,10 +8896,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>10</v>
@@ -8913,10 +8919,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>10</v>
@@ -8936,10 +8942,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>10</v>
@@ -8959,10 +8965,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>10</v>
@@ -8982,10 +8988,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>10</v>
@@ -9005,10 +9011,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>10</v>
@@ -9028,10 +9034,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>10</v>
@@ -9051,10 +9057,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>10</v>
@@ -9074,10 +9080,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>10</v>
@@ -9097,10 +9103,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>10</v>
@@ -9120,10 +9126,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>10</v>
@@ -9143,10 +9149,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>10</v>
@@ -9166,10 +9172,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>10</v>
@@ -9189,10 +9195,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>10</v>
@@ -9212,10 +9218,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>10</v>
@@ -9235,10 +9241,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>10</v>
@@ -9258,10 +9264,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>10</v>
@@ -9281,10 +9287,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>10</v>
@@ -9304,10 +9310,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -9327,10 +9333,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -9350,10 +9356,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -9373,10 +9379,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>10</v>
@@ -9396,10 +9402,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>10</v>
@@ -9419,10 +9425,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>10</v>
@@ -9442,10 +9448,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>10</v>
@@ -9465,10 +9471,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>10</v>
@@ -9488,10 +9494,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>10</v>
@@ -9511,10 +9517,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>10</v>
@@ -9534,10 +9540,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>10</v>
@@ -9557,10 +9563,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>10</v>
@@ -9580,10 +9586,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>10</v>
@@ -9603,10 +9609,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>10</v>
@@ -9626,10 +9632,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>10</v>
@@ -9649,10 +9655,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>10</v>
@@ -9672,10 +9678,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>10</v>
@@ -9695,10 +9701,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>10</v>
@@ -9718,10 +9724,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>10</v>
@@ -9741,10 +9747,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>10</v>
@@ -9764,10 +9770,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>10</v>
@@ -9787,10 +9793,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>10</v>
@@ -9810,10 +9816,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>10</v>
@@ -9833,10 +9839,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>10</v>
@@ -9856,10 +9862,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>10</v>
@@ -9879,10 +9885,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>10</v>
@@ -9902,10 +9908,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>10</v>
@@ -9925,10 +9931,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>10</v>
@@ -9948,10 +9954,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>10</v>
@@ -9971,10 +9977,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>10</v>
@@ -9994,10 +10000,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>10</v>
@@ -10017,10 +10023,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>10</v>
@@ -10040,10 +10046,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>10</v>
@@ -10063,10 +10069,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>10</v>
@@ -10086,10 +10092,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>10</v>
@@ -10109,10 +10115,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>10</v>
@@ -10132,10 +10138,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>10</v>
@@ -10155,10 +10161,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>10</v>
@@ -10178,10 +10184,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>10</v>
@@ -10201,10 +10207,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>10</v>
@@ -10224,10 +10230,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>10</v>
@@ -10247,10 +10253,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>10</v>
@@ -10270,10 +10276,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>10</v>
@@ -10293,10 +10299,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>10</v>
@@ -10316,10 +10322,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>10</v>
@@ -10339,10 +10345,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>10</v>
@@ -10362,10 +10368,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>10</v>
@@ -10385,10 +10391,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>10</v>
@@ -10408,10 +10414,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>10</v>
@@ -10431,10 +10437,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>10</v>
@@ -10454,10 +10460,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>10</v>
@@ -10477,10 +10483,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>10</v>
@@ -10500,10 +10506,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>10</v>
@@ -10523,10 +10529,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>10</v>
@@ -10546,10 +10552,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>10</v>
@@ -10569,10 +10575,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>10</v>
@@ -10592,10 +10598,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>10</v>
@@ -10615,10 +10621,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>10</v>
@@ -10638,10 +10644,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>10</v>
@@ -10661,10 +10667,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>10</v>
@@ -10684,10 +10690,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -10707,10 +10713,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>10</v>
@@ -10730,10 +10736,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>10</v>
@@ -10753,10 +10759,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>10</v>
@@ -10776,10 +10782,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>10</v>
@@ -10799,10 +10805,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>10</v>
@@ -10822,10 +10828,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>10</v>
@@ -10845,10 +10851,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>10</v>
@@ -10868,10 +10874,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>10</v>
@@ -10891,10 +10897,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>10</v>
@@ -10914,10 +10920,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>10</v>
@@ -10937,10 +10943,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>10</v>
@@ -10960,10 +10966,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>10</v>
@@ -10983,10 +10989,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>10</v>
@@ -11006,10 +11012,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>10</v>
@@ -11029,10 +11035,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>10</v>
@@ -11052,10 +11058,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>10</v>
@@ -11075,10 +11081,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>10</v>
@@ -11098,10 +11104,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>10</v>
@@ -11121,10 +11127,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -11144,10 +11150,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>10</v>
@@ -11167,10 +11173,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>10</v>
@@ -11190,10 +11196,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>10</v>
@@ -11213,10 +11219,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>10</v>
@@ -11236,10 +11242,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>10</v>
@@ -11259,10 +11265,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>10</v>
@@ -11282,10 +11288,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>10</v>
@@ -11305,10 +11311,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>10</v>
@@ -11328,10 +11334,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>10</v>
@@ -11351,10 +11357,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>10</v>
@@ -11374,10 +11380,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>10</v>
@@ -11397,10 +11403,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>10</v>
@@ -11420,10 +11426,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>10</v>
@@ -11443,10 +11449,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>10</v>
@@ -11466,10 +11472,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>10</v>
@@ -11489,10 +11495,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>10</v>
@@ -11512,10 +11518,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>10</v>
@@ -11535,10 +11541,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>10</v>
@@ -11558,10 +11564,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>10</v>
@@ -11581,10 +11587,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>10</v>
@@ -11604,10 +11610,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>10</v>
@@ -11627,10 +11633,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>10</v>
@@ -11650,10 +11656,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>10</v>
@@ -11673,10 +11679,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>10</v>
@@ -11696,10 +11702,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>10</v>
@@ -11719,10 +11725,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>10</v>
@@ -11742,10 +11748,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>10</v>
@@ -11765,10 +11771,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>10</v>
@@ -11788,10 +11794,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>10</v>
@@ -11811,10 +11817,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>10</v>
@@ -11834,10 +11840,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>10</v>
@@ -11857,10 +11863,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>10</v>
@@ -11880,10 +11886,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>10</v>
@@ -11903,10 +11909,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>10</v>
@@ -11926,10 +11932,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>10</v>
@@ -11949,10 +11955,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>10</v>
@@ -11972,10 +11978,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>10</v>
@@ -11995,10 +12001,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>10</v>
@@ -12018,10 +12024,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>10</v>
@@ -12041,10 +12047,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>10</v>
@@ -12064,10 +12070,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>10</v>
@@ -12087,10 +12093,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>10</v>
@@ -12110,10 +12116,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>10</v>
@@ -12133,10 +12139,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>10</v>
@@ -12156,10 +12162,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>10</v>
@@ -12179,10 +12185,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>10</v>
@@ -12202,10 +12208,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>10</v>
@@ -12225,10 +12231,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>10</v>
@@ -12248,10 +12254,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>589</v>
+        <v>372</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>10</v>
@@ -12271,10 +12277,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>10</v>
@@ -12294,10 +12300,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>10</v>
@@ -12317,10 +12323,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>10</v>
@@ -12340,10 +12346,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>10</v>
@@ -12363,10 +12369,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>10</v>
@@ -12386,10 +12392,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>10</v>
@@ -12409,10 +12415,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>10</v>
@@ -12432,10 +12438,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>10</v>
@@ -12455,10 +12461,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>10</v>
@@ -12478,10 +12484,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>10</v>
@@ -12501,10 +12507,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>10</v>
@@ -12524,10 +12530,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>10</v>
@@ -12547,10 +12553,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>10</v>
@@ -12570,10 +12576,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>10</v>
@@ -12593,10 +12599,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>10</v>
@@ -12616,10 +12622,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>10</v>
@@ -12639,10 +12645,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>10</v>
@@ -12662,10 +12668,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>10</v>
@@ -12685,10 +12691,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>10</v>
@@ -12708,10 +12714,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>10</v>
@@ -12731,10 +12737,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>10</v>
@@ -12754,10 +12760,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>10</v>
@@ -12777,10 +12783,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>10</v>
@@ -12800,10 +12806,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>10</v>
@@ -12823,10 +12829,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>10</v>
@@ -12846,10 +12852,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>10</v>
@@ -12869,10 +12875,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>10</v>
@@ -12892,10 +12898,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>10</v>
@@ -12915,10 +12921,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>10</v>
@@ -12938,10 +12944,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>10</v>
@@ -12961,10 +12967,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>10</v>
@@ -12984,10 +12990,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>10</v>
@@ -13007,10 +13013,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>10</v>
@@ -13030,10 +13036,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>10</v>
@@ -13053,10 +13059,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>10</v>
@@ -13076,10 +13082,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>10</v>
@@ -13099,10 +13105,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>10</v>
@@ -13122,10 +13128,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>10</v>
@@ -13145,10 +13151,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>10</v>
@@ -13168,10 +13174,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>10</v>
@@ -13191,10 +13197,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>10</v>
@@ -13214,10 +13220,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>10</v>
@@ -13237,10 +13243,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>10</v>
@@ -13260,10 +13266,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13283,10 +13289,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13306,10 +13312,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
@@ -13329,10 +13335,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13352,10 +13358,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13375,10 +13381,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13398,10 +13404,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13421,10 +13427,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13444,10 +13450,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13467,10 +13473,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13490,10 +13496,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13513,10 +13519,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>10</v>
@@ -13536,10 +13542,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>10</v>
@@ -13559,10 +13565,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>10</v>
@@ -13582,10 +13588,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>10</v>
@@ -13605,10 +13611,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>10</v>
@@ -13628,10 +13634,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>10</v>
@@ -13651,10 +13657,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>10</v>
@@ -13674,10 +13680,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>10</v>
@@ -13697,10 +13703,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>10</v>
@@ -13720,10 +13726,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>10</v>
@@ -13743,10 +13749,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>10</v>
@@ -13766,10 +13772,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>10</v>
@@ -13789,10 +13795,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>10</v>
@@ -13812,10 +13818,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>10</v>
@@ -13835,10 +13841,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>10</v>
@@ -13858,10 +13864,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>10</v>
@@ -13881,10 +13887,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>10</v>
@@ -13904,10 +13910,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>10</v>
@@ -13927,10 +13933,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>10</v>
@@ -13950,10 +13956,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>10</v>
@@ -13973,10 +13979,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>10</v>
@@ -13996,10 +14002,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>10</v>
@@ -14019,10 +14025,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>10</v>
@@ -14042,10 +14048,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>10</v>
@@ -14065,10 +14071,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>10</v>
@@ -14088,10 +14094,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>10</v>
@@ -14111,10 +14117,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>10</v>
@@ -14134,10 +14140,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>10</v>
@@ -14157,10 +14163,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>10</v>
@@ -14180,10 +14186,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>10</v>
@@ -14203,10 +14209,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>10</v>
@@ -14226,10 +14232,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>10</v>
@@ -14249,10 +14255,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>10</v>
@@ -14272,10 +14278,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>10</v>
@@ -14295,10 +14301,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>10</v>
@@ -14318,10 +14324,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>10</v>
@@ -14341,10 +14347,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>10</v>
@@ -14364,10 +14370,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>10</v>
@@ -14387,10 +14393,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>10</v>
@@ -14410,10 +14416,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>10</v>
@@ -14433,10 +14439,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>10</v>
@@ -14456,10 +14462,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>10</v>
@@ -14479,10 +14485,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>10</v>
@@ -14502,10 +14508,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>10</v>
@@ -14525,10 +14531,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>10</v>
@@ -14548,10 +14554,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>10</v>
@@ -14571,10 +14577,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>10</v>
@@ -14594,10 +14600,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>10</v>
@@ -14617,10 +14623,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>10</v>
@@ -14640,10 +14646,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>10</v>
@@ -14663,10 +14669,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>10</v>
@@ -14686,10 +14692,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>10</v>
@@ -14709,10 +14715,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>10</v>
@@ -14732,10 +14738,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>10</v>
@@ -14755,10 +14761,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>10</v>
@@ -14778,10 +14784,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>10</v>
@@ -14801,10 +14807,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>10</v>
@@ -14824,10 +14830,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>10</v>
@@ -14847,10 +14853,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>10</v>
@@ -14870,10 +14876,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>10</v>
@@ -14893,10 +14899,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>10</v>
@@ -14916,10 +14922,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>10</v>
@@ -14939,10 +14945,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>10</v>
@@ -14962,10 +14968,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>10</v>
@@ -14985,10 +14991,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>10</v>
@@ -15008,10 +15014,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>186</v>
+        <v>826</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>10</v>
@@ -15031,10 +15037,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>10</v>
@@ -15054,10 +15060,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>10</v>
@@ -15077,10 +15083,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>632</v>
+        <v>831</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>10</v>
@@ -15100,10 +15106,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>10</v>
@@ -15123,10 +15129,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>10</v>
@@ -15146,10 +15152,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>10</v>
@@ -15169,10 +15175,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>10</v>
@@ -15192,10 +15198,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>10</v>
@@ -15215,10 +15221,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>10</v>
@@ -15238,10 +15244,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>10</v>
@@ -15261,10 +15267,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>10</v>
@@ -15284,10 +15290,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>10</v>
@@ -15307,10 +15313,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>10</v>
@@ -15330,10 +15336,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>10</v>
@@ -15353,10 +15359,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>10</v>
@@ -15376,10 +15382,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>10</v>
@@ -15399,10 +15405,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>10</v>
@@ -15422,10 +15428,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>10</v>
@@ -15445,10 +15451,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>10</v>
@@ -15468,10 +15474,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>10</v>
@@ -15491,10 +15497,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>374</v>
+        <v>866</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>10</v>
@@ -15514,10 +15520,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>10</v>
@@ -15537,10 +15543,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>154</v>
+        <v>869</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>10</v>
@@ -15560,10 +15566,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>872</v>
+        <v>154</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>10</v>
@@ -15583,10 +15589,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       